--- a/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
+++ b/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\CARPETA INFO YURI\MINISTERIO\CICLO TRES\PROYECTO\proyecto mintic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SALVAVIDAS\OneDrive - Eficacia\Mis documentos\EFICACIA\DOROZCO\MINTIC2022\C3-PRG\Proyecto\ProyectoTic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D891972-518B-4EB2-AF45-E8C75D50F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="806" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="7" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="GESTION EQUIPOS" sheetId="5" r:id="rId5"/>
     <sheet name="GESTION DE ACTIVIDADES" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -430,6 +431,9 @@
     <t>Nombre: REGISTRAR TERCERO CLIENTE</t>
   </si>
   <si>
+    <t>Nombre: REGISTRAR TERCERO ASESOR COMERCIAL</t>
+  </si>
+  <si>
     <r>
       <t>Funcionalidad:</t>
     </r>
@@ -441,11 +445,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito registrar terceros con perfiles cliente, con los datos iniciales nombre, apellido, direccion, telefono, ciudad, tipo de documento, numero de docuemnto</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: REGISTRAR TERCERO ASESOR COMERCIAL</t>
+      <t xml:space="preserve"> Necesito registrar terceros con perfiles asesor comercial, con los datos iniciales nombre, apellido, direccion, telefono, ciudad, tipo de documento, numero de docuemnto</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: REGISTRAR TERCERO COORDINADOR TECNICO</t>
   </si>
   <si>
     <r>
@@ -459,11 +463,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito registrar terceros con perfiles asesor comercial, con los datos iniciales nombre, apellido, direccion, telefono, ciudad, tipo de documento, numero de docuemnto</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: REGISTRAR TERCERO COORDINADOR TECNICO</t>
+      <t xml:space="preserve"> Necesito registrar coordinador tecnico, con datos Nombre, tipo de documento, numero de documento,telefono, direccion, ciudad, numero de contrato, correo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rol:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yo como COORDINADOR TECNICO</t>
+    </r>
+  </si>
+  <si>
+    <t>ID:HU-GT4</t>
+  </si>
+  <si>
+    <t>ID:HU-GT5</t>
+  </si>
+  <si>
+    <t>EN LA HISTORIA HU-GT1</t>
   </si>
   <si>
     <r>
@@ -477,8 +502,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito registrar coordinador tecnico, con datos Nombre, tipo de documento, numero de documento,telefono, direccion, ciudad, numero de contrato, correo</t>
-    </r>
+      <t xml:space="preserve"> Necesito asignar equipo adquirido al cliente correspondiente, con los datos de serial, nombre, modelo, marca, referencia. </t>
+    </r>
+  </si>
+  <si>
+    <t>ID:HU-GC6</t>
+  </si>
+  <si>
+    <t>esta en la HU-GC4</t>
+  </si>
+  <si>
+    <t>si es referente al la hu-gc6, e debe retornar nombre, y cedula en lista, para permitir escoger</t>
   </si>
   <si>
     <r>
@@ -492,17 +526,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Yo como COORDINADOR TECNICO</t>
-    </r>
-  </si>
-  <si>
-    <t>ID:HU-GT4</t>
-  </si>
-  <si>
-    <t>ID:HU-GT5</t>
-  </si>
-  <si>
-    <t>EN LA HISTORIA HU-GT1</t>
+      <t xml:space="preserve"> Yo como Coordinador tecnico</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre:CRONOGRAMA DE ACTIVIDADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: REGISTRO  ACTIVIDADES EN EL CRONOGRAMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: ASIGNACION TECNICO A REGISTRO  ACTIVIDADES EN EL CRONOGRAMA </t>
   </si>
   <si>
     <r>
@@ -516,17 +550,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito asignar equipo adquirido al cliente correspondiente, con los datos de serial, nombre, modelo, marca, referencia. </t>
-    </r>
-  </si>
-  <si>
-    <t>ID:HU-GC6</t>
-  </si>
-  <si>
-    <t>esta en la HU-GC4</t>
-  </si>
-  <si>
-    <t>si es referente al la hu-gc6, e debe retornar nombre, y cedula en lista, para permitir escoger</t>
+      <t xml:space="preserve"> Necesito que al  hacer un registro de alguna actividad, pueda en algun campo desplegar la lista de tecnicos disponibles para la hora y fecha escogida y tener un filtro por nombre y una vez encontrado, porder escoger el que quiera que realize dicha actividad </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: MODIFICACION DE ACTIVIDADES EN EL CRONOGRAMA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: MARCAR ACTIVIDADES EN EL CRONOGRAMA  </t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito que el sistema una vez pasado la hora y el dia donde se registro la actividad, por medio de un mensaje emergente me indique marcar la actividad con dos opciones, por medio de dos botones, uno como "pendiente para reprogramar", y otro como "boton de realizado"</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: ACTIVIDADES EN EL CRONOGRAMA  PENDIENTE POR REPROGRAMAR</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito que una vez marque una actividad como "pendiente por reprogramar", se cambie de color, y al darle click me indique automaticamente los dias y horas disponibles, y en un solo click sea pasada la informacion, de la que esta por reprogramar al nuevo dia escogido y que ese nuevo dia u hora, sea marcada como "actividad reprogramada", y la que estaba "por reprogramar" me la deje como disponible.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: TIPOS DE REGISTRO DE ACTIVIDADES</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito tener dos posibilidades de registro, manual y automatica. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: REGISTRO DE ACTIVIDADES INICIALES</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito Registrar inicialmente cinco actividades, Revision, Cotizacion, Mantenimiento, Prehistalacion e Instalacion, se registran en la base de datos, para ser utilizados a la hora de hacer un registro en el cronograma</t>
+    </r>
   </si>
   <si>
     <r>
@@ -540,17 +640,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Yo como Coordinador tecnico</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre:CRONOGRAMA DE ACTIVIDADES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre: REGISTRO  ACTIVIDADES EN EL CRONOGRAMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre: ASIGNACION TECNICO A REGISTRO  ACTIVIDADES EN EL CRONOGRAMA </t>
+      <t xml:space="preserve"> Yo como Coordinador tecnico y Tecnico</t>
+    </r>
   </si>
   <si>
     <r>
@@ -564,14 +655,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito que al  hacer un registro de alguna actividad, pueda en algun campo desplegar la lista de tecnicos disponibles para la hora y fecha escogida y tener un filtro por nombre y una vez encontrado, porder escoger el que quiera que realize dicha actividad </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre: MODIFICACION DE ACTIVIDADES EN EL CRONOGRAMA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre: MARCAR ACTIVIDADES EN EL CRONOGRAMA  </t>
+      <t xml:space="preserve"> Necesito una vista donde pueda tener un cronograma, semejante a un calendario, donde pueda ver con facilidad mis actividades mensuales , semanales o por dia según sea el caso</t>
+    </r>
   </si>
   <si>
     <r>
@@ -585,11 +670,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito que el sistema una vez pasado la hora y el dia donde se registro la actividad, por medio de un mensaje emergente me indique marcar la actividad con dos opciones, por medio de dos botones, uno como "pendiente para reprogramar", y otro como "boton de realizado"</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: ACTIVIDADES EN EL CRONOGRAMA  PENDIENTE POR REPROGRAMAR</t>
+      <t xml:space="preserve"> Necesito que al  hacer un registro de alguna actividad, pueda darle click a la hora y dia escogido para registrar el tipo de actividad y las observaciones. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: REGISTRO DE ACTIVIDAD AUTOMATICA </t>
   </si>
   <si>
     <r>
@@ -603,11 +688,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito que una vez marque una actividad como "pendiente por reprogramar", se cambie de color, y al darle click me indique automaticamente los dias y horas disponibles, y en un solo click sea pasada la informacion, de la que esta por reprogramar al nuevo dia escogido y que ese nuevo dia u hora, sea marcada como "actividad reprogramada", y la que estaba "por reprogramar" me la deje como disponible.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: TIPOS DE REGISTRO DE ACTIVIDADES</t>
+      <t xml:space="preserve"> Necesito escoger que actividades puedo darles la opcion que sean registradas automaticamente, según los dias que en el cronograma esten señalados como disponibles, inicialmente las Actividades de Mantenimiento, deben ser programadas cada seis meses. </t>
+    </r>
   </si>
   <si>
     <r>
@@ -621,11 +703,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito tener dos posibilidades de registro, manual y automatica. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: REGISTRO DE ACTIVIDADES INICIALES</t>
+      <t xml:space="preserve"> Necesito que a un registro de alguna actividad, el sistema me permita tener un boton de modificar, para poder hacer cambios sobre los campos registrados, campos como tipo de actividad, y observaciones</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: ACTIVIDADES REPROGRAMADA EN EL CRONOGRAMA</t>
   </si>
   <si>
     <r>
@@ -639,7 +721,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito Registrar inicialmente cinco actividades, Revision, Cotizacion, Mantenimiento, Prehistalacion e Instalacion, se registran en la base de datos, para ser utilizados a la hora de hacer un registro en el cronograma</t>
+      <t xml:space="preserve"> Necesito ver cuantas veces ha sido reprogramada una actividad dentro de algun dato que pueda ver dentro del registro de la actividad</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: CONTADOR DE ACTIVIDADES</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito ver en la pestaña de cronograma, el detalle de cuantas actividades tengo en el mes, y cuantas por tipo de actividad. </t>
     </r>
   </si>
   <si>
@@ -654,8 +754,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Yo como Coordinador tecnico y Tecnico</t>
-    </r>
+      <t xml:space="preserve"> Yo como Coordinador tecnico y tecnico</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: ELIMINAR ACTIVIDADES EN EL CRONOGRAMA  </t>
   </si>
   <si>
     <r>
@@ -669,7 +772,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito una vista donde pueda tener un cronograma, semejante a un calendario, donde pueda ver con facilidad mis actividades mensuales , semanales o por dia según sea el caso</t>
+      <t xml:space="preserve"> Necesito poder eliminar de forma rapida un registro de actividad que ya no necesite</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rol:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yo como COORDINADOR DE COMPRAS</t>
     </r>
   </si>
   <si>
@@ -684,11 +802,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito que al  hacer un registro de alguna actividad, pueda darle click a la hora y dia escogido para registrar el tipo de actividad y las observaciones. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre: REGISTRO DE ACTIVIDAD AUTOMATICA </t>
+      <t xml:space="preserve"> Necesito registrar los equipos pedidos, con datos de fecha de pedido, serial de equipo, nombre de equipo, marca del equipo, accesorios, perifericos,fabricante.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: MODIFICACION DE EQUIPOS</t>
   </si>
   <si>
     <r>
@@ -702,8 +820,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito escoger que actividades puedo darles la opcion que sean registradas automaticamente, según los dias que en el cronograma esten señalados como disponibles, inicialmente las Actividades de Mantenimiento, deben ser programadas cada seis meses. </t>
-    </r>
+      <t xml:space="preserve"> Necesito poder modificar los datos necesarios en el registro de un equipo</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: ELIMINACION DE EQUIPOS</t>
   </si>
   <si>
     <r>
@@ -717,11 +838,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito que a un registro de alguna actividad, el sistema me permita tener un boton de modificar, para poder hacer cambios sobre los campos registrados, campos como tipo de actividad, y observaciones</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: ACTIVIDADES REPROGRAMADA EN EL CRONOGRAMA</t>
+      <t xml:space="preserve"> Necesito poder eliminar los datos necesarios en el registro de un equipo, o poder eliminar el registro total del equipo</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: LISTA DE EQUIPOS</t>
   </si>
   <si>
     <r>
@@ -735,11 +856,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito ver cuantas veces ha sido reprogramada una actividad dentro de algun dato que pueda ver dentro del registro de la actividad</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: CONTADOR DE ACTIVIDADES</t>
+      <t xml:space="preserve"> Necesito tener un modulo donde me listen todos los equipos registrados</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: BUSCAR EQUIPOS</t>
   </si>
   <si>
     <r>
@@ -753,7 +874,397 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito ver en la pestaña de cronograma, el detalle de cuantas actividades tengo en el mes, y cuantas por tipo de actividad. </t>
+      <t xml:space="preserve"> Necesito poder buscar en el modulo donde me listan todos los equipos, por nombre de equipo y por serial de equipo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: ENTRADA POR VERIFICACION OPERATIVA DE EQUIPOS</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito poder agendar una actividad de verificacion operativa de equipos registrados a un tecnico.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito recibir notificacion, por medio de un mensaje emergente, donde me diga el tipo de actividad la fecha y hora en que se agendo y observaciones poder darle aceptar para vero en mi cronograma. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: REALIZAR VERIFICACION OPERATIVA DE EQUIPOS</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez se vaya a realizar la verificacion operativa, darle click en la actividad asignada para ello y que me redireccion a un formulario, llamado "Verificacion operativa", donde esten cargados los datos de registro del equipo, y me permita poder registrar datos de Verificacion Visual con una descripcion, un estado y unas observaciones, tambien una verificacion funcional tambien con una descripcion, un estado y unas observaciones, igualmente una verificacion documental tambien con  una descripcion, un estado y unas observaciones, luego registrar vista frontal, vista tracera, vista derecha, vista izquierda, vista abajo. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: CONFIRMACION DE VERIFICACION OPERATIVA DE EQUIPOS</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez se haya hecho la confirmacion del registro de la verificacion operativa, automaticamente se notifique por medio de un mensaje emergente al coordinador tecnico la realizacion de esa actividad. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez se haya hecho llenado los campos del formulario verificacion operativa, me permita en un click a un boton de confirmar,guargar la informacion y guargar tambien mis datos de usuario fecha y hora del momento de registro</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: MODIFICACION DE VERIFICACION OPERATIVA DE EQUIPOS</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito poder tener solo esos permisos de modificacion de algun campo del formulario de verificacion operativa. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: ELIMINACION DE FORMULARIO DE VERIFICACION OPERATIVA DE EQUIPOS</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito poder tener solo esos permisos de  eliminacion del formulario de verificacion operativa de algun equipo</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: VERIFICACION OPERATIVA DE EQUIPOS REALIZADA</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito ver las verificaciones operativas de los equipos, y poder asignarlos a dos estados, en almacen o en cuarentena, este campo de estados deben estar en el modulo donde se muestra el formulario de verificacion de equipos. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito poder agendar una actividad de revision de equipos a los que esten en estado de cuarentena.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: EQUIPOS EN CUARENTENA EN REVISION</t>
+  </si>
+  <si>
+    <t>Nombre: CONFIRMACION DE ACTIVIDADES DEL TECNICO</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez se haya hecho llenado los campos de los formulario, me permita en un click a un boton de confirmar,guargar la informacion y guargar tambien mis datos de usuario fecha y hora del momento de registro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez se vaya a realizar la revision del equipo, darle click en la actividad asignada para ello y que me redireccione a un formulario, llamado "Revision de equipos", donde esten cargados los datos de registro del equipo, y me permita poder registrar datos de Motivo del estado, diagnostico del daño, accesorios y perefericos que lo acompaña.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: CAMBIO DE ESTADO EN CUARENTENA</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito poder ver el formulario de revision de equipos, y en ese mismo modulo poder hacer un cambio de estado en cuarenta, donde me permita dos opciones, en revision o dado de baja, según el registro del formulario.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: EQUIPOS PARA ALMACEN</t>
+  </si>
+  <si>
+    <t>Nombre: EQUIPOS PARA CUARENTENA</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito que los equipos para almacen esten disponibles a la vista del asesor comercial.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: FILTRO EQUIPOS EN ALMACEN</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito que en el modulo donde me muestra los equipos los pueda buscar por nombre o por serial</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: ASIGNAR CLIENTE A EQUIPO </t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito que en el modulo donde me muestra los equipos pueda en un campo aginarle un cliente por medio de una busqueda por cedula. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: TIPO DE ENTREGA DE EQUIPO</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez ya haya asignado el cliente al equipo, poder registrar el tipo de entrega, que son tres opciones, en venta, en comodato o en prestamo. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: EQUIPO CON TIPO DE ENTREGA</t>
+  </si>
+  <si>
+    <t>Nombre: EQUIPO EN VENTA Y COMODATO</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez ya se haya registrado al equipo un tipo de entrega, sea notificado  al coordinador tecnico por un mensaje emergente con los datos del cliente, datos del equipo y el tipo de entrega.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez reciba la notificacion por medio de un mensaje emergente con datos de equipo con los datos del cliente asociado y el tipo de entrega ya sea por venta o por comodato, me permita agentar una actividad de preinstalacion. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: CONFIRMACION DE ACTIVIDADES DE PREINSTALACION DEL TECNICO</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito recibir la notificacion de agendamiento de actividad de preinstalacion,por medio de un mensaje emergente con los datos del equipo y el cliente asociado</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: RECIBIDO DE ACTIVIDADES DE PREINSTALACION DEL TECNICO</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito vez tenga la actividad de preinstalacion agendada, al darle clik me lleve a un modulo donde se muestra un formulario, donde me debe mostrar los datos del equipo y los datos del cliente asociado y me permita registrar los datos de condiciones espaciales, condiciones electricas, condiciones en que esta el acceso al sitio de instalacion, tambien pueda registrar el nombre telefono y firma de quien permitio el acceso al lugar donde se esta haciendo la evaluacion de preinstalacion. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: REGISTRO DE ACTIVIDADES DE PREINSTALACION DEL TECNICO</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito una vez se obtenga la firma de la persona encargada de permitir hacer el registro de preinstalacion, me permita guardar los datos, y automaticamente le llegue al coordinador tecnico una notificacion por medio de un mensaje emergente, de los datos de la preintalacion realizada. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: ACTIVIDADES DE PREINSTALACION REALIZADA</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito ver la informacion de la actividad de preinstalacion, y en el tener un campo de estado que tenga dos opciones, uno es "para instalacion", y el otro "en recomendaciones". </t>
     </r>
   </si>
   <si>
@@ -768,11 +1279,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Yo como Coordinador tecnico y tecnico</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre: ELIMINAR ACTIVIDADES EN EL CRONOGRAMA  </t>
+      <t xml:space="preserve"> Yo como Cliente</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: EQUIPO EN RECOMENDACIONES SOBRE CLIENTE</t>
+  </si>
+  <si>
+    <t>Nombre: EQUIPO EN RECOMENDACIONES SOBRE COORDINADOR TECNICO</t>
   </si>
   <si>
     <r>
@@ -786,8 +1300,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito poder eliminar de forma rapida un registro de actividad que ya no necesite</t>
-    </r>
+      <t xml:space="preserve"> Necesito ver la informacion de las recomendaciones del equipo que tengo asignado y que este en estado de recomendaciones, para una vez realizadas tener un campo de observaciones y un boton de REALIZADO. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito me llegue notificacion por medio de un mensaje emergente una vez el cliente le de click al boton realizado, el mensaje debe contener la informacion del equipo, la informacion del cliente asociado y las observacione que haya registrado. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: EVALUACION DE RECOMENDACIONES SOBRE EL EQUIPO</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito definir si el equipo en recomendaciones, esta correcto o debe serguir en recomendaciones. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: EQUIPO PASA DE RECOMENDACIONES A INSTALAR </t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito poder cambiar el estado del equipo que estaba en recomendaciones, una vez pasa al estado de "instalar", se agende automaticamente actividad  de instalacion al tecnico.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: EQUIPO PARA INSTALACION</t>
+  </si>
+  <si>
+    <t>Nombre: EQUIPO PARA REGISTRO DE INSTALACION</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito que al darle click sobre la actividad de instalacion me mande a un modulo de formulario de instalacion donde estes cargados los datos del equipo, y los datos del cliente asignado, poder registrar los accesorios y perifericos que se entregan, y el tipo de entrega </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: CONFIMACION DE INTALACION</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionalidad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Necesito en el modulo de formulario de instalacion, poder confirmar la intalacion una vez se haya registrado la firma, el nombre, telefono, numero de documento y cargo de quien permitio la instalacion, y al darle click en confirmacion, aoutomaticamente le llegue la notificacion con los datos de instalacion, al cliente y al coordinador tecnico</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: CONFIRMACION POR NOTIFICACION DE VERIFICACION OPERATIVA DE EQUIPOS</t>
+  </si>
+  <si>
+    <t>Nombre: EQUIPOS DADOS DE BAJA</t>
   </si>
   <si>
     <r>
@@ -801,7 +1411,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Yo como COORDINADOR DE COMPRAS</t>
+      <t xml:space="preserve"> Yo como Coordinador tecnico </t>
     </r>
   </si>
   <si>
@@ -816,11 +1426,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito registrar los equipos pedidos, con datos de fecha de pedido, serial de equipo, nombre de equipo, marca del equipo, accesorios, perifericos,fabricante.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: MODIFICACION DE EQUIPOS</t>
+      <t xml:space="preserve"> Necesito poder ver y modificar el estado de los equipos dados de baja. </t>
+    </r>
   </si>
   <si>
     <r>
@@ -834,11 +1441,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito poder modificar los datos necesarios en el registro de un equipo</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: ELIMINACION DE EQUIPOS</t>
+      <t xml:space="preserve"> Necesito recibir la notificacion de agendamiento de actividad de instalacion,por medio de un mensaje emergente con los datos del equipo y los datos del cliente asociado</t>
+    </r>
   </si>
   <si>
     <r>
@@ -852,11 +1456,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito poder eliminar los datos necesarios en el registro de un equipo, o poder eliminar el registro total del equipo</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: LISTA DE EQUIPOS</t>
+      <t xml:space="preserve"> Necesito una vez se haya confirmado la instalacion, se me agende automaticamente las actividades de mantenimiento, con los datos de equipo y los datos del cliente asignado</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: CONFIMACION DE INSTALACION</t>
+  </si>
+  <si>
+    <t>Nombre: REPORTE DE SERVICIO TECNICO DE EQUIPOS</t>
+  </si>
+  <si>
+    <t>Nombre: REPORTE DE SERVICIO TECNICO DE EQUIPOS A COORDINADOR</t>
   </si>
   <si>
     <r>
@@ -870,11 +1480,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito tener un modulo donde me listen todos los equipos registrados</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: BUSCAR EQUIPOS</t>
+      <t xml:space="preserve"> Necesito solicitar un servicio tecnico al equipo que tengo asignado, en donde aparecen los datos de equipo tener un boton o un campo donde me permita anotar la razon de la solicitud</t>
+    </r>
   </si>
   <si>
     <r>
@@ -888,11 +1495,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito poder buscar en el modulo donde me listan todos los equipos, por nombre de equipo y por serial de equipo.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: ENTRADA POR VERIFICACION OPERATIVA DE EQUIPOS</t>
+      <t xml:space="preserve"> Necesito recibir notificacion de solicitud de un servicio tecnico, con datos del cliente, datos del equipo, y la razon de la solicitud</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre:AGENDAR SERVICIO TECNICO DE EQUIPOS </t>
   </si>
   <si>
     <r>
@@ -906,8 +1513,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito poder agendar una actividad de verificacion operativa de equipos registrados a un tecnico.</t>
-    </r>
+      <t xml:space="preserve"> Necesito poder agendar actividad de revision por servicio tecnico, a un tecnico </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: RECIBIDO DE ACTIVIDADES DE REVISION POR SERVICIO TECNICO</t>
   </si>
   <si>
     <r>
@@ -921,11 +1531,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito recibir notificacion, por medio de un mensaje emergente, donde me diga el tipo de actividad la fecha y hora en que se agendo y observaciones poder darle aceptar para vero en mi cronograma. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: REALIZAR VERIFICACION OPERATIVA DE EQUIPOS</t>
+      <t xml:space="preserve"> Necesito recibir la notificacion de agendamiento de actividad de revision por servicio tecnico,por medio de un mensaje emergente con los datos del equipo y el cliente asociado</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: REGISTRO DE ACTIVIDADES DE REVISION POR SERVICIO TECNICO</t>
+  </si>
+  <si>
+    <t>Nombre: CONFIRMACION DE ACTIVIDADES DE REVISION POR SERVICIO TECNICO</t>
   </si>
   <si>
     <r>
@@ -939,11 +1552,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito una vez se vaya a realizar la verificacion operativa, darle click en la actividad asignada para ello y que me redireccion a un formulario, llamado "Verificacion operativa", donde esten cargados los datos de registro del equipo, y me permita poder registrar datos de Verificacion Visual con una descripcion, un estado y unas observaciones, tambien una verificacion funcional tambien con una descripcion, un estado y unas observaciones, igualmente una verificacion documental tambien con  una descripcion, un estado y unas observaciones, luego registrar vista frontal, vista tracera, vista derecha, vista izquierda, vista abajo. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: CONFIRMACION DE VERIFICACION OPERATIVA DE EQUIPOS</t>
+      <t xml:space="preserve"> Necesito una vez se obtenga la firma de la persona encargada de permitir hacer el registro del servicio, me permita guardar los datos, y automaticamente le llegue al coordinador tecnico y al cliente, una notificacion por medio de un mensaje emergente, de los datos de la revision. </t>
+    </r>
   </si>
   <si>
     <r>
@@ -957,8 +1567,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito una vez se haya hecho la confirmacion del registro de la verificacion operativa, automaticamente se notifique por medio de un mensaje emergente al coordinador tecnico la realizacion de esa actividad. </t>
-    </r>
+      <t xml:space="preserve"> Necesito vez tenga la actividad de revision por servicio tecnico agendada, al darle clik me lleve a un modulo donde se muestra un formulario, donde me debe mostrar los datos del equipo, los datos del cliente asociado, y la razon de la solicitud, y me permita registrar la duracion de la revision, si es facturado o no, la solucion realizada, los repuestos que se utilizaron con la cantidad, la hora de entrada a la revision y la hora de salida, ya registrados esos datos, obtener firma, nombre, cargo del que permitio el servicio. </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: INGRESO EQUIPO POR DAÑO</t>
+  </si>
+  <si>
+    <t>Nombre: INGRESO EQUIPO POR DEVOLUCION</t>
   </si>
   <si>
     <r>
@@ -972,11 +1588,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito una vez se haya hecho llenado los campos del formulario verificacion operativa, me permita en un click a un boton de confirmar,guargar la informacion y guargar tambien mis datos de usuario fecha y hora del momento de registro</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: MODIFICACION DE VERIFICACION OPERATIVA DE EQUIPOS</t>
+      <t xml:space="preserve"> Necesito poder registrar el numero de la factura a los equipos que ingresen por devolucion</t>
+    </r>
   </si>
   <si>
     <r>
@@ -990,11 +1603,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito poder tener solo esos permisos de modificacion de algun campo del formulario de verificacion operativa. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: ELIMINACION DE FORMULARIO DE VERIFICACION OPERATIVA DE EQUIPOS</t>
+      <t xml:space="preserve"> Necesito poder asignar las actividades pertinentes a los equipos que ingresan por daño</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre: ACTIVIDADES A EQUIPOS INGRESADOS POR DAÑO</t>
+  </si>
+  <si>
+    <t>me falta cotizacion</t>
   </si>
   <si>
     <r>
@@ -1008,11 +1624,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito poder tener solo esos permisos de  eliminacion del formulario de verificacion operativa de algun equipo</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: VERIFICACION OPERATIVA DE EQUIPOS REALIZADA</t>
+      <t xml:space="preserve"> Necesito Modificar el perfiles de usuario, al tercero que se requiera</t>
+    </r>
+  </si>
+  <si>
+    <t>DIEGO: 13 YURI: 5</t>
+  </si>
+  <si>
+    <t>DIEGO:5 YURI:5</t>
+  </si>
+  <si>
+    <t>DIEGO: 3 YURI: 3</t>
+  </si>
+  <si>
+    <t>Diego: 3 yuri:3</t>
+  </si>
+  <si>
+    <t>diego: 3 yuri:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. </t>
+  </si>
+  <si>
+    <t>GESTION DE PERFILES</t>
   </si>
   <si>
     <r>
@@ -1026,8 +1660,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito ver las verificaciones operativas de los equipos, y poder asignarlos a dos estados, en almacen o en cuarentena, este campo de estados deben estar en el modulo donde se muestra el formulario de verificacion de equipos. </t>
-    </r>
+      <t xml:space="preserve"> Necesito poder registrar el ingreso por daño de equipo, buscando el equipo, en la lista, y darle clik para que carguen los datos del equipo y registrar los datos de concepto de daño, motivo de ingreso que inialmente tiene tres opciones, por garantia, devolucion y reparacion, los accesorios y perifericos que trae, y obtener el registro del nombre del usuario que hace el ingreso. </t>
+    </r>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISTAS PRINCIPALES DE CADA MODULO </t>
+  </si>
+  <si>
+    <t>GESTION DE TERCEROS</t>
   </si>
   <si>
     <r>
@@ -1041,656 +1684,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Necesito poder agendar una actividad de revision de equipos a los que esten en estado de cuarentena.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: EQUIPOS EN CUARENTENA EN REVISION</t>
-  </si>
-  <si>
-    <t>Nombre: CONFIRMACION DE ACTIVIDADES DEL TECNICO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito una vez se haya hecho llenado los campos de los formulario, me permita en un click a un boton de confirmar,guargar la informacion y guargar tambien mis datos de usuario fecha y hora del momento de registro</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito una vez se vaya a realizar la revision del equipo, darle click en la actividad asignada para ello y que me redireccione a un formulario, llamado "Revision de equipos", donde esten cargados los datos de registro del equipo, y me permita poder registrar datos de Motivo del estado, diagnostico del daño, accesorios y perefericos que lo acompaña.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: CAMBIO DE ESTADO EN CUARENTENA</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito poder ver el formulario de revision de equipos, y en ese mismo modulo poder hacer un cambio de estado en cuarenta, donde me permita dos opciones, en revision o dado de baja, según el registro del formulario.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: EQUIPOS PARA ALMACEN</t>
-  </si>
-  <si>
-    <t>Nombre: EQUIPOS PARA CUARENTENA</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito que los equipos para almacen esten disponibles a la vista del asesor comercial.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: FILTRO EQUIPOS EN ALMACEN</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito que en el modulo donde me muestra los equipos los pueda buscar por nombre o por serial</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre: ASIGNAR CLIENTE A EQUIPO </t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito que en el modulo donde me muestra los equipos pueda en un campo aginarle un cliente por medio de una busqueda por cedula. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: TIPO DE ENTREGA DE EQUIPO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito una vez ya haya asignado el cliente al equipo, poder registrar el tipo de entrega, que son tres opciones, en venta, en comodato o en prestamo. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: EQUIPO CON TIPO DE ENTREGA</t>
-  </si>
-  <si>
-    <t>Nombre: EQUIPO EN VENTA Y COMODATO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito una vez ya se haya registrado al equipo un tipo de entrega, sea notificado  al coordinador tecnico por un mensaje emergente con los datos del cliente, datos del equipo y el tipo de entrega.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito una vez reciba la notificacion por medio de un mensaje emergente con datos de equipo con los datos del cliente asociado y el tipo de entrega ya sea por venta o por comodato, me permita agentar una actividad de preinstalacion. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: CONFIRMACION DE ACTIVIDADES DE PREINSTALACION DEL TECNICO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito recibir la notificacion de agendamiento de actividad de preinstalacion,por medio de un mensaje emergente con los datos del equipo y el cliente asociado</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: RECIBIDO DE ACTIVIDADES DE PREINSTALACION DEL TECNICO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito vez tenga la actividad de preinstalacion agendada, al darle clik me lleve a un modulo donde se muestra un formulario, donde me debe mostrar los datos del equipo y los datos del cliente asociado y me permita registrar los datos de condiciones espaciales, condiciones electricas, condiciones en que esta el acceso al sitio de instalacion, tambien pueda registrar el nombre telefono y firma de quien permitio el acceso al lugar donde se esta haciendo la evaluacion de preinstalacion. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: REGISTRO DE ACTIVIDADES DE PREINSTALACION DEL TECNICO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito una vez se obtenga la firma de la persona encargada de permitir hacer el registro de preinstalacion, me permita guardar los datos, y automaticamente le llegue al coordinador tecnico una notificacion por medio de un mensaje emergente, de los datos de la preintalacion realizada. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: ACTIVIDADES DE PREINSTALACION REALIZADA</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito ver la informacion de la actividad de preinstalacion, y en el tener un campo de estado que tenga dos opciones, uno es "para instalacion", y el otro "en recomendaciones". </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rol:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Yo como Cliente</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: EQUIPO EN RECOMENDACIONES SOBRE CLIENTE</t>
-  </si>
-  <si>
-    <t>Nombre: EQUIPO EN RECOMENDACIONES SOBRE COORDINADOR TECNICO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito ver la informacion de las recomendaciones del equipo que tengo asignado y que este en estado de recomendaciones, para una vez realizadas tener un campo de observaciones y un boton de REALIZADO. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito me llegue notificacion por medio de un mensaje emergente una vez el cliente le de click al boton realizado, el mensaje debe contener la informacion del equipo, la informacion del cliente asociado y las observacione que haya registrado. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: EVALUACION DE RECOMENDACIONES SOBRE EL EQUIPO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito definir si el equipo en recomendaciones, esta correcto o debe serguir en recomendaciones. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre: EQUIPO PASA DE RECOMENDACIONES A INSTALAR </t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito poder cambiar el estado del equipo que estaba en recomendaciones, una vez pasa al estado de "instalar", se agende automaticamente actividad  de instalacion al tecnico.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: EQUIPO PARA INSTALACION</t>
-  </si>
-  <si>
-    <t>Nombre: EQUIPO PARA REGISTRO DE INSTALACION</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito que al darle click sobre la actividad de instalacion me mande a un modulo de formulario de instalacion donde estes cargados los datos del equipo, y los datos del cliente asignado, poder registrar los accesorios y perifericos que se entregan, y el tipo de entrega </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: CONFIMACION DE INTALACION</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito en el modulo de formulario de instalacion, poder confirmar la intalacion una vez se haya registrado la firma, el nombre, telefono, numero de documento y cargo de quien permitio la instalacion, y al darle click en confirmacion, aoutomaticamente le llegue la notificacion con los datos de instalacion, al cliente y al coordinador tecnico</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: CONFIRMACION POR NOTIFICACION DE VERIFICACION OPERATIVA DE EQUIPOS</t>
-  </si>
-  <si>
-    <t>Nombre: EQUIPOS DADOS DE BAJA</t>
-  </si>
-  <si>
-    <r>
-      <t>Rol:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Yo como Coordinador tecnico </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito poder ver y modificar el estado de los equipos dados de baja. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito recibir la notificacion de agendamiento de actividad de instalacion,por medio de un mensaje emergente con los datos del equipo y los datos del cliente asociado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito una vez se haya confirmado la instalacion, se me agende automaticamente las actividades de mantenimiento, con los datos de equipo y los datos del cliente asignado</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: CONFIMACION DE INSTALACION</t>
-  </si>
-  <si>
-    <t>Nombre: REPORTE DE SERVICIO TECNICO DE EQUIPOS</t>
-  </si>
-  <si>
-    <t>Nombre: REPORTE DE SERVICIO TECNICO DE EQUIPOS A COORDINADOR</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito solicitar un servicio tecnico al equipo que tengo asignado, en donde aparecen los datos de equipo tener un boton o un campo donde me permita anotar la razon de la solicitud</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito recibir notificacion de solicitud de un servicio tecnico, con datos del cliente, datos del equipo, y la razon de la solicitud</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre:AGENDAR SERVICIO TECNICO DE EQUIPOS </t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito poder agendar actividad de revision por servicio tecnico, a un tecnico </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: RECIBIDO DE ACTIVIDADES DE REVISION POR SERVICIO TECNICO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito recibir la notificacion de agendamiento de actividad de revision por servicio tecnico,por medio de un mensaje emergente con los datos del equipo y el cliente asociado</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: REGISTRO DE ACTIVIDADES DE REVISION POR SERVICIO TECNICO</t>
-  </si>
-  <si>
-    <t>Nombre: CONFIRMACION DE ACTIVIDADES DE REVISION POR SERVICIO TECNICO</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito una vez se obtenga la firma de la persona encargada de permitir hacer el registro del servicio, me permita guardar los datos, y automaticamente le llegue al coordinador tecnico y al cliente, una notificacion por medio de un mensaje emergente, de los datos de la revision. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito vez tenga la actividad de revision por servicio tecnico agendada, al darle clik me lleve a un modulo donde se muestra un formulario, donde me debe mostrar los datos del equipo, los datos del cliente asociado, y la razon de la solicitud, y me permita registrar la duracion de la revision, si es facturado o no, la solucion realizada, los repuestos que se utilizaron con la cantidad, la hora de entrada a la revision y la hora de salida, ya registrados esos datos, obtener firma, nombre, cargo del que permitio el servicio. </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: INGRESO EQUIPO POR DAÑO</t>
-  </si>
-  <si>
-    <t>Nombre: INGRESO EQUIPO POR DEVOLUCION</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito poder registrar el numero de la factura a los equipos que ingresen por devolucion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito poder asignar las actividades pertinentes a los equipos que ingresan por daño</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre: ACTIVIDADES A EQUIPOS INGRESADOS POR DAÑO</t>
-  </si>
-  <si>
-    <t>me falta cotizacion</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito Modificar el perfiles de usuario, al tercero que se requiera</t>
-    </r>
-  </si>
-  <si>
-    <t>DIEGO: 13 YURI: 5</t>
-  </si>
-  <si>
-    <t>DIEGO:5 YURI:5</t>
-  </si>
-  <si>
-    <t>DIEGO: 3 YURI: 3</t>
-  </si>
-  <si>
-    <t>Diego: 3 yuri:3</t>
-  </si>
-  <si>
-    <t>diego: 3 yuri:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. </t>
-  </si>
-  <si>
-    <t>GESTION DE PERFILES</t>
-  </si>
-  <si>
-    <r>
-      <t>Funcionalidad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Necesito poder registrar el ingreso por daño de equipo, buscando el equipo, en la lista, y darle clik para que carguen los datos del equipo y registrar los datos de concepto de daño, motivo de ingreso que inialmente tiene tres opciones, por garantia, devolucion y reparacion, los accesorios y perifericos que trae, y obtener el registro del nombre del usuario que hace el ingreso. </t>
-    </r>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISTAS PRINCIPALES DE CADA MODULO </t>
-  </si>
-  <si>
-    <t>GESTION DE TERCEROS</t>
+      <t xml:space="preserve"> Necesito registrar terceros con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perfiles cliente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, con los datos iniciales nombre, apellido, direccion, telefono, ciudad, tipo de documento, numero de docuemnto</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1983,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2026,14 +2047,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2044,23 +2068,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
@@ -2077,13 +2089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2103,6 +2109,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2141,7 +2165,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01D5E61-AD09-46A1-BA1E-91A255EF31EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01D5E61-AD09-46A1-BA1E-91A255EF31EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2446,26 +2470,26 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
         <v>197</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2474,11 +2498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2520,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,10 +2533,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2525,16 +2549,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -2544,19 +2568,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2566,7 +2590,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2579,10 +2603,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2595,16 +2619,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -2614,19 +2638,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2637,7 +2661,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2650,10 +2674,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2666,16 +2690,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2685,14 +2709,14 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2702,7 +2726,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +2739,10 @@
       <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
@@ -2731,16 +2755,16 @@
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
@@ -2750,19 +2774,19 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2772,7 +2796,7 @@
         <v>49</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,10 +2809,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2801,16 +2825,16 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -2820,19 +2844,19 @@
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2855,10 +2879,10 @@
       <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2871,16 +2895,16 @@
       <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
@@ -2890,30 +2914,50 @@
       <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C38"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -2925,34 +2969,14 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="A61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2961,11 +2985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,10 +3020,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3012,16 +3036,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -3031,9 +3055,9 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3051,15 +3075,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3086,23 +3110,23 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="E14" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="E14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3122,9 +3146,9 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3152,10 +3176,10 @@
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3168,16 +3192,16 @@
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -3187,29 +3211,29 @@
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3224,18 +3248,18 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>1</v>
       </c>
@@ -3248,16 +3272,16 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
@@ -3267,29 +3291,29 @@
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3304,7 +3328,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>24</v>
@@ -3312,32 +3336,32 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -3347,22 +3371,49 @@
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A21:B21"/>
@@ -3377,33 +3428,6 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3411,11 +3435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,10 +3477,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3469,16 +3493,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="E6" s="19" t="s">
         <v>52</v>
       </c>
@@ -3493,28 +3517,28 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
-      <c r="E7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="E7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3537,10 +3561,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3553,16 +3577,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -3572,19 +3596,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3607,10 +3631,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3623,16 +3647,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="19" t="s">
         <v>53</v>
       </c>
@@ -3646,27 +3670,27 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
-      <c r="E29" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3689,10 +3713,10 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
@@ -3705,16 +3729,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -3724,19 +3748,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -3759,10 +3783,10 @@
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3775,16 +3799,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="E50" s="19" t="s">
         <v>54</v>
       </c>
@@ -3798,31 +3822,31 @@
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="E51" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
+      <c r="E51" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3837,72 +3861,93 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="41"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="36"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A15:C15"/>
@@ -3919,45 +3964,24 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522"/>
+    <sheetView topLeftCell="A509" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D517" sqref="D517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3974,7 +3998,9 @@
       <c r="B1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -3986,32 +4012,32 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -4021,19 +4047,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4042,44 +4068,46 @@
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4089,19 +4117,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4110,44 +4138,46 @@
       <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="A27" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -4157,19 +4187,19 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4178,44 +4208,46 @@
       <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -4225,19 +4257,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -4246,44 +4278,46 @@
       <c r="B45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
@@ -4293,19 +4327,19 @@
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -4314,44 +4348,46 @@
       <c r="B56" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="7"/>
+      <c r="C56" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="A60" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
@@ -4361,19 +4397,19 @@
       <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -4382,22 +4418,24 @@
       <c r="B67" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="22"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
@@ -4410,16 +4448,16 @@
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="A71" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
@@ -4429,19 +4467,19 @@
       <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -4450,22 +4488,24 @@
       <c r="B78" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="7"/>
+      <c r="C78" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="22"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
@@ -4478,16 +4518,16 @@
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
+      <c r="A82" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
     </row>
     <row r="83" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -4497,19 +4537,19 @@
       <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -4518,22 +4558,24 @@
       <c r="B89" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="23"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="22"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4546,16 +4588,16 @@
       <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
+      <c r="A93" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
     </row>
     <row r="94" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
@@ -4565,19 +4607,19 @@
       <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4586,22 +4628,24 @@
       <c r="B100" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="22"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="5" t="s">
         <v>1</v>
       </c>
@@ -4614,16 +4658,16 @@
       <c r="C103" s="23"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+      <c r="A104" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
     </row>
     <row r="105" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -4633,19 +4677,19 @@
       <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4654,22 +4698,24 @@
       <c r="B111" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C111" s="7"/>
+      <c r="C111" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" s="23"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="22"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
@@ -4682,16 +4728,16 @@
       <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
+      <c r="A115" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -4701,19 +4747,19 @@
       <c r="C117" s="23"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -4722,22 +4768,24 @@
       <c r="B122" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="123" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123" s="23"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="22"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4750,16 +4798,16 @@
       <c r="C125" s="23"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
+      <c r="A126" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
     </row>
     <row r="127" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
@@ -4769,19 +4817,19 @@
       <c r="C128" s="23"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4790,44 +4838,46 @@
       <c r="B133" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C133" s="7"/>
+      <c r="C133" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C134" s="23"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="22"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
+      <c r="A137" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
     </row>
     <row r="138" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
@@ -4837,19 +4887,19 @@
       <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -4858,44 +4908,46 @@
       <c r="B144" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C144" s="7"/>
+      <c r="C144" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145" s="23"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="22"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
+      <c r="A148" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="22"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
@@ -4905,19 +4957,19 @@
       <c r="C150" s="23"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="24"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="24"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -4926,44 +4978,46 @@
       <c r="B155" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C155" s="7"/>
+      <c r="C155" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="156" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156" s="23"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="22" t="s">
+      <c r="A157" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="22"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
+      <c r="A159" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
@@ -4973,19 +5027,19 @@
       <c r="C161" s="23"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="24"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="24"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="24"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="24"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="24"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -4994,22 +5048,24 @@
       <c r="B166" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="7"/>
+      <c r="C166" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C167" s="23"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="22" t="s">
+      <c r="A168" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="22"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="5" t="s">
         <v>1</v>
       </c>
@@ -5022,16 +5078,16 @@
       <c r="C169" s="23"/>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
+      <c r="A170" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
     </row>
     <row r="171" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="22"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
@@ -5041,19 +5097,19 @@
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="24"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="24"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="24"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="24"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="24"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="24"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -5062,22 +5118,24 @@
       <c r="B177" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C177" s="7"/>
+      <c r="C177" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C178" s="23"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="22" t="s">
+      <c r="A179" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="22"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="5" t="s">
         <v>1</v>
       </c>
@@ -5090,16 +5148,16 @@
       <c r="C180" s="23"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
+      <c r="A181" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
     </row>
     <row r="182" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="22"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
@@ -5109,19 +5167,19 @@
       <c r="C183" s="23"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="24"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="24"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="24"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="24"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -5130,44 +5188,46 @@
       <c r="B188" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C188" s="7"/>
+      <c r="C188" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="189" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C189" s="23"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="22"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
+      <c r="A192" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
     </row>
     <row r="193" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="22"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
@@ -5177,19 +5237,19 @@
       <c r="C194" s="23"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="24"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="24"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="24"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="24"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -5198,44 +5258,46 @@
       <c r="B199" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C199" s="7"/>
+      <c r="C199" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C200" s="23"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
+      <c r="A201" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="22"/>
+      <c r="B201" s="24"/>
       <c r="C201" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B202" s="23"/>
       <c r="C202" s="23"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
+      <c r="A203" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
     </row>
     <row r="204" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="22"/>
-      <c r="B204" s="22"/>
-      <c r="C204" s="22"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
     </row>
     <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
@@ -5245,29 +5307,29 @@
       <c r="C205" s="23"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="24"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="24"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="24"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="24"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="24"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="24"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="24"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="24"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="24"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="24"/>
+      <c r="A210" s="22"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5276,22 +5338,24 @@
       <c r="B212" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C212" s="7"/>
+      <c r="C212" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C213" s="23"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="22" t="s">
+      <c r="A214" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="22"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="5" t="s">
         <v>1</v>
       </c>
@@ -5304,16 +5368,16 @@
       <c r="C215" s="23"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
+      <c r="A216" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B216" s="24"/>
+      <c r="C216" s="24"/>
     </row>
     <row r="217" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="22"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
@@ -5323,19 +5387,19 @@
       <c r="C218" s="23"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="24"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="24"/>
+      <c r="A219" s="22"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="24"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="24"/>
+      <c r="A220" s="22"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="24"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="24"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5344,22 +5408,24 @@
       <c r="B223" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C223" s="7"/>
+      <c r="C223" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C224" s="23"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="22" t="s">
+      <c r="A225" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="22"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="5" t="s">
         <v>1</v>
       </c>
@@ -5372,16 +5438,16 @@
       <c r="C226" s="23"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
+      <c r="A227" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B227" s="24"/>
+      <c r="C227" s="24"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="22"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="24"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
@@ -5391,19 +5457,19 @@
       <c r="C229" s="23"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="24"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="24"/>
+      <c r="A230" s="22"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="24"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="24"/>
+      <c r="A231" s="22"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="22"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="24"/>
-      <c r="B232" s="24"/>
-      <c r="C232" s="24"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -5412,22 +5478,24 @@
       <c r="B234" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C234" s="7"/>
+      <c r="C234" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C235" s="23"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="22" t="s">
+      <c r="A236" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="22"/>
+      <c r="B236" s="24"/>
       <c r="C236" s="5" t="s">
         <v>1</v>
       </c>
@@ -5440,16 +5508,16 @@
       <c r="C237" s="23"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
+      <c r="A238" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
     </row>
     <row r="239" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="22"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="24"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
@@ -5459,19 +5527,19 @@
       <c r="C240" s="23"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="24"/>
-      <c r="B241" s="24"/>
-      <c r="C241" s="24"/>
+      <c r="A241" s="22"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="22"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="24"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="24"/>
+      <c r="A242" s="22"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="22"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="24"/>
-      <c r="B243" s="24"/>
-      <c r="C243" s="24"/>
+      <c r="A243" s="22"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
@@ -5480,22 +5548,24 @@
       <c r="B245" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C245" s="7"/>
+      <c r="C245" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C246" s="23"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="22" t="s">
+      <c r="A247" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="22"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="5" t="s">
         <v>1</v>
       </c>
@@ -5508,16 +5578,16 @@
       <c r="C248" s="23"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
+      <c r="A249" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
     </row>
     <row r="250" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="22"/>
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
@@ -5527,19 +5597,19 @@
       <c r="C251" s="23"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="24"/>
-      <c r="B252" s="24"/>
-      <c r="C252" s="24"/>
+      <c r="A252" s="22"/>
+      <c r="B252" s="22"/>
+      <c r="C252" s="22"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="24"/>
-      <c r="B253" s="24"/>
-      <c r="C253" s="24"/>
+      <c r="A253" s="22"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="22"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="24"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="24"/>
+      <c r="A254" s="22"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
@@ -5548,44 +5618,46 @@
       <c r="B256" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C256" s="7"/>
+      <c r="C256" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="257" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C257" s="23"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="22" t="s">
+      <c r="A258" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="22"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B259" s="23"/>
       <c r="C259" s="23"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
+      <c r="A260" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
     </row>
     <row r="261" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="22"/>
-      <c r="B261" s="22"/>
-      <c r="C261" s="22"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
@@ -5595,19 +5667,19 @@
       <c r="C262" s="23"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="24"/>
-      <c r="B263" s="24"/>
-      <c r="C263" s="24"/>
+      <c r="A263" s="22"/>
+      <c r="B263" s="22"/>
+      <c r="C263" s="22"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="24"/>
-      <c r="B264" s="24"/>
-      <c r="C264" s="24"/>
+      <c r="A264" s="22"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="24"/>
-      <c r="B265" s="24"/>
-      <c r="C265" s="24"/>
+      <c r="A265" s="22"/>
+      <c r="B265" s="22"/>
+      <c r="C265" s="22"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
@@ -5616,22 +5688,24 @@
       <c r="B268" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C268" s="7"/>
+      <c r="C268" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="269" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C269" s="23"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="22" t="s">
+      <c r="A270" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="22"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="11" t="s">
         <v>1</v>
       </c>
@@ -5644,16 +5718,16 @@
       <c r="C271" s="23"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B272" s="22"/>
-      <c r="C272" s="22"/>
+      <c r="A272" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B272" s="24"/>
+      <c r="C272" s="24"/>
     </row>
     <row r="273" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="22"/>
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
+      <c r="A273" s="24"/>
+      <c r="B273" s="24"/>
+      <c r="C273" s="24"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
@@ -5663,19 +5737,19 @@
       <c r="C274" s="23"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="24"/>
-      <c r="B275" s="24"/>
-      <c r="C275" s="24"/>
+      <c r="A275" s="22"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="22"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="24"/>
-      <c r="B276" s="24"/>
-      <c r="C276" s="24"/>
+      <c r="A276" s="22"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="22"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="24"/>
-      <c r="B277" s="24"/>
-      <c r="C277" s="24"/>
+      <c r="A277" s="22"/>
+      <c r="B277" s="22"/>
+      <c r="C277" s="22"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -5684,22 +5758,24 @@
       <c r="B279" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C279" s="7"/>
+      <c r="C279" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="280" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C280" s="23"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="22" t="s">
+      <c r="A281" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="22"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="11" t="s">
         <v>1</v>
       </c>
@@ -5712,16 +5788,16 @@
       <c r="C282" s="23"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B283" s="22"/>
-      <c r="C283" s="22"/>
+      <c r="A283" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B283" s="24"/>
+      <c r="C283" s="24"/>
     </row>
     <row r="284" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="22"/>
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="24"/>
+      <c r="C284" s="24"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
@@ -5731,19 +5807,19 @@
       <c r="C285" s="23"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="24"/>
-      <c r="B286" s="24"/>
-      <c r="C286" s="24"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="22"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="24"/>
-      <c r="B287" s="24"/>
-      <c r="C287" s="24"/>
+      <c r="A287" s="22"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="22"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="24"/>
-      <c r="B288" s="24"/>
-      <c r="C288" s="24"/>
+      <c r="A288" s="22"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="22"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
@@ -5752,22 +5828,24 @@
       <c r="B290" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C290" s="7"/>
+      <c r="C290" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="291" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C291" s="23"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="22" t="s">
+      <c r="A292" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="22"/>
+      <c r="B292" s="24"/>
       <c r="C292" s="11" t="s">
         <v>1</v>
       </c>
@@ -5780,16 +5858,16 @@
       <c r="C293" s="23"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B294" s="22"/>
-      <c r="C294" s="22"/>
+      <c r="A294" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B294" s="24"/>
+      <c r="C294" s="24"/>
     </row>
     <row r="295" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="22"/>
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
+      <c r="A295" s="24"/>
+      <c r="B295" s="24"/>
+      <c r="C295" s="24"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
@@ -5799,19 +5877,19 @@
       <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="24"/>
-      <c r="B297" s="24"/>
-      <c r="C297" s="24"/>
+      <c r="A297" s="22"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="22"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="24"/>
-      <c r="B298" s="24"/>
-      <c r="C298" s="24"/>
+      <c r="A298" s="22"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="22"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="24"/>
-      <c r="B299" s="24"/>
-      <c r="C299" s="24"/>
+      <c r="A299" s="22"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="22"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
@@ -5820,44 +5898,46 @@
       <c r="B301" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C301" s="7"/>
+      <c r="C301" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="302" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C302" s="23"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="22" t="s">
+      <c r="A303" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="22"/>
+      <c r="B303" s="24"/>
       <c r="C303" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B304" s="23"/>
       <c r="C304" s="23"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
+      <c r="A305" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B305" s="24"/>
+      <c r="C305" s="24"/>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="22"/>
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
+      <c r="A306" s="24"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="24"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
@@ -5867,19 +5947,19 @@
       <c r="C307" s="23"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="24"/>
-      <c r="B308" s="24"/>
-      <c r="C308" s="24"/>
+      <c r="A308" s="22"/>
+      <c r="B308" s="22"/>
+      <c r="C308" s="22"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="24"/>
-      <c r="B309" s="24"/>
-      <c r="C309" s="24"/>
+      <c r="A309" s="22"/>
+      <c r="B309" s="22"/>
+      <c r="C309" s="22"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="24"/>
-      <c r="B310" s="24"/>
-      <c r="C310" s="24"/>
+      <c r="A310" s="22"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="22"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
@@ -5888,44 +5968,46 @@
       <c r="B312" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C312" s="7"/>
+      <c r="C312" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="313" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C313" s="23"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="22" t="s">
+      <c r="A314" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="22"/>
+      <c r="B314" s="24"/>
       <c r="C314" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B315" s="23"/>
       <c r="C315" s="23"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B316" s="22"/>
-      <c r="C316" s="22"/>
+      <c r="A316" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B316" s="24"/>
+      <c r="C316" s="24"/>
     </row>
     <row r="317" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="22"/>
-      <c r="B317" s="22"/>
-      <c r="C317" s="22"/>
+      <c r="A317" s="24"/>
+      <c r="B317" s="24"/>
+      <c r="C317" s="24"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
@@ -5935,19 +6017,19 @@
       <c r="C318" s="23"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="24"/>
-      <c r="B319" s="24"/>
-      <c r="C319" s="24"/>
+      <c r="A319" s="22"/>
+      <c r="B319" s="22"/>
+      <c r="C319" s="22"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="24"/>
-      <c r="B320" s="24"/>
-      <c r="C320" s="24"/>
+      <c r="A320" s="22"/>
+      <c r="B320" s="22"/>
+      <c r="C320" s="22"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="24"/>
-      <c r="B321" s="24"/>
-      <c r="C321" s="24"/>
+      <c r="A321" s="22"/>
+      <c r="B321" s="22"/>
+      <c r="C321" s="22"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
@@ -5956,44 +6038,46 @@
       <c r="B323" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C323" s="7"/>
+      <c r="C323" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="324" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C324" s="23"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="22" t="s">
+      <c r="A325" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="22"/>
+      <c r="B325" s="24"/>
       <c r="C325" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B326" s="23"/>
       <c r="C326" s="23"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B327" s="22"/>
-      <c r="C327" s="22"/>
+      <c r="A327" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B327" s="24"/>
+      <c r="C327" s="24"/>
     </row>
     <row r="328" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="22"/>
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
+      <c r="A328" s="24"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="24"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
@@ -6003,19 +6087,19 @@
       <c r="C329" s="23"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="24"/>
-      <c r="B330" s="24"/>
-      <c r="C330" s="24"/>
+      <c r="A330" s="22"/>
+      <c r="B330" s="22"/>
+      <c r="C330" s="22"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="24"/>
-      <c r="B331" s="24"/>
-      <c r="C331" s="24"/>
+      <c r="A331" s="22"/>
+      <c r="B331" s="22"/>
+      <c r="C331" s="22"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="24"/>
-      <c r="B332" s="24"/>
-      <c r="C332" s="24"/>
+      <c r="A332" s="22"/>
+      <c r="B332" s="22"/>
+      <c r="C332" s="22"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
@@ -6024,44 +6108,46 @@
       <c r="B334" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C334" s="7"/>
+      <c r="C334" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C335" s="23"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="22" t="s">
+      <c r="A336" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="22"/>
+      <c r="B336" s="24"/>
       <c r="C336" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B337" s="23"/>
       <c r="C337" s="23"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B338" s="22"/>
-      <c r="C338" s="22"/>
+      <c r="A338" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B338" s="24"/>
+      <c r="C338" s="24"/>
     </row>
     <row r="339" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="22"/>
-      <c r="B339" s="22"/>
-      <c r="C339" s="22"/>
+      <c r="A339" s="24"/>
+      <c r="B339" s="24"/>
+      <c r="C339" s="24"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
@@ -6071,19 +6157,19 @@
       <c r="C340" s="23"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="24"/>
-      <c r="B341" s="24"/>
-      <c r="C341" s="24"/>
+      <c r="A341" s="22"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="22"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="24"/>
-      <c r="B342" s="24"/>
-      <c r="C342" s="24"/>
+      <c r="A342" s="22"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="22"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="24"/>
-      <c r="B343" s="24"/>
-      <c r="C343" s="24"/>
+      <c r="A343" s="22"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="22"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
@@ -6092,44 +6178,46 @@
       <c r="B345" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C345" s="7"/>
+      <c r="C345" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="346" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C346" s="23"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="22" t="s">
+      <c r="A347" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B347" s="22"/>
+      <c r="B347" s="24"/>
       <c r="C347" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B348" s="23"/>
       <c r="C348" s="23"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B349" s="22"/>
-      <c r="C349" s="22"/>
+      <c r="A349" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B349" s="24"/>
+      <c r="C349" s="24"/>
     </row>
     <row r="350" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="22"/>
-      <c r="B350" s="22"/>
-      <c r="C350" s="22"/>
+      <c r="A350" s="24"/>
+      <c r="B350" s="24"/>
+      <c r="C350" s="24"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
@@ -6139,19 +6227,19 @@
       <c r="C351" s="23"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="24"/>
-      <c r="B352" s="24"/>
-      <c r="C352" s="24"/>
+      <c r="A352" s="22"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="22"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="24"/>
-      <c r="B353" s="24"/>
-      <c r="C353" s="24"/>
+      <c r="A353" s="22"/>
+      <c r="B353" s="22"/>
+      <c r="C353" s="22"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="24"/>
-      <c r="B354" s="24"/>
-      <c r="C354" s="24"/>
+      <c r="A354" s="22"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="22"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
@@ -6160,22 +6248,24 @@
       <c r="B356" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C356" s="7"/>
+      <c r="C356" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="357" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C357" s="23"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="22" t="s">
+      <c r="A358" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B358" s="22"/>
+      <c r="B358" s="24"/>
       <c r="C358" s="11" t="s">
         <v>1</v>
       </c>
@@ -6188,16 +6278,16 @@
       <c r="C359" s="23"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B360" s="22"/>
-      <c r="C360" s="22"/>
+      <c r="A360" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B360" s="24"/>
+      <c r="C360" s="24"/>
     </row>
     <row r="361" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="22"/>
-      <c r="B361" s="22"/>
-      <c r="C361" s="22"/>
+      <c r="A361" s="24"/>
+      <c r="B361" s="24"/>
+      <c r="C361" s="24"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
@@ -6207,19 +6297,19 @@
       <c r="C362" s="23"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="24"/>
-      <c r="B363" s="24"/>
-      <c r="C363" s="24"/>
+      <c r="A363" s="22"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="22"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="24"/>
-      <c r="B364" s="24"/>
-      <c r="C364" s="24"/>
+      <c r="A364" s="22"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="22"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="24"/>
-      <c r="B365" s="24"/>
-      <c r="C365" s="24"/>
+      <c r="A365" s="22"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="22"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
@@ -6228,22 +6318,24 @@
       <c r="B367" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C367" s="7"/>
+      <c r="C367" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C368" s="23"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="22" t="s">
+      <c r="A369" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="22"/>
+      <c r="B369" s="24"/>
       <c r="C369" s="11" t="s">
         <v>1</v>
       </c>
@@ -6256,16 +6348,16 @@
       <c r="C370" s="23"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B371" s="22"/>
-      <c r="C371" s="22"/>
+      <c r="A371" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B371" s="24"/>
+      <c r="C371" s="24"/>
     </row>
     <row r="372" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="22"/>
-      <c r="B372" s="22"/>
-      <c r="C372" s="22"/>
+      <c r="A372" s="24"/>
+      <c r="B372" s="24"/>
+      <c r="C372" s="24"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
@@ -6275,19 +6367,19 @@
       <c r="C373" s="23"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="24"/>
-      <c r="B374" s="24"/>
-      <c r="C374" s="24"/>
+      <c r="A374" s="22"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="22"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="24"/>
-      <c r="B375" s="24"/>
-      <c r="C375" s="24"/>
+      <c r="A375" s="22"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="22"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="24"/>
-      <c r="B376" s="24"/>
-      <c r="C376" s="24"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="22"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
@@ -6296,22 +6388,24 @@
       <c r="B378" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C378" s="7"/>
+      <c r="C378" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B379" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C379" s="23"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="22" t="s">
+      <c r="A380" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B380" s="22"/>
+      <c r="B380" s="24"/>
       <c r="C380" s="11" t="s">
         <v>1</v>
       </c>
@@ -6324,16 +6418,16 @@
       <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B382" s="22"/>
-      <c r="C382" s="22"/>
+      <c r="A382" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B382" s="24"/>
+      <c r="C382" s="24"/>
     </row>
     <row r="383" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="22"/>
-      <c r="B383" s="22"/>
-      <c r="C383" s="22"/>
+      <c r="A383" s="24"/>
+      <c r="B383" s="24"/>
+      <c r="C383" s="24"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
@@ -6343,19 +6437,19 @@
       <c r="C384" s="23"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="24"/>
-      <c r="B385" s="24"/>
-      <c r="C385" s="24"/>
+      <c r="A385" s="22"/>
+      <c r="B385" s="22"/>
+      <c r="C385" s="22"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="24"/>
-      <c r="B386" s="24"/>
-      <c r="C386" s="24"/>
+      <c r="A386" s="22"/>
+      <c r="B386" s="22"/>
+      <c r="C386" s="22"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="24"/>
-      <c r="B387" s="24"/>
-      <c r="C387" s="24"/>
+      <c r="A387" s="22"/>
+      <c r="B387" s="22"/>
+      <c r="C387" s="22"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
@@ -6364,22 +6458,24 @@
       <c r="B389" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C389" s="7"/>
+      <c r="C389" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C390" s="23"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="22" t="s">
+      <c r="A391" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="22"/>
+      <c r="B391" s="24"/>
       <c r="C391" s="11" t="s">
         <v>1</v>
       </c>
@@ -6392,16 +6488,16 @@
       <c r="C392" s="23"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B393" s="22"/>
-      <c r="C393" s="22"/>
+      <c r="A393" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B393" s="24"/>
+      <c r="C393" s="24"/>
     </row>
     <row r="394" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="22"/>
-      <c r="B394" s="22"/>
-      <c r="C394" s="22"/>
+      <c r="A394" s="24"/>
+      <c r="B394" s="24"/>
+      <c r="C394" s="24"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
@@ -6411,19 +6507,19 @@
       <c r="C395" s="23"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="24"/>
-      <c r="B396" s="24"/>
-      <c r="C396" s="24"/>
+      <c r="A396" s="22"/>
+      <c r="B396" s="22"/>
+      <c r="C396" s="22"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="24"/>
-      <c r="B397" s="24"/>
-      <c r="C397" s="24"/>
+      <c r="A397" s="22"/>
+      <c r="B397" s="22"/>
+      <c r="C397" s="22"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="24"/>
-      <c r="B398" s="24"/>
-      <c r="C398" s="24"/>
+      <c r="A398" s="22"/>
+      <c r="B398" s="22"/>
+      <c r="C398" s="22"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
@@ -6432,44 +6528,46 @@
       <c r="B400" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C400" s="7"/>
+      <c r="C400" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="401" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C401" s="23"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B402" s="22"/>
+      <c r="B402" s="24"/>
       <c r="C402" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B403" s="23"/>
       <c r="C403" s="23"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B404" s="22"/>
-      <c r="C404" s="22"/>
+      <c r="A404" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B404" s="24"/>
+      <c r="C404" s="24"/>
     </row>
     <row r="405" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="22"/>
-      <c r="B405" s="22"/>
-      <c r="C405" s="22"/>
+      <c r="A405" s="24"/>
+      <c r="B405" s="24"/>
+      <c r="C405" s="24"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
@@ -6479,19 +6577,19 @@
       <c r="C406" s="23"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="24"/>
-      <c r="B407" s="24"/>
-      <c r="C407" s="24"/>
+      <c r="A407" s="22"/>
+      <c r="B407" s="22"/>
+      <c r="C407" s="22"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="24"/>
-      <c r="B408" s="24"/>
-      <c r="C408" s="24"/>
+      <c r="A408" s="22"/>
+      <c r="B408" s="22"/>
+      <c r="C408" s="22"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="24"/>
-      <c r="B409" s="24"/>
-      <c r="C409" s="24"/>
+      <c r="A409" s="22"/>
+      <c r="B409" s="22"/>
+      <c r="C409" s="22"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
@@ -6500,44 +6598,46 @@
       <c r="B411" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C411" s="7"/>
+      <c r="C411" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C412" s="23"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="22" t="s">
+      <c r="A413" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B413" s="22"/>
+      <c r="B413" s="24"/>
       <c r="C413" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B414" s="23"/>
       <c r="C414" s="23"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B415" s="22"/>
-      <c r="C415" s="22"/>
+      <c r="A415" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B415" s="24"/>
+      <c r="C415" s="24"/>
     </row>
     <row r="416" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="22"/>
-      <c r="B416" s="22"/>
-      <c r="C416" s="22"/>
+      <c r="A416" s="24"/>
+      <c r="B416" s="24"/>
+      <c r="C416" s="24"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
@@ -6547,19 +6647,19 @@
       <c r="C417" s="23"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="24"/>
-      <c r="B418" s="24"/>
-      <c r="C418" s="24"/>
+      <c r="A418" s="22"/>
+      <c r="B418" s="22"/>
+      <c r="C418" s="22"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="24"/>
-      <c r="B419" s="24"/>
-      <c r="C419" s="24"/>
+      <c r="A419" s="22"/>
+      <c r="B419" s="22"/>
+      <c r="C419" s="22"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="24"/>
-      <c r="B420" s="24"/>
-      <c r="C420" s="24"/>
+      <c r="A420" s="22"/>
+      <c r="B420" s="22"/>
+      <c r="C420" s="22"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
@@ -6568,44 +6668,46 @@
       <c r="B422" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C422" s="7"/>
+      <c r="C422" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="423" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C423" s="23"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="22" t="s">
+      <c r="A424" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B424" s="22"/>
+      <c r="B424" s="24"/>
       <c r="C424" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B425" s="23"/>
       <c r="C425" s="23"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B426" s="22"/>
-      <c r="C426" s="22"/>
+      <c r="A426" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B426" s="24"/>
+      <c r="C426" s="24"/>
     </row>
     <row r="427" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="22"/>
-      <c r="B427" s="22"/>
-      <c r="C427" s="22"/>
+      <c r="A427" s="24"/>
+      <c r="B427" s="24"/>
+      <c r="C427" s="24"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
@@ -6615,19 +6717,19 @@
       <c r="C428" s="23"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="24"/>
-      <c r="B429" s="24"/>
-      <c r="C429" s="24"/>
+      <c r="A429" s="22"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="22"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="24"/>
-      <c r="B430" s="24"/>
-      <c r="C430" s="24"/>
+      <c r="A430" s="22"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="22"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="24"/>
-      <c r="B431" s="24"/>
-      <c r="C431" s="24"/>
+      <c r="A431" s="22"/>
+      <c r="B431" s="22"/>
+      <c r="C431" s="22"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
@@ -6636,44 +6738,46 @@
       <c r="B433" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C433" s="7"/>
+      <c r="C433" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="434" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B434" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C434" s="23"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="22" t="s">
+      <c r="A435" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B435" s="22"/>
+      <c r="B435" s="24"/>
       <c r="C435" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B436" s="23"/>
       <c r="C436" s="23"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B437" s="22"/>
-      <c r="C437" s="22"/>
+      <c r="A437" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B437" s="24"/>
+      <c r="C437" s="24"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="22"/>
-      <c r="B438" s="22"/>
-      <c r="C438" s="22"/>
+      <c r="A438" s="24"/>
+      <c r="B438" s="24"/>
+      <c r="C438" s="24"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
@@ -6683,19 +6787,19 @@
       <c r="C439" s="23"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="24"/>
-      <c r="B440" s="24"/>
-      <c r="C440" s="24"/>
+      <c r="A440" s="22"/>
+      <c r="B440" s="22"/>
+      <c r="C440" s="22"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="24"/>
-      <c r="B441" s="24"/>
-      <c r="C441" s="24"/>
+      <c r="A441" s="22"/>
+      <c r="B441" s="22"/>
+      <c r="C441" s="22"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="24"/>
-      <c r="B442" s="24"/>
-      <c r="C442" s="24"/>
+      <c r="A442" s="22"/>
+      <c r="B442" s="22"/>
+      <c r="C442" s="22"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
@@ -6704,22 +6808,24 @@
       <c r="B444" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C444" s="7"/>
+      <c r="C444" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="445" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B445" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C445" s="23"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="22" t="s">
+      <c r="A446" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B446" s="22"/>
+      <c r="B446" s="24"/>
       <c r="C446" s="11" t="s">
         <v>1</v>
       </c>
@@ -6732,16 +6838,16 @@
       <c r="C447" s="23"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B448" s="22"/>
-      <c r="C448" s="22"/>
+      <c r="A448" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B448" s="24"/>
+      <c r="C448" s="24"/>
     </row>
     <row r="449" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="22"/>
-      <c r="B449" s="22"/>
-      <c r="C449" s="22"/>
+      <c r="A449" s="24"/>
+      <c r="B449" s="24"/>
+      <c r="C449" s="24"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
@@ -6751,19 +6857,19 @@
       <c r="C450" s="23"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="24"/>
-      <c r="B451" s="24"/>
-      <c r="C451" s="24"/>
+      <c r="A451" s="22"/>
+      <c r="B451" s="22"/>
+      <c r="C451" s="22"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="24"/>
-      <c r="B452" s="24"/>
-      <c r="C452" s="24"/>
+      <c r="A452" s="22"/>
+      <c r="B452" s="22"/>
+      <c r="C452" s="22"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="24"/>
-      <c r="B453" s="24"/>
-      <c r="C453" s="24"/>
+      <c r="A453" s="22"/>
+      <c r="B453" s="22"/>
+      <c r="C453" s="22"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
@@ -6772,22 +6878,24 @@
       <c r="B455" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C455" s="7"/>
+      <c r="C455" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="456" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B456" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C456" s="23"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="22" t="s">
+      <c r="A457" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B457" s="22"/>
+      <c r="B457" s="24"/>
       <c r="C457" s="11" t="s">
         <v>1</v>
       </c>
@@ -6800,16 +6908,16 @@
       <c r="C458" s="23"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B459" s="22"/>
-      <c r="C459" s="22"/>
+      <c r="A459" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B459" s="24"/>
+      <c r="C459" s="24"/>
     </row>
     <row r="460" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="22"/>
-      <c r="B460" s="22"/>
-      <c r="C460" s="22"/>
+      <c r="A460" s="24"/>
+      <c r="B460" s="24"/>
+      <c r="C460" s="24"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
@@ -6819,19 +6927,19 @@
       <c r="C461" s="23"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="24"/>
-      <c r="B462" s="24"/>
-      <c r="C462" s="24"/>
+      <c r="A462" s="22"/>
+      <c r="B462" s="22"/>
+      <c r="C462" s="22"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="24"/>
-      <c r="B463" s="24"/>
-      <c r="C463" s="24"/>
+      <c r="A463" s="22"/>
+      <c r="B463" s="22"/>
+      <c r="C463" s="22"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="24"/>
-      <c r="B464" s="24"/>
-      <c r="C464" s="24"/>
+      <c r="A464" s="22"/>
+      <c r="B464" s="22"/>
+      <c r="C464" s="22"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
@@ -6840,22 +6948,24 @@
       <c r="B466" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C466" s="7"/>
+      <c r="C466" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="467" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B467" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C467" s="23"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="22" t="s">
+      <c r="A468" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B468" s="22"/>
+      <c r="B468" s="24"/>
       <c r="C468" s="11" t="s">
         <v>1</v>
       </c>
@@ -6868,16 +6978,16 @@
       <c r="C469" s="23"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B470" s="22"/>
-      <c r="C470" s="22"/>
+      <c r="A470" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B470" s="24"/>
+      <c r="C470" s="24"/>
     </row>
     <row r="471" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="22"/>
-      <c r="B471" s="22"/>
-      <c r="C471" s="22"/>
+      <c r="A471" s="24"/>
+      <c r="B471" s="24"/>
+      <c r="C471" s="24"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
@@ -6887,19 +6997,19 @@
       <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="24"/>
-      <c r="B473" s="24"/>
-      <c r="C473" s="24"/>
+      <c r="A473" s="22"/>
+      <c r="B473" s="22"/>
+      <c r="C473" s="22"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="24"/>
-      <c r="B474" s="24"/>
-      <c r="C474" s="24"/>
+      <c r="A474" s="22"/>
+      <c r="B474" s="22"/>
+      <c r="C474" s="22"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="24"/>
-      <c r="B475" s="24"/>
-      <c r="C475" s="24"/>
+      <c r="A475" s="22"/>
+      <c r="B475" s="22"/>
+      <c r="C475" s="22"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
@@ -6908,44 +7018,46 @@
       <c r="B477" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C477" s="7"/>
+      <c r="C477" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="478" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B478" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C478" s="23"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="22" t="s">
+      <c r="A479" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B479" s="22"/>
+      <c r="B479" s="24"/>
       <c r="C479" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B480" s="23"/>
       <c r="C480" s="23"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B481" s="22"/>
-      <c r="C481" s="22"/>
+      <c r="A481" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B481" s="24"/>
+      <c r="C481" s="24"/>
     </row>
     <row r="482" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="22"/>
-      <c r="B482" s="22"/>
-      <c r="C482" s="22"/>
+      <c r="A482" s="24"/>
+      <c r="B482" s="24"/>
+      <c r="C482" s="24"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
@@ -6955,19 +7067,19 @@
       <c r="C483" s="23"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="24"/>
-      <c r="B484" s="24"/>
-      <c r="C484" s="24"/>
+      <c r="A484" s="22"/>
+      <c r="B484" s="22"/>
+      <c r="C484" s="22"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="24"/>
-      <c r="B485" s="24"/>
-      <c r="C485" s="24"/>
+      <c r="A485" s="22"/>
+      <c r="B485" s="22"/>
+      <c r="C485" s="22"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="24"/>
-      <c r="B486" s="24"/>
-      <c r="C486" s="24"/>
+      <c r="A486" s="22"/>
+      <c r="B486" s="22"/>
+      <c r="C486" s="22"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
@@ -6976,44 +7088,46 @@
       <c r="B488" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C488" s="7"/>
+      <c r="C488" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B489" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C489" s="23"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="22" t="s">
+      <c r="A490" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="22"/>
+      <c r="B490" s="24"/>
       <c r="C490" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B491" s="23"/>
       <c r="C491" s="23"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B492" s="22"/>
-      <c r="C492" s="22"/>
+      <c r="A492" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B492" s="24"/>
+      <c r="C492" s="24"/>
     </row>
     <row r="493" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="22"/>
-      <c r="B493" s="22"/>
-      <c r="C493" s="22"/>
+      <c r="A493" s="24"/>
+      <c r="B493" s="24"/>
+      <c r="C493" s="24"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
@@ -7023,19 +7137,19 @@
       <c r="C494" s="23"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="24"/>
-      <c r="B495" s="24"/>
-      <c r="C495" s="24"/>
+      <c r="A495" s="22"/>
+      <c r="B495" s="22"/>
+      <c r="C495" s="22"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="24"/>
-      <c r="B496" s="24"/>
-      <c r="C496" s="24"/>
+      <c r="A496" s="22"/>
+      <c r="B496" s="22"/>
+      <c r="C496" s="22"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="24"/>
-      <c r="B497" s="24"/>
-      <c r="C497" s="24"/>
+      <c r="A497" s="22"/>
+      <c r="B497" s="22"/>
+      <c r="C497" s="22"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
@@ -7044,44 +7158,46 @@
       <c r="B499" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C499" s="7"/>
+      <c r="C499" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B500" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C500" s="23"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="22" t="s">
+      <c r="A501" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B501" s="22"/>
+      <c r="B501" s="24"/>
       <c r="C501" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B502" s="23"/>
       <c r="C502" s="23"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B503" s="22"/>
-      <c r="C503" s="22"/>
+      <c r="A503" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B503" s="24"/>
+      <c r="C503" s="24"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="22"/>
-      <c r="B504" s="22"/>
-      <c r="C504" s="22"/>
+      <c r="A504" s="24"/>
+      <c r="B504" s="24"/>
+      <c r="C504" s="24"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
@@ -7091,19 +7207,19 @@
       <c r="C505" s="23"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="24"/>
-      <c r="B506" s="24"/>
-      <c r="C506" s="24"/>
+      <c r="A506" s="22"/>
+      <c r="B506" s="22"/>
+      <c r="C506" s="22"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="24"/>
-      <c r="B507" s="24"/>
-      <c r="C507" s="24"/>
+      <c r="A507" s="22"/>
+      <c r="B507" s="22"/>
+      <c r="C507" s="22"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="24"/>
-      <c r="B508" s="24"/>
-      <c r="C508" s="24"/>
+      <c r="A508" s="22"/>
+      <c r="B508" s="22"/>
+      <c r="C508" s="22"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -7112,44 +7228,46 @@
       <c r="B510" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C510" s="7"/>
+      <c r="C510" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B511" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C511" s="23"/>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="22" t="s">
+      <c r="A512" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B512" s="22"/>
+      <c r="B512" s="24"/>
       <c r="C512" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B513" s="23"/>
       <c r="C513" s="23"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B514" s="22"/>
-      <c r="C514" s="22"/>
+      <c r="A514" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B514" s="24"/>
+      <c r="C514" s="24"/>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="22"/>
-      <c r="B515" s="22"/>
-      <c r="C515" s="22"/>
+      <c r="A515" s="24"/>
+      <c r="B515" s="24"/>
+      <c r="C515" s="24"/>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
@@ -7159,115 +7277,293 @@
       <c r="C516" s="23"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="24"/>
-      <c r="B517" s="24"/>
-      <c r="C517" s="24"/>
+      <c r="A517" s="22"/>
+      <c r="B517" s="22"/>
+      <c r="C517" s="22"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="24"/>
-      <c r="B518" s="24"/>
-      <c r="C518" s="24"/>
+      <c r="A518" s="22"/>
+      <c r="B518" s="22"/>
+      <c r="C518" s="22"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="24"/>
-      <c r="B519" s="24"/>
-      <c r="C519" s="24"/>
+      <c r="A519" s="22"/>
+      <c r="B519" s="22"/>
+      <c r="C519" s="22"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="378">
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C515"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="B511:C511"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A492:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A437:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C449"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C217"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A238:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C250"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C94"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C138"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A360:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
     <mergeCell ref="B390:C390"/>
     <mergeCell ref="A391:B391"/>
     <mergeCell ref="A392:C392"/>
@@ -7292,279 +7588,101 @@
     <mergeCell ref="A386:C386"/>
     <mergeCell ref="A387:C387"/>
     <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A327:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C339"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A238:C239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C250"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C94"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C138"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C217"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A437:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C449"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A492:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C515"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="B511:C511"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
@@ -7591,15 +7709,15 @@
         <v>48</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7612,16 +7730,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7631,19 +7749,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7658,60 +7776,60 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="41"/>
+      <c r="B13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -7726,60 +7844,60 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="41"/>
+      <c r="B24" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7794,60 +7912,60 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="41"/>
+      <c r="B35" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
+      <c r="A38" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
     </row>
     <row r="40" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -7862,60 +7980,60 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="41"/>
+      <c r="B46" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
+      <c r="A48" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
+      <c r="A49" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
     </row>
     <row r="50" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
     </row>
     <row r="53" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -7930,60 +8048,60 @@
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="41"/>
+      <c r="B57" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
+      <c r="A59" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
+      <c r="A60" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -7998,60 +8116,60 @@
       <c r="A68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="41"/>
+      <c r="B68" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="30"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="41"/>
+      <c r="A70" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="30"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="43"/>
-      <c r="C71" s="44"/>
+      <c r="A71" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
     </row>
     <row r="72" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="47"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="41"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="36"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -8066,60 +8184,60 @@
       <c r="A80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="41"/>
+      <c r="B80" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="30"/>
     </row>
     <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="38"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="41"/>
+      <c r="A82" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="43"/>
-      <c r="C83" s="44"/>
+      <c r="A83" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="47"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
     </row>
     <row r="85" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="41"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="36"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="33"/>
     </row>
     <row r="87" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -8134,60 +8252,60 @@
       <c r="A91" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="41"/>
+      <c r="B91" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
+      <c r="A92" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="38"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="41"/>
+      <c r="A93" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="30"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="44"/>
+      <c r="A94" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="38"/>
+      <c r="C94" s="39"/>
     </row>
     <row r="95" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="47"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
     </row>
     <row r="96" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="40"/>
-      <c r="C96" s="41"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="36"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -8202,60 +8320,60 @@
       <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" s="41"/>
+      <c r="B102" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="38"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="41"/>
+      <c r="A104" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="44"/>
+      <c r="A105" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="38"/>
+      <c r="C105" s="39"/>
     </row>
     <row r="106" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="47"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="42"/>
     </row>
     <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="40"/>
-      <c r="C107" s="41"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="30"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="36"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="33"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -8270,60 +8388,60 @@
       <c r="A113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C113" s="41"/>
+      <c r="B113" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="30"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="38"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="41"/>
+      <c r="A115" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" s="36"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B116" s="43"/>
-      <c r="C116" s="44"/>
+      <c r="A116" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="38"/>
+      <c r="C116" s="39"/>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="47"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="42"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="40"/>
-      <c r="C118" s="41"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="30"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="33"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -8338,79 +8456,127 @@
       <c r="A124" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" s="41"/>
+      <c r="B124" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C124" s="30"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="38"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="41"/>
+      <c r="A126" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" s="36"/>
+      <c r="C126" s="30"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B127" s="43"/>
-      <c r="C127" s="44"/>
+      <c r="A127" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" s="38"/>
+      <c r="C127" s="39"/>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="45"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="47"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="42"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="39" t="s">
+      <c r="A129" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="40"/>
-      <c r="C129" s="41"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="30"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="36"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="33"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A116:C117"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="B91:C91"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C17"/>
@@ -8425,72 +8591,24 @@
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A60:C61"/>
     <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A116:C117"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
+++ b/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SALVAVIDAS\OneDrive - Eficacia\Mis documentos\EFICACIA\DOROZCO\MINTIC2022\C3-PRG\Proyecto\ProyectoTic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D891972-518B-4EB2-AF45-E8C75D50F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F2889-79CC-4176-8565-12591F36111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,17 +2047,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2068,11 +2068,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
@@ -2089,7 +2101,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2109,24 +2127,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2501,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:C60"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,10 +2533,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2549,16 +2549,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -2568,19 +2568,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2603,10 +2603,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2619,16 +2619,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -2638,19 +2638,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2674,10 +2674,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2690,16 +2690,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2709,14 +2709,14 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2739,10 +2739,10 @@
       <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
@@ -2755,16 +2755,16 @@
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
@@ -2774,19 +2774,19 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2809,10 +2809,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2825,16 +2825,16 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -2844,19 +2844,19 @@
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2879,10 +2879,10 @@
       <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2895,16 +2895,16 @@
       <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
@@ -2914,50 +2914,30 @@
       <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -2969,14 +2949,34 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2988,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C24"/>
     </sheetView>
   </sheetViews>
@@ -3020,10 +3020,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3036,16 +3036,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -3055,9 +3055,9 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3080,10 +3080,10 @@
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3110,11 +3110,11 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3124,9 +3124,9 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3146,9 +3146,9 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3176,10 +3176,10 @@
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3192,16 +3192,16 @@
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -3211,29 +3211,29 @@
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3256,10 +3256,10 @@
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="5" t="s">
         <v>1</v>
       </c>
@@ -3272,16 +3272,16 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
@@ -3291,29 +3291,29 @@
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3336,10 +3336,10 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3352,16 +3352,16 @@
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -3371,33 +3371,36 @@
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
@@ -3414,20 +3417,17 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3438,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,10 +3477,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3526,19 +3526,19 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3561,10 +3561,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3596,19 +3596,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3631,10 +3631,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3678,19 +3678,19 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3713,10 +3713,10 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
@@ -3729,16 +3729,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -3748,19 +3748,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -3783,10 +3783,10 @@
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3799,16 +3799,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="E50" s="19" t="s">
         <v>54</v>
       </c>
@@ -3822,31 +3822,31 @@
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3863,63 +3863,98 @@
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="E51:H52"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -3936,41 +3971,6 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4012,10 +4012,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4028,16 +4028,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -4047,19 +4047,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4082,10 +4082,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
@@ -4098,16 +4098,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4117,19 +4117,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4152,10 +4152,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
@@ -4168,16 +4168,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -4187,19 +4187,19 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4222,10 +4222,10 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
@@ -4238,16 +4238,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -4257,19 +4257,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -4292,10 +4292,10 @@
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
@@ -4308,16 +4308,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
@@ -4327,19 +4327,19 @@
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -4362,10 +4362,10 @@
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
@@ -4378,16 +4378,16 @@
       <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
@@ -4397,19 +4397,19 @@
       <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -4432,10 +4432,10 @@
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
@@ -4448,16 +4448,16 @@
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
@@ -4467,19 +4467,19 @@
       <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -4502,10 +4502,10 @@
       <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="24"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
@@ -4518,16 +4518,16 @@
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
     </row>
     <row r="83" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -4537,19 +4537,19 @@
       <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -4572,10 +4572,10 @@
       <c r="C90" s="23"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4588,16 +4588,16 @@
       <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
     </row>
     <row r="94" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
@@ -4607,19 +4607,19 @@
       <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4642,10 +4642,10 @@
       <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="5" t="s">
         <v>1</v>
       </c>
@@ -4658,16 +4658,16 @@
       <c r="C103" s="23"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
     </row>
     <row r="105" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -4677,19 +4677,19 @@
       <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4712,10 +4712,10 @@
       <c r="C112" s="23"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="24"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
@@ -4728,16 +4728,16 @@
       <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -4747,19 +4747,19 @@
       <c r="C117" s="23"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -4782,10 +4782,10 @@
       <c r="C123" s="23"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="24"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4798,16 +4798,16 @@
       <c r="C125" s="23"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
     </row>
     <row r="127" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
@@ -4817,19 +4817,19 @@
       <c r="C128" s="23"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4852,10 +4852,10 @@
       <c r="C134" s="23"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="24"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="5" t="s">
         <v>1</v>
       </c>
@@ -4868,16 +4868,16 @@
       <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
     </row>
     <row r="138" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
@@ -4887,19 +4887,19 @@
       <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="22"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -4922,10 +4922,10 @@
       <c r="C145" s="23"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="24"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4938,16 +4938,16 @@
       <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
+      <c r="A149" s="22"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
@@ -4957,19 +4957,19 @@
       <c r="C150" s="23"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="22"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="22"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="22"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="22"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -4992,10 +4992,10 @@
       <c r="C156" s="23"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="24"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
@@ -5008,16 +5008,16 @@
       <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="24"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
@@ -5027,19 +5027,19 @@
       <c r="C161" s="23"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="22"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="22"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="22"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="22"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -5062,10 +5062,10 @@
       <c r="C167" s="23"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="24"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="5" t="s">
         <v>1</v>
       </c>
@@ -5078,16 +5078,16 @@
       <c r="C169" s="23"/>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="24" t="s">
+      <c r="A170" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
     </row>
     <row r="171" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
+      <c r="A171" s="22"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
@@ -5097,19 +5097,19 @@
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="22"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="22"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -5132,10 +5132,10 @@
       <c r="C178" s="23"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="24" t="s">
+      <c r="A179" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="24"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="5" t="s">
         <v>1</v>
       </c>
@@ -5148,16 +5148,16 @@
       <c r="C180" s="23"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="24" t="s">
+      <c r="A181" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B181" s="24"/>
-      <c r="C181" s="24"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
     </row>
     <row r="182" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="24"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
@@ -5167,19 +5167,19 @@
       <c r="C183" s="23"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="22"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="22"/>
-      <c r="B185" s="22"/>
-      <c r="C185" s="22"/>
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="22"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -5202,10 +5202,10 @@
       <c r="C189" s="23"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="24"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="5" t="s">
         <v>1</v>
       </c>
@@ -5218,16 +5218,16 @@
       <c r="C191" s="23"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="24" t="s">
+      <c r="A192" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
     </row>
     <row r="193" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
@@ -5237,19 +5237,19 @@
       <c r="C194" s="23"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
-      <c r="C195" s="22"/>
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="22"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="22"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -5272,10 +5272,10 @@
       <c r="C200" s="23"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="24" t="s">
+      <c r="A201" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="24"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="11" t="s">
         <v>1</v>
       </c>
@@ -5288,16 +5288,16 @@
       <c r="C202" s="23"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
     </row>
     <row r="204" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="24"/>
+      <c r="A204" s="22"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="22"/>
     </row>
     <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
@@ -5307,29 +5307,29 @@
       <c r="C205" s="23"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="22"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
+      <c r="A206" s="25"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="22"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
+      <c r="A207" s="25"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="25"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="22"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
+      <c r="A208" s="25"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="22"/>
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
+      <c r="A209" s="25"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="22"/>
-      <c r="B210" s="22"/>
-      <c r="C210" s="22"/>
+      <c r="A210" s="25"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="25"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5352,10 +5352,10 @@
       <c r="C213" s="23"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="24"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="5" t="s">
         <v>1</v>
       </c>
@@ -5368,16 +5368,16 @@
       <c r="C215" s="23"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="24" t="s">
+      <c r="A216" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="24"/>
-      <c r="C216" s="24"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="22"/>
     </row>
     <row r="217" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="24"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="24"/>
+      <c r="A217" s="22"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
@@ -5387,19 +5387,19 @@
       <c r="C218" s="23"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="22"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="22"/>
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
+      <c r="A220" s="25"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="22"/>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
+      <c r="A221" s="25"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5422,10 +5422,10 @@
       <c r="C224" s="23"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="24" t="s">
+      <c r="A225" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="24"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="5" t="s">
         <v>1</v>
       </c>
@@ -5438,16 +5438,16 @@
       <c r="C226" s="23"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="24" t="s">
+      <c r="A227" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B227" s="24"/>
-      <c r="C227" s="24"/>
+      <c r="B227" s="22"/>
+      <c r="C227" s="22"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="24"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="24"/>
+      <c r="A228" s="22"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="22"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
@@ -5457,19 +5457,19 @@
       <c r="C229" s="23"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="22"/>
-      <c r="B230" s="22"/>
-      <c r="C230" s="22"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="25"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="22"/>
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="22"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="25"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -5492,10 +5492,10 @@
       <c r="C235" s="23"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="24" t="s">
+      <c r="A236" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="24"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="5" t="s">
         <v>1</v>
       </c>
@@ -5508,16 +5508,16 @@
       <c r="C237" s="23"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="24" t="s">
+      <c r="A238" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B238" s="24"/>
-      <c r="C238" s="24"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
     </row>
     <row r="239" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="24"/>
+      <c r="A239" s="22"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="22"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
@@ -5527,19 +5527,19 @@
       <c r="C240" s="23"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="22"/>
-      <c r="B241" s="22"/>
-      <c r="C241" s="22"/>
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="22"/>
-      <c r="B242" s="22"/>
-      <c r="C242" s="22"/>
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="22"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="25"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
@@ -5562,10 +5562,10 @@
       <c r="C246" s="23"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="24" t="s">
+      <c r="A247" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="24"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="5" t="s">
         <v>1</v>
       </c>
@@ -5578,16 +5578,16 @@
       <c r="C248" s="23"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="24" t="s">
+      <c r="A249" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B249" s="24"/>
-      <c r="C249" s="24"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="22"/>
     </row>
     <row r="250" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="24"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="24"/>
+      <c r="A250" s="22"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="22"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
@@ -5597,19 +5597,19 @@
       <c r="C251" s="23"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="22"/>
-      <c r="B252" s="22"/>
-      <c r="C252" s="22"/>
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="25"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="22"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="22"/>
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="25"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
@@ -5632,10 +5632,10 @@
       <c r="C257" s="23"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="24" t="s">
+      <c r="A258" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="24"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="5" t="s">
         <v>1</v>
       </c>
@@ -5648,16 +5648,16 @@
       <c r="C259" s="23"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="24" t="s">
+      <c r="A260" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B260" s="24"/>
-      <c r="C260" s="24"/>
+      <c r="B260" s="22"/>
+      <c r="C260" s="22"/>
     </row>
     <row r="261" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
-      <c r="C261" s="24"/>
+      <c r="A261" s="22"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="22"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
@@ -5667,19 +5667,19 @@
       <c r="C262" s="23"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="22"/>
-      <c r="B263" s="22"/>
-      <c r="C263" s="22"/>
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="22"/>
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="25"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="22"/>
-      <c r="B265" s="22"/>
-      <c r="C265" s="22"/>
+      <c r="A265" s="25"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="25"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
@@ -5702,10 +5702,10 @@
       <c r="C269" s="23"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="24" t="s">
+      <c r="A270" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="24"/>
+      <c r="B270" s="22"/>
       <c r="C270" s="11" t="s">
         <v>1</v>
       </c>
@@ -5718,16 +5718,16 @@
       <c r="C271" s="23"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="24" t="s">
+      <c r="A272" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B272" s="24"/>
-      <c r="C272" s="24"/>
+      <c r="B272" s="22"/>
+      <c r="C272" s="22"/>
     </row>
     <row r="273" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="24"/>
-      <c r="B273" s="24"/>
-      <c r="C273" s="24"/>
+      <c r="A273" s="22"/>
+      <c r="B273" s="22"/>
+      <c r="C273" s="22"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
@@ -5737,19 +5737,19 @@
       <c r="C274" s="23"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="22"/>
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
+      <c r="A275" s="25"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="25"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="22"/>
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
+      <c r="A276" s="25"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="25"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="22"/>
-      <c r="B277" s="22"/>
-      <c r="C277" s="22"/>
+      <c r="A277" s="25"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="25"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -5772,10 +5772,10 @@
       <c r="C280" s="23"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="24" t="s">
+      <c r="A281" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="24"/>
+      <c r="B281" s="22"/>
       <c r="C281" s="11" t="s">
         <v>1</v>
       </c>
@@ -5788,16 +5788,16 @@
       <c r="C282" s="23"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="24" t="s">
+      <c r="A283" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B283" s="24"/>
-      <c r="C283" s="24"/>
+      <c r="B283" s="22"/>
+      <c r="C283" s="22"/>
     </row>
     <row r="284" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="24"/>
-      <c r="B284" s="24"/>
-      <c r="C284" s="24"/>
+      <c r="A284" s="22"/>
+      <c r="B284" s="22"/>
+      <c r="C284" s="22"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
@@ -5807,19 +5807,19 @@
       <c r="C285" s="23"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="22"/>
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
+      <c r="A286" s="25"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="25"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="22"/>
-      <c r="B287" s="22"/>
-      <c r="C287" s="22"/>
+      <c r="A287" s="25"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="25"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="22"/>
-      <c r="B288" s="22"/>
-      <c r="C288" s="22"/>
+      <c r="A288" s="25"/>
+      <c r="B288" s="25"/>
+      <c r="C288" s="25"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
@@ -5842,10 +5842,10 @@
       <c r="C291" s="23"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="24" t="s">
+      <c r="A292" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="24"/>
+      <c r="B292" s="22"/>
       <c r="C292" s="11" t="s">
         <v>1</v>
       </c>
@@ -5858,16 +5858,16 @@
       <c r="C293" s="23"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="24" t="s">
+      <c r="A294" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B294" s="24"/>
-      <c r="C294" s="24"/>
+      <c r="B294" s="22"/>
+      <c r="C294" s="22"/>
     </row>
     <row r="295" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="24"/>
-      <c r="B295" s="24"/>
-      <c r="C295" s="24"/>
+      <c r="A295" s="22"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="22"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
@@ -5877,19 +5877,19 @@
       <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="22"/>
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
+      <c r="A297" s="25"/>
+      <c r="B297" s="25"/>
+      <c r="C297" s="25"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="22"/>
-      <c r="B298" s="22"/>
-      <c r="C298" s="22"/>
+      <c r="A298" s="25"/>
+      <c r="B298" s="25"/>
+      <c r="C298" s="25"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="22"/>
-      <c r="B299" s="22"/>
-      <c r="C299" s="22"/>
+      <c r="A299" s="25"/>
+      <c r="B299" s="25"/>
+      <c r="C299" s="25"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
@@ -5912,10 +5912,10 @@
       <c r="C302" s="23"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="24" t="s">
+      <c r="A303" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="24"/>
+      <c r="B303" s="22"/>
       <c r="C303" s="11" t="s">
         <v>1</v>
       </c>
@@ -5928,16 +5928,16 @@
       <c r="C304" s="23"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="24" t="s">
+      <c r="A305" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B305" s="24"/>
-      <c r="C305" s="24"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="22"/>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="24"/>
-      <c r="B306" s="24"/>
-      <c r="C306" s="24"/>
+      <c r="A306" s="22"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="22"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
@@ -5947,19 +5947,19 @@
       <c r="C307" s="23"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="22"/>
-      <c r="B308" s="22"/>
-      <c r="C308" s="22"/>
+      <c r="A308" s="25"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="25"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="22"/>
-      <c r="B309" s="22"/>
-      <c r="C309" s="22"/>
+      <c r="A309" s="25"/>
+      <c r="B309" s="25"/>
+      <c r="C309" s="25"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="22"/>
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
+      <c r="A310" s="25"/>
+      <c r="B310" s="25"/>
+      <c r="C310" s="25"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
@@ -5982,10 +5982,10 @@
       <c r="C313" s="23"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="24" t="s">
+      <c r="A314" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="24"/>
+      <c r="B314" s="22"/>
       <c r="C314" s="11" t="s">
         <v>1</v>
       </c>
@@ -5998,16 +5998,16 @@
       <c r="C315" s="23"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="24" t="s">
+      <c r="A316" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B316" s="24"/>
-      <c r="C316" s="24"/>
+      <c r="B316" s="22"/>
+      <c r="C316" s="22"/>
     </row>
     <row r="317" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="24"/>
-      <c r="B317" s="24"/>
-      <c r="C317" s="24"/>
+      <c r="A317" s="22"/>
+      <c r="B317" s="22"/>
+      <c r="C317" s="22"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
@@ -6017,19 +6017,19 @@
       <c r="C318" s="23"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="22"/>
-      <c r="B319" s="22"/>
-      <c r="C319" s="22"/>
+      <c r="A319" s="25"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="25"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="22"/>
-      <c r="B320" s="22"/>
-      <c r="C320" s="22"/>
+      <c r="A320" s="25"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="25"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="22"/>
-      <c r="B321" s="22"/>
-      <c r="C321" s="22"/>
+      <c r="A321" s="25"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="25"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
@@ -6052,10 +6052,10 @@
       <c r="C324" s="23"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="24" t="s">
+      <c r="A325" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="24"/>
+      <c r="B325" s="22"/>
       <c r="C325" s="11" t="s">
         <v>1</v>
       </c>
@@ -6068,16 +6068,16 @@
       <c r="C326" s="23"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="24" t="s">
+      <c r="A327" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B327" s="24"/>
-      <c r="C327" s="24"/>
+      <c r="B327" s="22"/>
+      <c r="C327" s="22"/>
     </row>
     <row r="328" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="24"/>
-      <c r="B328" s="24"/>
-      <c r="C328" s="24"/>
+      <c r="A328" s="22"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="22"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
@@ -6087,19 +6087,19 @@
       <c r="C329" s="23"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="22"/>
-      <c r="B330" s="22"/>
-      <c r="C330" s="22"/>
+      <c r="A330" s="25"/>
+      <c r="B330" s="25"/>
+      <c r="C330" s="25"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="22"/>
-      <c r="B331" s="22"/>
-      <c r="C331" s="22"/>
+      <c r="A331" s="25"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="25"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="22"/>
-      <c r="B332" s="22"/>
-      <c r="C332" s="22"/>
+      <c r="A332" s="25"/>
+      <c r="B332" s="25"/>
+      <c r="C332" s="25"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
@@ -6122,10 +6122,10 @@
       <c r="C335" s="23"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="24"/>
+      <c r="B336" s="22"/>
       <c r="C336" s="11" t="s">
         <v>1</v>
       </c>
@@ -6138,16 +6138,16 @@
       <c r="C337" s="23"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="24" t="s">
+      <c r="A338" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B338" s="24"/>
-      <c r="C338" s="24"/>
+      <c r="B338" s="22"/>
+      <c r="C338" s="22"/>
     </row>
     <row r="339" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="24"/>
-      <c r="B339" s="24"/>
-      <c r="C339" s="24"/>
+      <c r="A339" s="22"/>
+      <c r="B339" s="22"/>
+      <c r="C339" s="22"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
@@ -6157,19 +6157,19 @@
       <c r="C340" s="23"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="22"/>
-      <c r="B341" s="22"/>
-      <c r="C341" s="22"/>
+      <c r="A341" s="25"/>
+      <c r="B341" s="25"/>
+      <c r="C341" s="25"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="22"/>
-      <c r="B342" s="22"/>
-      <c r="C342" s="22"/>
+      <c r="A342" s="25"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="25"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="22"/>
-      <c r="B343" s="22"/>
-      <c r="C343" s="22"/>
+      <c r="A343" s="25"/>
+      <c r="B343" s="25"/>
+      <c r="C343" s="25"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
@@ -6192,10 +6192,10 @@
       <c r="C346" s="23"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="24" t="s">
+      <c r="A347" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B347" s="24"/>
+      <c r="B347" s="22"/>
       <c r="C347" s="11" t="s">
         <v>1</v>
       </c>
@@ -6208,16 +6208,16 @@
       <c r="C348" s="23"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="24" t="s">
+      <c r="A349" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B349" s="24"/>
-      <c r="C349" s="24"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="22"/>
     </row>
     <row r="350" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="24"/>
-      <c r="B350" s="24"/>
-      <c r="C350" s="24"/>
+      <c r="A350" s="22"/>
+      <c r="B350" s="22"/>
+      <c r="C350" s="22"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
@@ -6227,19 +6227,19 @@
       <c r="C351" s="23"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="22"/>
-      <c r="B352" s="22"/>
-      <c r="C352" s="22"/>
+      <c r="A352" s="25"/>
+      <c r="B352" s="25"/>
+      <c r="C352" s="25"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="22"/>
-      <c r="B353" s="22"/>
-      <c r="C353" s="22"/>
+      <c r="A353" s="25"/>
+      <c r="B353" s="25"/>
+      <c r="C353" s="25"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="22"/>
-      <c r="B354" s="22"/>
-      <c r="C354" s="22"/>
+      <c r="A354" s="25"/>
+      <c r="B354" s="25"/>
+      <c r="C354" s="25"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
@@ -6262,10 +6262,10 @@
       <c r="C357" s="23"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="24" t="s">
+      <c r="A358" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B358" s="24"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="11" t="s">
         <v>1</v>
       </c>
@@ -6278,16 +6278,16 @@
       <c r="C359" s="23"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="24" t="s">
+      <c r="A360" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B360" s="24"/>
-      <c r="C360" s="24"/>
+      <c r="B360" s="22"/>
+      <c r="C360" s="22"/>
     </row>
     <row r="361" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="24"/>
-      <c r="B361" s="24"/>
-      <c r="C361" s="24"/>
+      <c r="A361" s="22"/>
+      <c r="B361" s="22"/>
+      <c r="C361" s="22"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
@@ -6297,19 +6297,19 @@
       <c r="C362" s="23"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="22"/>
-      <c r="B363" s="22"/>
-      <c r="C363" s="22"/>
+      <c r="A363" s="25"/>
+      <c r="B363" s="25"/>
+      <c r="C363" s="25"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="22"/>
-      <c r="B364" s="22"/>
-      <c r="C364" s="22"/>
+      <c r="A364" s="25"/>
+      <c r="B364" s="25"/>
+      <c r="C364" s="25"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="22"/>
-      <c r="B365" s="22"/>
-      <c r="C365" s="22"/>
+      <c r="A365" s="25"/>
+      <c r="B365" s="25"/>
+      <c r="C365" s="25"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
@@ -6332,10 +6332,10 @@
       <c r="C368" s="23"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="24" t="s">
+      <c r="A369" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="24"/>
+      <c r="B369" s="22"/>
       <c r="C369" s="11" t="s">
         <v>1</v>
       </c>
@@ -6348,16 +6348,16 @@
       <c r="C370" s="23"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="24" t="s">
+      <c r="A371" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B371" s="24"/>
-      <c r="C371" s="24"/>
+      <c r="B371" s="22"/>
+      <c r="C371" s="22"/>
     </row>
     <row r="372" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="24"/>
-      <c r="B372" s="24"/>
-      <c r="C372" s="24"/>
+      <c r="A372" s="22"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="22"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
@@ -6367,19 +6367,19 @@
       <c r="C373" s="23"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="22"/>
-      <c r="B374" s="22"/>
-      <c r="C374" s="22"/>
+      <c r="A374" s="25"/>
+      <c r="B374" s="25"/>
+      <c r="C374" s="25"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="22"/>
-      <c r="B375" s="22"/>
-      <c r="C375" s="22"/>
+      <c r="A375" s="25"/>
+      <c r="B375" s="25"/>
+      <c r="C375" s="25"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="22"/>
-      <c r="B376" s="22"/>
-      <c r="C376" s="22"/>
+      <c r="A376" s="25"/>
+      <c r="B376" s="25"/>
+      <c r="C376" s="25"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
@@ -6402,10 +6402,10 @@
       <c r="C379" s="23"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="24" t="s">
+      <c r="A380" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B380" s="24"/>
+      <c r="B380" s="22"/>
       <c r="C380" s="11" t="s">
         <v>1</v>
       </c>
@@ -6418,16 +6418,16 @@
       <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="24" t="s">
+      <c r="A382" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B382" s="24"/>
-      <c r="C382" s="24"/>
+      <c r="B382" s="22"/>
+      <c r="C382" s="22"/>
     </row>
     <row r="383" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="24"/>
-      <c r="B383" s="24"/>
-      <c r="C383" s="24"/>
+      <c r="A383" s="22"/>
+      <c r="B383" s="22"/>
+      <c r="C383" s="22"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
@@ -6437,19 +6437,19 @@
       <c r="C384" s="23"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="22"/>
-      <c r="B385" s="22"/>
-      <c r="C385" s="22"/>
+      <c r="A385" s="25"/>
+      <c r="B385" s="25"/>
+      <c r="C385" s="25"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="22"/>
-      <c r="B386" s="22"/>
-      <c r="C386" s="22"/>
+      <c r="A386" s="25"/>
+      <c r="B386" s="25"/>
+      <c r="C386" s="25"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="22"/>
-      <c r="B387" s="22"/>
-      <c r="C387" s="22"/>
+      <c r="A387" s="25"/>
+      <c r="B387" s="25"/>
+      <c r="C387" s="25"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
@@ -6472,10 +6472,10 @@
       <c r="C390" s="23"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="24" t="s">
+      <c r="A391" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="24"/>
+      <c r="B391" s="22"/>
       <c r="C391" s="11" t="s">
         <v>1</v>
       </c>
@@ -6488,16 +6488,16 @@
       <c r="C392" s="23"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="24" t="s">
+      <c r="A393" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B393" s="24"/>
-      <c r="C393" s="24"/>
+      <c r="B393" s="22"/>
+      <c r="C393" s="22"/>
     </row>
     <row r="394" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="24"/>
-      <c r="B394" s="24"/>
-      <c r="C394" s="24"/>
+      <c r="A394" s="22"/>
+      <c r="B394" s="22"/>
+      <c r="C394" s="22"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
@@ -6507,19 +6507,19 @@
       <c r="C395" s="23"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="22"/>
-      <c r="B396" s="22"/>
-      <c r="C396" s="22"/>
+      <c r="A396" s="25"/>
+      <c r="B396" s="25"/>
+      <c r="C396" s="25"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="22"/>
-      <c r="B397" s="22"/>
-      <c r="C397" s="22"/>
+      <c r="A397" s="25"/>
+      <c r="B397" s="25"/>
+      <c r="C397" s="25"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="22"/>
-      <c r="B398" s="22"/>
-      <c r="C398" s="22"/>
+      <c r="A398" s="25"/>
+      <c r="B398" s="25"/>
+      <c r="C398" s="25"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
@@ -6542,10 +6542,10 @@
       <c r="C401" s="23"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="24" t="s">
+      <c r="A402" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B402" s="24"/>
+      <c r="B402" s="22"/>
       <c r="C402" s="11" t="s">
         <v>1</v>
       </c>
@@ -6558,16 +6558,16 @@
       <c r="C403" s="23"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="24" t="s">
+      <c r="A404" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B404" s="24"/>
-      <c r="C404" s="24"/>
+      <c r="B404" s="22"/>
+      <c r="C404" s="22"/>
     </row>
     <row r="405" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="24"/>
-      <c r="B405" s="24"/>
-      <c r="C405" s="24"/>
+      <c r="A405" s="22"/>
+      <c r="B405" s="22"/>
+      <c r="C405" s="22"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
@@ -6577,19 +6577,19 @@
       <c r="C406" s="23"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="22"/>
-      <c r="B407" s="22"/>
-      <c r="C407" s="22"/>
+      <c r="A407" s="25"/>
+      <c r="B407" s="25"/>
+      <c r="C407" s="25"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="22"/>
-      <c r="B408" s="22"/>
-      <c r="C408" s="22"/>
+      <c r="A408" s="25"/>
+      <c r="B408" s="25"/>
+      <c r="C408" s="25"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="22"/>
-      <c r="B409" s="22"/>
-      <c r="C409" s="22"/>
+      <c r="A409" s="25"/>
+      <c r="B409" s="25"/>
+      <c r="C409" s="25"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
@@ -6612,10 +6612,10 @@
       <c r="C412" s="23"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="24" t="s">
+      <c r="A413" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B413" s="24"/>
+      <c r="B413" s="22"/>
       <c r="C413" s="11" t="s">
         <v>1</v>
       </c>
@@ -6628,16 +6628,16 @@
       <c r="C414" s="23"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="24" t="s">
+      <c r="A415" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B415" s="24"/>
-      <c r="C415" s="24"/>
+      <c r="B415" s="22"/>
+      <c r="C415" s="22"/>
     </row>
     <row r="416" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="24"/>
-      <c r="B416" s="24"/>
-      <c r="C416" s="24"/>
+      <c r="A416" s="22"/>
+      <c r="B416" s="22"/>
+      <c r="C416" s="22"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
@@ -6647,19 +6647,19 @@
       <c r="C417" s="23"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="22"/>
-      <c r="B418" s="22"/>
-      <c r="C418" s="22"/>
+      <c r="A418" s="25"/>
+      <c r="B418" s="25"/>
+      <c r="C418" s="25"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="22"/>
-      <c r="B419" s="22"/>
-      <c r="C419" s="22"/>
+      <c r="A419" s="25"/>
+      <c r="B419" s="25"/>
+      <c r="C419" s="25"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="22"/>
-      <c r="B420" s="22"/>
-      <c r="C420" s="22"/>
+      <c r="A420" s="25"/>
+      <c r="B420" s="25"/>
+      <c r="C420" s="25"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
@@ -6682,10 +6682,10 @@
       <c r="C423" s="23"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="24" t="s">
+      <c r="A424" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B424" s="24"/>
+      <c r="B424" s="22"/>
       <c r="C424" s="11" t="s">
         <v>1</v>
       </c>
@@ -6698,16 +6698,16 @@
       <c r="C425" s="23"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="24" t="s">
+      <c r="A426" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B426" s="24"/>
-      <c r="C426" s="24"/>
+      <c r="B426" s="22"/>
+      <c r="C426" s="22"/>
     </row>
     <row r="427" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="24"/>
-      <c r="B427" s="24"/>
-      <c r="C427" s="24"/>
+      <c r="A427" s="22"/>
+      <c r="B427" s="22"/>
+      <c r="C427" s="22"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
@@ -6717,19 +6717,19 @@
       <c r="C428" s="23"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="22"/>
-      <c r="B429" s="22"/>
-      <c r="C429" s="22"/>
+      <c r="A429" s="25"/>
+      <c r="B429" s="25"/>
+      <c r="C429" s="25"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="22"/>
-      <c r="B430" s="22"/>
-      <c r="C430" s="22"/>
+      <c r="A430" s="25"/>
+      <c r="B430" s="25"/>
+      <c r="C430" s="25"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="22"/>
-      <c r="B431" s="22"/>
-      <c r="C431" s="22"/>
+      <c r="A431" s="25"/>
+      <c r="B431" s="25"/>
+      <c r="C431" s="25"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
@@ -6752,10 +6752,10 @@
       <c r="C434" s="23"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="24" t="s">
+      <c r="A435" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B435" s="24"/>
+      <c r="B435" s="22"/>
       <c r="C435" s="11" t="s">
         <v>1</v>
       </c>
@@ -6768,16 +6768,16 @@
       <c r="C436" s="23"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="24" t="s">
+      <c r="A437" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B437" s="24"/>
-      <c r="C437" s="24"/>
+      <c r="B437" s="22"/>
+      <c r="C437" s="22"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="24"/>
-      <c r="B438" s="24"/>
-      <c r="C438" s="24"/>
+      <c r="A438" s="22"/>
+      <c r="B438" s="22"/>
+      <c r="C438" s="22"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
@@ -6787,19 +6787,19 @@
       <c r="C439" s="23"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="22"/>
-      <c r="B440" s="22"/>
-      <c r="C440" s="22"/>
+      <c r="A440" s="25"/>
+      <c r="B440" s="25"/>
+      <c r="C440" s="25"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="22"/>
-      <c r="B441" s="22"/>
-      <c r="C441" s="22"/>
+      <c r="A441" s="25"/>
+      <c r="B441" s="25"/>
+      <c r="C441" s="25"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="22"/>
-      <c r="B442" s="22"/>
-      <c r="C442" s="22"/>
+      <c r="A442" s="25"/>
+      <c r="B442" s="25"/>
+      <c r="C442" s="25"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
@@ -6822,10 +6822,10 @@
       <c r="C445" s="23"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="24" t="s">
+      <c r="A446" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B446" s="24"/>
+      <c r="B446" s="22"/>
       <c r="C446" s="11" t="s">
         <v>1</v>
       </c>
@@ -6838,16 +6838,16 @@
       <c r="C447" s="23"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="24" t="s">
+      <c r="A448" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B448" s="24"/>
-      <c r="C448" s="24"/>
+      <c r="B448" s="22"/>
+      <c r="C448" s="22"/>
     </row>
     <row r="449" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="24"/>
-      <c r="B449" s="24"/>
-      <c r="C449" s="24"/>
+      <c r="A449" s="22"/>
+      <c r="B449" s="22"/>
+      <c r="C449" s="22"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
@@ -6857,19 +6857,19 @@
       <c r="C450" s="23"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="22"/>
-      <c r="B451" s="22"/>
-      <c r="C451" s="22"/>
+      <c r="A451" s="25"/>
+      <c r="B451" s="25"/>
+      <c r="C451" s="25"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="22"/>
-      <c r="B452" s="22"/>
-      <c r="C452" s="22"/>
+      <c r="A452" s="25"/>
+      <c r="B452" s="25"/>
+      <c r="C452" s="25"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="22"/>
-      <c r="B453" s="22"/>
-      <c r="C453" s="22"/>
+      <c r="A453" s="25"/>
+      <c r="B453" s="25"/>
+      <c r="C453" s="25"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
@@ -6892,10 +6892,10 @@
       <c r="C456" s="23"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="24" t="s">
+      <c r="A457" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B457" s="24"/>
+      <c r="B457" s="22"/>
       <c r="C457" s="11" t="s">
         <v>1</v>
       </c>
@@ -6908,16 +6908,16 @@
       <c r="C458" s="23"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="24" t="s">
+      <c r="A459" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B459" s="24"/>
-      <c r="C459" s="24"/>
+      <c r="B459" s="22"/>
+      <c r="C459" s="22"/>
     </row>
     <row r="460" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="24"/>
-      <c r="B460" s="24"/>
-      <c r="C460" s="24"/>
+      <c r="A460" s="22"/>
+      <c r="B460" s="22"/>
+      <c r="C460" s="22"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
@@ -6927,19 +6927,19 @@
       <c r="C461" s="23"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="22"/>
-      <c r="B462" s="22"/>
-      <c r="C462" s="22"/>
+      <c r="A462" s="25"/>
+      <c r="B462" s="25"/>
+      <c r="C462" s="25"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="22"/>
-      <c r="B463" s="22"/>
-      <c r="C463" s="22"/>
+      <c r="A463" s="25"/>
+      <c r="B463" s="25"/>
+      <c r="C463" s="25"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="22"/>
-      <c r="B464" s="22"/>
-      <c r="C464" s="22"/>
+      <c r="A464" s="25"/>
+      <c r="B464" s="25"/>
+      <c r="C464" s="25"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
@@ -6962,10 +6962,10 @@
       <c r="C467" s="23"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="24" t="s">
+      <c r="A468" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B468" s="24"/>
+      <c r="B468" s="22"/>
       <c r="C468" s="11" t="s">
         <v>1</v>
       </c>
@@ -6978,16 +6978,16 @@
       <c r="C469" s="23"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="24" t="s">
+      <c r="A470" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B470" s="24"/>
-      <c r="C470" s="24"/>
+      <c r="B470" s="22"/>
+      <c r="C470" s="22"/>
     </row>
     <row r="471" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="24"/>
-      <c r="B471" s="24"/>
-      <c r="C471" s="24"/>
+      <c r="A471" s="22"/>
+      <c r="B471" s="22"/>
+      <c r="C471" s="22"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
@@ -6997,19 +6997,19 @@
       <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="22"/>
-      <c r="B473" s="22"/>
-      <c r="C473" s="22"/>
+      <c r="A473" s="25"/>
+      <c r="B473" s="25"/>
+      <c r="C473" s="25"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="22"/>
-      <c r="B474" s="22"/>
-      <c r="C474" s="22"/>
+      <c r="A474" s="25"/>
+      <c r="B474" s="25"/>
+      <c r="C474" s="25"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="22"/>
-      <c r="B475" s="22"/>
-      <c r="C475" s="22"/>
+      <c r="A475" s="25"/>
+      <c r="B475" s="25"/>
+      <c r="C475" s="25"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
@@ -7032,10 +7032,10 @@
       <c r="C478" s="23"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="24" t="s">
+      <c r="A479" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B479" s="24"/>
+      <c r="B479" s="22"/>
       <c r="C479" s="11" t="s">
         <v>1</v>
       </c>
@@ -7048,16 +7048,16 @@
       <c r="C480" s="23"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="24" t="s">
+      <c r="A481" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B481" s="24"/>
-      <c r="C481" s="24"/>
+      <c r="B481" s="22"/>
+      <c r="C481" s="22"/>
     </row>
     <row r="482" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="24"/>
-      <c r="B482" s="24"/>
-      <c r="C482" s="24"/>
+      <c r="A482" s="22"/>
+      <c r="B482" s="22"/>
+      <c r="C482" s="22"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
@@ -7067,19 +7067,19 @@
       <c r="C483" s="23"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="22"/>
-      <c r="B484" s="22"/>
-      <c r="C484" s="22"/>
+      <c r="A484" s="25"/>
+      <c r="B484" s="25"/>
+      <c r="C484" s="25"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="22"/>
-      <c r="B485" s="22"/>
-      <c r="C485" s="22"/>
+      <c r="A485" s="25"/>
+      <c r="B485" s="25"/>
+      <c r="C485" s="25"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="22"/>
-      <c r="B486" s="22"/>
-      <c r="C486" s="22"/>
+      <c r="A486" s="25"/>
+      <c r="B486" s="25"/>
+      <c r="C486" s="25"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
@@ -7102,10 +7102,10 @@
       <c r="C489" s="23"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="24" t="s">
+      <c r="A490" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="24"/>
+      <c r="B490" s="22"/>
       <c r="C490" s="11" t="s">
         <v>1</v>
       </c>
@@ -7118,16 +7118,16 @@
       <c r="C491" s="23"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="24" t="s">
+      <c r="A492" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B492" s="24"/>
-      <c r="C492" s="24"/>
+      <c r="B492" s="22"/>
+      <c r="C492" s="22"/>
     </row>
     <row r="493" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="24"/>
-      <c r="B493" s="24"/>
-      <c r="C493" s="24"/>
+      <c r="A493" s="22"/>
+      <c r="B493" s="22"/>
+      <c r="C493" s="22"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
@@ -7137,19 +7137,19 @@
       <c r="C494" s="23"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="22"/>
-      <c r="B495" s="22"/>
-      <c r="C495" s="22"/>
+      <c r="A495" s="25"/>
+      <c r="B495" s="25"/>
+      <c r="C495" s="25"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="22"/>
-      <c r="B496" s="22"/>
-      <c r="C496" s="22"/>
+      <c r="A496" s="25"/>
+      <c r="B496" s="25"/>
+      <c r="C496" s="25"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="22"/>
-      <c r="B497" s="22"/>
-      <c r="C497" s="22"/>
+      <c r="A497" s="25"/>
+      <c r="B497" s="25"/>
+      <c r="C497" s="25"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
@@ -7172,10 +7172,10 @@
       <c r="C500" s="23"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="24" t="s">
+      <c r="A501" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B501" s="24"/>
+      <c r="B501" s="22"/>
       <c r="C501" s="11" t="s">
         <v>1</v>
       </c>
@@ -7188,16 +7188,16 @@
       <c r="C502" s="23"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="24" t="s">
+      <c r="A503" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B503" s="24"/>
-      <c r="C503" s="24"/>
+      <c r="B503" s="22"/>
+      <c r="C503" s="22"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="24"/>
-      <c r="B504" s="24"/>
-      <c r="C504" s="24"/>
+      <c r="A504" s="22"/>
+      <c r="B504" s="22"/>
+      <c r="C504" s="22"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
@@ -7207,19 +7207,19 @@
       <c r="C505" s="23"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="22"/>
-      <c r="B506" s="22"/>
-      <c r="C506" s="22"/>
+      <c r="A506" s="25"/>
+      <c r="B506" s="25"/>
+      <c r="C506" s="25"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="22"/>
-      <c r="B507" s="22"/>
-      <c r="C507" s="22"/>
+      <c r="A507" s="25"/>
+      <c r="B507" s="25"/>
+      <c r="C507" s="25"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="22"/>
-      <c r="B508" s="22"/>
-      <c r="C508" s="22"/>
+      <c r="A508" s="25"/>
+      <c r="B508" s="25"/>
+      <c r="C508" s="25"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -7242,10 +7242,10 @@
       <c r="C511" s="23"/>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="24" t="s">
+      <c r="A512" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B512" s="24"/>
+      <c r="B512" s="22"/>
       <c r="C512" s="11" t="s">
         <v>1</v>
       </c>
@@ -7258,16 +7258,16 @@
       <c r="C513" s="23"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="24" t="s">
+      <c r="A514" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B514" s="24"/>
-      <c r="C514" s="24"/>
+      <c r="B514" s="22"/>
+      <c r="C514" s="22"/>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="24"/>
-      <c r="B515" s="24"/>
-      <c r="C515" s="24"/>
+      <c r="A515" s="22"/>
+      <c r="B515" s="22"/>
+      <c r="C515" s="22"/>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
@@ -7277,19 +7277,19 @@
       <c r="C516" s="23"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="22"/>
-      <c r="B517" s="22"/>
-      <c r="C517" s="22"/>
+      <c r="A517" s="25"/>
+      <c r="B517" s="25"/>
+      <c r="C517" s="25"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="22"/>
-      <c r="B518" s="22"/>
-      <c r="C518" s="22"/>
+      <c r="A518" s="25"/>
+      <c r="B518" s="25"/>
+      <c r="C518" s="25"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="22"/>
-      <c r="B519" s="22"/>
-      <c r="C519" s="22"/>
+      <c r="A519" s="25"/>
+      <c r="B519" s="25"/>
+      <c r="C519" s="25"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
@@ -7298,35 +7298,331 @@
     </row>
   </sheetData>
   <mergeCells count="378">
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C217"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C515"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A492:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A437:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C449"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A393:C394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A398:C398"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A382:C383"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A360:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A327:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C339"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C138"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C94"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:C37"/>
@@ -7351,331 +7647,35 @@
     <mergeCell ref="A220:C220"/>
     <mergeCell ref="A221:C221"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C94"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C138"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="A391:B391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A393:C394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A398:C398"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A382:C383"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A437:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C449"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A492:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C515"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C217"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7714,10 +7714,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7730,16 +7730,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7749,19 +7749,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7776,60 +7776,60 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
     </row>
     <row r="17" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -7844,60 +7844,60 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7912,60 +7912,60 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
     </row>
     <row r="40" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -7980,60 +7980,60 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
     </row>
     <row r="49" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
     </row>
     <row r="50" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -8048,60 +8048,60 @@
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="42"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
     </row>
     <row r="61" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -8116,60 +8116,60 @@
       <c r="A68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="30"/>
+      <c r="C68" s="42"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="35"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
     </row>
     <row r="72" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="48"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="30"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -8184,60 +8184,60 @@
       <c r="A80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="30"/>
+      <c r="C80" s="42"/>
     </row>
     <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="35"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="30"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
     </row>
     <row r="83" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="48"/>
     </row>
     <row r="85" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="30"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
     </row>
     <row r="87" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -8252,60 +8252,60 @@
       <c r="A91" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="30"/>
+      <c r="C91" s="42"/>
     </row>
     <row r="92" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="35"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="30"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="39"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
     </row>
     <row r="95" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="42"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="48"/>
     </row>
     <row r="96" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="30"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="33"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -8320,60 +8320,60 @@
       <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="30"/>
+      <c r="C102" s="42"/>
     </row>
     <row r="103" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="35"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="30"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B105" s="38"/>
-      <c r="C105" s="39"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
     </row>
     <row r="106" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="42"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="48"/>
     </row>
     <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="36"/>
-      <c r="C107" s="30"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="33"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -8388,60 +8388,60 @@
       <c r="A113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="30"/>
+      <c r="C113" s="42"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="35"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="30"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="42"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="38"/>
-      <c r="C116" s="39"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="45"/>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="42"/>
+      <c r="A117" s="46"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="48"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="30"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="42"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="33"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="37"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -8456,63 +8456,143 @@
       <c r="A124" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="30"/>
+      <c r="C124" s="42"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="35"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="36"/>
-      <c r="C126" s="30"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B127" s="38"/>
-      <c r="C127" s="39"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="45"/>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="41"/>
-      <c r="C128" s="42"/>
+      <c r="A128" s="46"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="48"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="36"/>
-      <c r="C129" s="30"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="42"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="33"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="37"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C95"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A116:C117"/>
     <mergeCell ref="A49:C50"/>
     <mergeCell ref="A51:C51"/>
@@ -8529,86 +8609,6 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
+++ b/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SALVAVIDAS\OneDrive - Eficacia\Mis documentos\EFICACIA\DOROZCO\MINTIC2022\C3-PRG\Proyecto\ProyectoTic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F2889-79CC-4176-8565-12591F36111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C212D0FE-7C1B-4F26-B562-DB9970AD24A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2004,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2047,17 +2047,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2067,6 +2067,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2086,46 +2128,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2533,10 +2551,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2549,16 +2567,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -2568,19 +2586,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2603,10 +2621,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2619,16 +2637,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -2638,19 +2656,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2674,10 +2692,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2690,16 +2708,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2709,14 +2727,14 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2739,10 +2757,10 @@
       <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
@@ -2755,16 +2773,16 @@
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
@@ -2774,19 +2792,19 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2809,10 +2827,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2825,16 +2843,16 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -2844,19 +2862,19 @@
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2879,10 +2897,10 @@
       <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2895,16 +2913,16 @@
       <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
@@ -2914,30 +2932,50 @@
       <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C38"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -2949,34 +2987,14 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="A61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3020,10 +3038,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3036,16 +3054,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -3055,9 +3073,9 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3080,10 +3098,10 @@
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3110,11 +3128,11 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="E14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3124,9 +3142,9 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3146,9 +3164,9 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3176,10 +3194,10 @@
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3192,16 +3210,16 @@
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -3211,29 +3229,29 @@
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3256,10 +3274,10 @@
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>1</v>
       </c>
@@ -3272,16 +3290,16 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
@@ -3291,29 +3309,29 @@
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3336,10 +3354,10 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3352,16 +3370,16 @@
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -3371,36 +3389,33 @@
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
@@ -3417,17 +3432,20 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3438,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,10 +3495,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3493,16 +3511,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="E6" s="19" t="s">
         <v>52</v>
       </c>
@@ -3526,19 +3544,19 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3561,10 +3579,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3577,16 +3595,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -3596,19 +3614,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3631,10 +3649,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3647,16 +3665,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="E28" s="19" t="s">
         <v>53</v>
       </c>
@@ -3678,19 +3696,19 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3713,10 +3731,10 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
@@ -3729,16 +3747,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -3748,19 +3766,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -3783,10 +3801,10 @@
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3799,16 +3817,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="E50" s="19" t="s">
         <v>54</v>
       </c>
@@ -3822,31 +3840,31 @@
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3863,70 +3881,91 @@
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A15:C15"/>
@@ -3943,34 +3982,13 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4012,10 +4030,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4028,16 +4046,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -4047,19 +4065,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4082,10 +4100,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
@@ -4098,16 +4116,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4117,19 +4135,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4152,10 +4170,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
@@ -4168,16 +4186,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -4187,19 +4205,19 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4222,10 +4240,10 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
@@ -4238,16 +4256,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -4257,19 +4275,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -4292,10 +4310,10 @@
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
@@ -4308,16 +4326,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
@@ -4327,19 +4345,19 @@
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -4362,10 +4380,10 @@
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
@@ -4378,16 +4396,16 @@
       <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
@@ -4397,19 +4415,19 @@
       <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -4432,10 +4450,10 @@
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="22"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
@@ -4448,16 +4466,16 @@
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
@@ -4467,19 +4485,19 @@
       <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -4502,10 +4520,10 @@
       <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="22"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
@@ -4518,16 +4536,16 @@
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
     </row>
     <row r="83" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -4537,19 +4555,19 @@
       <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -4572,10 +4590,10 @@
       <c r="C90" s="23"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="22"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4588,16 +4606,16 @@
       <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
     </row>
     <row r="94" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
@@ -4607,19 +4625,19 @@
       <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4642,10 +4660,10 @@
       <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="22"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="5" t="s">
         <v>1</v>
       </c>
@@ -4658,16 +4676,16 @@
       <c r="C103" s="23"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
     </row>
     <row r="105" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -4677,19 +4695,19 @@
       <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4712,10 +4730,10 @@
       <c r="C112" s="23"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="22"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
@@ -4728,16 +4746,16 @@
       <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -4747,19 +4765,19 @@
       <c r="C117" s="23"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -4782,10 +4800,10 @@
       <c r="C123" s="23"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="22"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4798,16 +4816,16 @@
       <c r="C125" s="23"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
     </row>
     <row r="127" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
@@ -4817,19 +4835,19 @@
       <c r="C128" s="23"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4852,10 +4870,10 @@
       <c r="C134" s="23"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="22"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="5" t="s">
         <v>1</v>
       </c>
@@ -4868,16 +4886,16 @@
       <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
     </row>
     <row r="138" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
@@ -4887,19 +4905,19 @@
       <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -4922,10 +4940,10 @@
       <c r="C145" s="23"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="22"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4938,16 +4956,16 @@
       <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="22" t="s">
+      <c r="A148" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="22"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
@@ -4957,19 +4975,19 @@
       <c r="C150" s="23"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="25"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="25"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="25"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -4992,10 +5010,10 @@
       <c r="C156" s="23"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="22" t="s">
+      <c r="A157" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="22"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
@@ -5008,16 +5026,16 @@
       <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="22" t="s">
+      <c r="A159" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
@@ -5027,19 +5045,19 @@
       <c r="C161" s="23"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="25"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="25"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -5062,10 +5080,10 @@
       <c r="C167" s="23"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="22" t="s">
+      <c r="A168" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="22"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="5" t="s">
         <v>1</v>
       </c>
@@ -5078,16 +5096,16 @@
       <c r="C169" s="23"/>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="22" t="s">
+      <c r="A170" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
     </row>
     <row r="171" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="22"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
@@ -5097,19 +5115,19 @@
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="25"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="25"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -5132,10 +5150,10 @@
       <c r="C178" s="23"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="22" t="s">
+      <c r="A179" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="22"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="5" t="s">
         <v>1</v>
       </c>
@@ -5148,16 +5166,16 @@
       <c r="C180" s="23"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
+      <c r="A181" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
     </row>
     <row r="182" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="22"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
@@ -5167,19 +5185,19 @@
       <c r="C183" s="23"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="25"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="25"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -5202,10 +5220,10 @@
       <c r="C189" s="23"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="22"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="5" t="s">
         <v>1</v>
       </c>
@@ -5218,16 +5236,16 @@
       <c r="C191" s="23"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="22" t="s">
+      <c r="A192" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
     </row>
     <row r="193" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="22"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
@@ -5237,19 +5255,19 @@
       <c r="C194" s="23"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="25"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="25"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="25"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="25"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -5272,10 +5290,10 @@
       <c r="C200" s="23"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
+      <c r="A201" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="22"/>
+      <c r="B201" s="24"/>
       <c r="C201" s="11" t="s">
         <v>1</v>
       </c>
@@ -5288,16 +5306,16 @@
       <c r="C202" s="23"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="22" t="s">
+      <c r="A203" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
     </row>
     <row r="204" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="22"/>
-      <c r="B204" s="22"/>
-      <c r="C204" s="22"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
     </row>
     <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
@@ -5307,29 +5325,29 @@
       <c r="C205" s="23"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="25"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="25"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="25"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="25"/>
+      <c r="A210" s="22"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5352,10 +5370,10 @@
       <c r="C213" s="23"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="22" t="s">
+      <c r="A214" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="22"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="5" t="s">
         <v>1</v>
       </c>
@@ -5368,16 +5386,16 @@
       <c r="C215" s="23"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="22" t="s">
+      <c r="A216" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="24"/>
     </row>
     <row r="217" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="22"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
@@ -5387,19 +5405,19 @@
       <c r="C218" s="23"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="25"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="25"/>
+      <c r="A219" s="22"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="25"/>
+      <c r="A220" s="22"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="25"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5422,10 +5440,10 @@
       <c r="C224" s="23"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="22" t="s">
+      <c r="A225" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="22"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="5" t="s">
         <v>1</v>
       </c>
@@ -5438,16 +5456,16 @@
       <c r="C226" s="23"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="22" t="s">
+      <c r="A227" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="24"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="22"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="24"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
@@ -5457,19 +5475,19 @@
       <c r="C229" s="23"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="25"/>
+      <c r="A230" s="22"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="25"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="25"/>
+      <c r="A231" s="22"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="22"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="25"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -5492,10 +5510,10 @@
       <c r="C235" s="23"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="22" t="s">
+      <c r="A236" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="22"/>
+      <c r="B236" s="24"/>
       <c r="C236" s="5" t="s">
         <v>1</v>
       </c>
@@ -5508,16 +5526,16 @@
       <c r="C237" s="23"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="22" t="s">
+      <c r="A238" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
     </row>
     <row r="239" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="22"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="24"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
@@ -5527,19 +5545,19 @@
       <c r="C240" s="23"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="25"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="25"/>
+      <c r="A241" s="22"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="22"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="25"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="25"/>
+      <c r="A242" s="22"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="22"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="25"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="25"/>
+      <c r="A243" s="22"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
@@ -5562,10 +5580,10 @@
       <c r="C246" s="23"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="22" t="s">
+      <c r="A247" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="22"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="5" t="s">
         <v>1</v>
       </c>
@@ -5578,16 +5596,16 @@
       <c r="C248" s="23"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="22" t="s">
+      <c r="A249" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
     </row>
     <row r="250" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="22"/>
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
@@ -5597,19 +5615,19 @@
       <c r="C251" s="23"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
-      <c r="C252" s="25"/>
+      <c r="A252" s="22"/>
+      <c r="B252" s="22"/>
+      <c r="C252" s="22"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="25"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="25"/>
+      <c r="A253" s="22"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="22"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="25"/>
-      <c r="B254" s="25"/>
-      <c r="C254" s="25"/>
+      <c r="A254" s="22"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
@@ -5632,10 +5650,10 @@
       <c r="C257" s="23"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="22" t="s">
+      <c r="A258" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="22"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="5" t="s">
         <v>1</v>
       </c>
@@ -5648,16 +5666,16 @@
       <c r="C259" s="23"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="22" t="s">
+      <c r="A260" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
     </row>
     <row r="261" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="22"/>
-      <c r="B261" s="22"/>
-      <c r="C261" s="22"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
@@ -5667,19 +5685,19 @@
       <c r="C262" s="23"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="25"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
+      <c r="A263" s="22"/>
+      <c r="B263" s="22"/>
+      <c r="C263" s="22"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="25"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="25"/>
+      <c r="A264" s="22"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="25"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="25"/>
+      <c r="A265" s="22"/>
+      <c r="B265" s="22"/>
+      <c r="C265" s="22"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
@@ -5702,10 +5720,10 @@
       <c r="C269" s="23"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="22" t="s">
+      <c r="A270" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="22"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="11" t="s">
         <v>1</v>
       </c>
@@ -5718,16 +5736,16 @@
       <c r="C271" s="23"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="22" t="s">
+      <c r="A272" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B272" s="22"/>
-      <c r="C272" s="22"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="24"/>
     </row>
     <row r="273" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="22"/>
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
+      <c r="A273" s="24"/>
+      <c r="B273" s="24"/>
+      <c r="C273" s="24"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
@@ -5737,19 +5755,19 @@
       <c r="C274" s="23"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="25"/>
-      <c r="B275" s="25"/>
-      <c r="C275" s="25"/>
+      <c r="A275" s="22"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="22"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="25"/>
-      <c r="B276" s="25"/>
-      <c r="C276" s="25"/>
+      <c r="A276" s="22"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="22"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="25"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="25"/>
+      <c r="A277" s="22"/>
+      <c r="B277" s="22"/>
+      <c r="C277" s="22"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -5772,10 +5790,10 @@
       <c r="C280" s="23"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="22" t="s">
+      <c r="A281" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="22"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="11" t="s">
         <v>1</v>
       </c>
@@ -5788,16 +5806,16 @@
       <c r="C282" s="23"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="22" t="s">
+      <c r="A283" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B283" s="22"/>
-      <c r="C283" s="22"/>
+      <c r="B283" s="24"/>
+      <c r="C283" s="24"/>
     </row>
     <row r="284" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="22"/>
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="24"/>
+      <c r="C284" s="24"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
@@ -5807,19 +5825,19 @@
       <c r="C285" s="23"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="25"/>
-      <c r="B286" s="25"/>
-      <c r="C286" s="25"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="22"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="25"/>
-      <c r="B287" s="25"/>
-      <c r="C287" s="25"/>
+      <c r="A287" s="22"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="22"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="25"/>
-      <c r="B288" s="25"/>
-      <c r="C288" s="25"/>
+      <c r="A288" s="22"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="22"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
@@ -5842,10 +5860,10 @@
       <c r="C291" s="23"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="22" t="s">
+      <c r="A292" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="22"/>
+      <c r="B292" s="24"/>
       <c r="C292" s="11" t="s">
         <v>1</v>
       </c>
@@ -5858,16 +5876,16 @@
       <c r="C293" s="23"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="22" t="s">
+      <c r="A294" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B294" s="22"/>
-      <c r="C294" s="22"/>
+      <c r="B294" s="24"/>
+      <c r="C294" s="24"/>
     </row>
     <row r="295" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="22"/>
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
+      <c r="A295" s="24"/>
+      <c r="B295" s="24"/>
+      <c r="C295" s="24"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
@@ -5877,19 +5895,19 @@
       <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="25"/>
-      <c r="B297" s="25"/>
-      <c r="C297" s="25"/>
+      <c r="A297" s="22"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="22"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="25"/>
-      <c r="B298" s="25"/>
-      <c r="C298" s="25"/>
+      <c r="A298" s="22"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="22"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="25"/>
-      <c r="B299" s="25"/>
-      <c r="C299" s="25"/>
+      <c r="A299" s="22"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="22"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
@@ -5912,10 +5930,10 @@
       <c r="C302" s="23"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="22" t="s">
+      <c r="A303" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="22"/>
+      <c r="B303" s="24"/>
       <c r="C303" s="11" t="s">
         <v>1</v>
       </c>
@@ -5928,16 +5946,16 @@
       <c r="C304" s="23"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="22" t="s">
+      <c r="A305" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
+      <c r="B305" s="24"/>
+      <c r="C305" s="24"/>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="22"/>
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
+      <c r="A306" s="24"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="24"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
@@ -5947,19 +5965,19 @@
       <c r="C307" s="23"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="25"/>
-      <c r="B308" s="25"/>
-      <c r="C308" s="25"/>
+      <c r="A308" s="22"/>
+      <c r="B308" s="22"/>
+      <c r="C308" s="22"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="25"/>
-      <c r="B309" s="25"/>
-      <c r="C309" s="25"/>
+      <c r="A309" s="22"/>
+      <c r="B309" s="22"/>
+      <c r="C309" s="22"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="25"/>
-      <c r="B310" s="25"/>
-      <c r="C310" s="25"/>
+      <c r="A310" s="22"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="22"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
@@ -5982,10 +6000,10 @@
       <c r="C313" s="23"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="22" t="s">
+      <c r="A314" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="22"/>
+      <c r="B314" s="24"/>
       <c r="C314" s="11" t="s">
         <v>1</v>
       </c>
@@ -5998,16 +6016,16 @@
       <c r="C315" s="23"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="22" t="s">
+      <c r="A316" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B316" s="22"/>
-      <c r="C316" s="22"/>
+      <c r="B316" s="24"/>
+      <c r="C316" s="24"/>
     </row>
     <row r="317" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="22"/>
-      <c r="B317" s="22"/>
-      <c r="C317" s="22"/>
+      <c r="A317" s="24"/>
+      <c r="B317" s="24"/>
+      <c r="C317" s="24"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
@@ -6017,19 +6035,19 @@
       <c r="C318" s="23"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="25"/>
-      <c r="B319" s="25"/>
-      <c r="C319" s="25"/>
+      <c r="A319" s="22"/>
+      <c r="B319" s="22"/>
+      <c r="C319" s="22"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="25"/>
-      <c r="B320" s="25"/>
-      <c r="C320" s="25"/>
+      <c r="A320" s="22"/>
+      <c r="B320" s="22"/>
+      <c r="C320" s="22"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="25"/>
-      <c r="B321" s="25"/>
-      <c r="C321" s="25"/>
+      <c r="A321" s="22"/>
+      <c r="B321" s="22"/>
+      <c r="C321" s="22"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
@@ -6052,10 +6070,10 @@
       <c r="C324" s="23"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="22" t="s">
+      <c r="A325" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="22"/>
+      <c r="B325" s="24"/>
       <c r="C325" s="11" t="s">
         <v>1</v>
       </c>
@@ -6068,16 +6086,16 @@
       <c r="C326" s="23"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="22" t="s">
+      <c r="A327" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B327" s="22"/>
-      <c r="C327" s="22"/>
+      <c r="B327" s="24"/>
+      <c r="C327" s="24"/>
     </row>
     <row r="328" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="22"/>
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
+      <c r="A328" s="24"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="24"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
@@ -6087,19 +6105,19 @@
       <c r="C329" s="23"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="25"/>
-      <c r="B330" s="25"/>
-      <c r="C330" s="25"/>
+      <c r="A330" s="22"/>
+      <c r="B330" s="22"/>
+      <c r="C330" s="22"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="25"/>
-      <c r="B331" s="25"/>
-      <c r="C331" s="25"/>
+      <c r="A331" s="22"/>
+      <c r="B331" s="22"/>
+      <c r="C331" s="22"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="25"/>
-      <c r="B332" s="25"/>
-      <c r="C332" s="25"/>
+      <c r="A332" s="22"/>
+      <c r="B332" s="22"/>
+      <c r="C332" s="22"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
@@ -6122,10 +6140,10 @@
       <c r="C335" s="23"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="22" t="s">
+      <c r="A336" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="22"/>
+      <c r="B336" s="24"/>
       <c r="C336" s="11" t="s">
         <v>1</v>
       </c>
@@ -6138,16 +6156,16 @@
       <c r="C337" s="23"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="22" t="s">
+      <c r="A338" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B338" s="22"/>
-      <c r="C338" s="22"/>
+      <c r="B338" s="24"/>
+      <c r="C338" s="24"/>
     </row>
     <row r="339" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="22"/>
-      <c r="B339" s="22"/>
-      <c r="C339" s="22"/>
+      <c r="A339" s="24"/>
+      <c r="B339" s="24"/>
+      <c r="C339" s="24"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
@@ -6157,19 +6175,19 @@
       <c r="C340" s="23"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="25"/>
-      <c r="B341" s="25"/>
-      <c r="C341" s="25"/>
+      <c r="A341" s="22"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="22"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="25"/>
-      <c r="B342" s="25"/>
-      <c r="C342" s="25"/>
+      <c r="A342" s="22"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="22"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="25"/>
-      <c r="B343" s="25"/>
-      <c r="C343" s="25"/>
+      <c r="A343" s="22"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="22"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
@@ -6192,10 +6210,10 @@
       <c r="C346" s="23"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="22" t="s">
+      <c r="A347" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B347" s="22"/>
+      <c r="B347" s="24"/>
       <c r="C347" s="11" t="s">
         <v>1</v>
       </c>
@@ -6208,16 +6226,16 @@
       <c r="C348" s="23"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="22" t="s">
+      <c r="A349" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B349" s="22"/>
-      <c r="C349" s="22"/>
+      <c r="B349" s="24"/>
+      <c r="C349" s="24"/>
     </row>
     <row r="350" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="22"/>
-      <c r="B350" s="22"/>
-      <c r="C350" s="22"/>
+      <c r="A350" s="24"/>
+      <c r="B350" s="24"/>
+      <c r="C350" s="24"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
@@ -6227,19 +6245,19 @@
       <c r="C351" s="23"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="25"/>
-      <c r="B352" s="25"/>
-      <c r="C352" s="25"/>
+      <c r="A352" s="22"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="22"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="25"/>
-      <c r="B353" s="25"/>
-      <c r="C353" s="25"/>
+      <c r="A353" s="22"/>
+      <c r="B353" s="22"/>
+      <c r="C353" s="22"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="25"/>
-      <c r="B354" s="25"/>
-      <c r="C354" s="25"/>
+      <c r="A354" s="22"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="22"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
@@ -6262,10 +6280,10 @@
       <c r="C357" s="23"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="22" t="s">
+      <c r="A358" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B358" s="22"/>
+      <c r="B358" s="24"/>
       <c r="C358" s="11" t="s">
         <v>1</v>
       </c>
@@ -6278,16 +6296,16 @@
       <c r="C359" s="23"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="22" t="s">
+      <c r="A360" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B360" s="22"/>
-      <c r="C360" s="22"/>
+      <c r="B360" s="24"/>
+      <c r="C360" s="24"/>
     </row>
     <row r="361" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="22"/>
-      <c r="B361" s="22"/>
-      <c r="C361" s="22"/>
+      <c r="A361" s="24"/>
+      <c r="B361" s="24"/>
+      <c r="C361" s="24"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
@@ -6297,19 +6315,19 @@
       <c r="C362" s="23"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="25"/>
-      <c r="B363" s="25"/>
-      <c r="C363" s="25"/>
+      <c r="A363" s="22"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="22"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="25"/>
-      <c r="B364" s="25"/>
-      <c r="C364" s="25"/>
+      <c r="A364" s="22"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="22"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="25"/>
-      <c r="B365" s="25"/>
-      <c r="C365" s="25"/>
+      <c r="A365" s="22"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="22"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
@@ -6332,10 +6350,10 @@
       <c r="C368" s="23"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="22" t="s">
+      <c r="A369" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="22"/>
+      <c r="B369" s="24"/>
       <c r="C369" s="11" t="s">
         <v>1</v>
       </c>
@@ -6348,16 +6366,16 @@
       <c r="C370" s="23"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="22" t="s">
+      <c r="A371" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B371" s="22"/>
-      <c r="C371" s="22"/>
+      <c r="B371" s="24"/>
+      <c r="C371" s="24"/>
     </row>
     <row r="372" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="22"/>
-      <c r="B372" s="22"/>
-      <c r="C372" s="22"/>
+      <c r="A372" s="24"/>
+      <c r="B372" s="24"/>
+      <c r="C372" s="24"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
@@ -6367,19 +6385,19 @@
       <c r="C373" s="23"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="25"/>
-      <c r="B374" s="25"/>
-      <c r="C374" s="25"/>
+      <c r="A374" s="22"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="22"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="25"/>
-      <c r="B375" s="25"/>
-      <c r="C375" s="25"/>
+      <c r="A375" s="22"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="22"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="25"/>
-      <c r="B376" s="25"/>
-      <c r="C376" s="25"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="22"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
@@ -6402,10 +6420,10 @@
       <c r="C379" s="23"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="22" t="s">
+      <c r="A380" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B380" s="22"/>
+      <c r="B380" s="24"/>
       <c r="C380" s="11" t="s">
         <v>1</v>
       </c>
@@ -6418,16 +6436,16 @@
       <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="22" t="s">
+      <c r="A382" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B382" s="22"/>
-      <c r="C382" s="22"/>
+      <c r="B382" s="24"/>
+      <c r="C382" s="24"/>
     </row>
     <row r="383" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="22"/>
-      <c r="B383" s="22"/>
-      <c r="C383" s="22"/>
+      <c r="A383" s="24"/>
+      <c r="B383" s="24"/>
+      <c r="C383" s="24"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
@@ -6437,19 +6455,19 @@
       <c r="C384" s="23"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="25"/>
-      <c r="B385" s="25"/>
-      <c r="C385" s="25"/>
+      <c r="A385" s="22"/>
+      <c r="B385" s="22"/>
+      <c r="C385" s="22"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="25"/>
-      <c r="B386" s="25"/>
-      <c r="C386" s="25"/>
+      <c r="A386" s="22"/>
+      <c r="B386" s="22"/>
+      <c r="C386" s="22"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="25"/>
-      <c r="B387" s="25"/>
-      <c r="C387" s="25"/>
+      <c r="A387" s="22"/>
+      <c r="B387" s="22"/>
+      <c r="C387" s="22"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
@@ -6472,10 +6490,10 @@
       <c r="C390" s="23"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="22" t="s">
+      <c r="A391" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="22"/>
+      <c r="B391" s="24"/>
       <c r="C391" s="11" t="s">
         <v>1</v>
       </c>
@@ -6488,16 +6506,16 @@
       <c r="C392" s="23"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="22" t="s">
+      <c r="A393" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B393" s="22"/>
-      <c r="C393" s="22"/>
+      <c r="B393" s="24"/>
+      <c r="C393" s="24"/>
     </row>
     <row r="394" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="22"/>
-      <c r="B394" s="22"/>
-      <c r="C394" s="22"/>
+      <c r="A394" s="24"/>
+      <c r="B394" s="24"/>
+      <c r="C394" s="24"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
@@ -6507,19 +6525,19 @@
       <c r="C395" s="23"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="25"/>
-      <c r="B396" s="25"/>
-      <c r="C396" s="25"/>
+      <c r="A396" s="22"/>
+      <c r="B396" s="22"/>
+      <c r="C396" s="22"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="25"/>
-      <c r="B397" s="25"/>
-      <c r="C397" s="25"/>
+      <c r="A397" s="22"/>
+      <c r="B397" s="22"/>
+      <c r="C397" s="22"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="25"/>
-      <c r="B398" s="25"/>
-      <c r="C398" s="25"/>
+      <c r="A398" s="22"/>
+      <c r="B398" s="22"/>
+      <c r="C398" s="22"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
@@ -6542,10 +6560,10 @@
       <c r="C401" s="23"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B402" s="22"/>
+      <c r="B402" s="24"/>
       <c r="C402" s="11" t="s">
         <v>1</v>
       </c>
@@ -6558,16 +6576,16 @@
       <c r="C403" s="23"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="22" t="s">
+      <c r="A404" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B404" s="22"/>
-      <c r="C404" s="22"/>
+      <c r="B404" s="24"/>
+      <c r="C404" s="24"/>
     </row>
     <row r="405" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="22"/>
-      <c r="B405" s="22"/>
-      <c r="C405" s="22"/>
+      <c r="A405" s="24"/>
+      <c r="B405" s="24"/>
+      <c r="C405" s="24"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
@@ -6577,19 +6595,19 @@
       <c r="C406" s="23"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="25"/>
-      <c r="B407" s="25"/>
-      <c r="C407" s="25"/>
+      <c r="A407" s="22"/>
+      <c r="B407" s="22"/>
+      <c r="C407" s="22"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="25"/>
-      <c r="B408" s="25"/>
-      <c r="C408" s="25"/>
+      <c r="A408" s="22"/>
+      <c r="B408" s="22"/>
+      <c r="C408" s="22"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="25"/>
-      <c r="B409" s="25"/>
-      <c r="C409" s="25"/>
+      <c r="A409" s="22"/>
+      <c r="B409" s="22"/>
+      <c r="C409" s="22"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
@@ -6612,10 +6630,10 @@
       <c r="C412" s="23"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="22" t="s">
+      <c r="A413" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B413" s="22"/>
+      <c r="B413" s="24"/>
       <c r="C413" s="11" t="s">
         <v>1</v>
       </c>
@@ -6628,16 +6646,16 @@
       <c r="C414" s="23"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="22" t="s">
+      <c r="A415" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B415" s="22"/>
-      <c r="C415" s="22"/>
+      <c r="B415" s="24"/>
+      <c r="C415" s="24"/>
     </row>
     <row r="416" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="22"/>
-      <c r="B416" s="22"/>
-      <c r="C416" s="22"/>
+      <c r="A416" s="24"/>
+      <c r="B416" s="24"/>
+      <c r="C416" s="24"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
@@ -6647,19 +6665,19 @@
       <c r="C417" s="23"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="25"/>
-      <c r="B418" s="25"/>
-      <c r="C418" s="25"/>
+      <c r="A418" s="22"/>
+      <c r="B418" s="22"/>
+      <c r="C418" s="22"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="25"/>
-      <c r="B419" s="25"/>
-      <c r="C419" s="25"/>
+      <c r="A419" s="22"/>
+      <c r="B419" s="22"/>
+      <c r="C419" s="22"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="25"/>
-      <c r="B420" s="25"/>
-      <c r="C420" s="25"/>
+      <c r="A420" s="22"/>
+      <c r="B420" s="22"/>
+      <c r="C420" s="22"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
@@ -6682,10 +6700,10 @@
       <c r="C423" s="23"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="22" t="s">
+      <c r="A424" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B424" s="22"/>
+      <c r="B424" s="24"/>
       <c r="C424" s="11" t="s">
         <v>1</v>
       </c>
@@ -6698,16 +6716,16 @@
       <c r="C425" s="23"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="22" t="s">
+      <c r="A426" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B426" s="22"/>
-      <c r="C426" s="22"/>
+      <c r="B426" s="24"/>
+      <c r="C426" s="24"/>
     </row>
     <row r="427" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="22"/>
-      <c r="B427" s="22"/>
-      <c r="C427" s="22"/>
+      <c r="A427" s="24"/>
+      <c r="B427" s="24"/>
+      <c r="C427" s="24"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
@@ -6717,19 +6735,19 @@
       <c r="C428" s="23"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="25"/>
-      <c r="B429" s="25"/>
-      <c r="C429" s="25"/>
+      <c r="A429" s="22"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="22"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="25"/>
-      <c r="B430" s="25"/>
-      <c r="C430" s="25"/>
+      <c r="A430" s="22"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="22"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="25"/>
-      <c r="B431" s="25"/>
-      <c r="C431" s="25"/>
+      <c r="A431" s="22"/>
+      <c r="B431" s="22"/>
+      <c r="C431" s="22"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
@@ -6752,10 +6770,10 @@
       <c r="C434" s="23"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="22" t="s">
+      <c r="A435" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B435" s="22"/>
+      <c r="B435" s="24"/>
       <c r="C435" s="11" t="s">
         <v>1</v>
       </c>
@@ -6768,16 +6786,16 @@
       <c r="C436" s="23"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="22" t="s">
+      <c r="A437" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B437" s="22"/>
-      <c r="C437" s="22"/>
+      <c r="B437" s="24"/>
+      <c r="C437" s="24"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="22"/>
-      <c r="B438" s="22"/>
-      <c r="C438" s="22"/>
+      <c r="A438" s="24"/>
+      <c r="B438" s="24"/>
+      <c r="C438" s="24"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
@@ -6787,19 +6805,19 @@
       <c r="C439" s="23"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="25"/>
-      <c r="B440" s="25"/>
-      <c r="C440" s="25"/>
+      <c r="A440" s="22"/>
+      <c r="B440" s="22"/>
+      <c r="C440" s="22"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="25"/>
-      <c r="B441" s="25"/>
-      <c r="C441" s="25"/>
+      <c r="A441" s="22"/>
+      <c r="B441" s="22"/>
+      <c r="C441" s="22"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="25"/>
-      <c r="B442" s="25"/>
-      <c r="C442" s="25"/>
+      <c r="A442" s="22"/>
+      <c r="B442" s="22"/>
+      <c r="C442" s="22"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
@@ -6822,10 +6840,10 @@
       <c r="C445" s="23"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="22" t="s">
+      <c r="A446" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B446" s="22"/>
+      <c r="B446" s="24"/>
       <c r="C446" s="11" t="s">
         <v>1</v>
       </c>
@@ -6838,16 +6856,16 @@
       <c r="C447" s="23"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="22" t="s">
+      <c r="A448" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B448" s="22"/>
-      <c r="C448" s="22"/>
+      <c r="B448" s="24"/>
+      <c r="C448" s="24"/>
     </row>
     <row r="449" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="22"/>
-      <c r="B449" s="22"/>
-      <c r="C449" s="22"/>
+      <c r="A449" s="24"/>
+      <c r="B449" s="24"/>
+      <c r="C449" s="24"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
@@ -6857,19 +6875,19 @@
       <c r="C450" s="23"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="25"/>
-      <c r="B451" s="25"/>
-      <c r="C451" s="25"/>
+      <c r="A451" s="22"/>
+      <c r="B451" s="22"/>
+      <c r="C451" s="22"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="25"/>
-      <c r="B452" s="25"/>
-      <c r="C452" s="25"/>
+      <c r="A452" s="22"/>
+      <c r="B452" s="22"/>
+      <c r="C452" s="22"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="25"/>
-      <c r="B453" s="25"/>
-      <c r="C453" s="25"/>
+      <c r="A453" s="22"/>
+      <c r="B453" s="22"/>
+      <c r="C453" s="22"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
@@ -6892,10 +6910,10 @@
       <c r="C456" s="23"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="22" t="s">
+      <c r="A457" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B457" s="22"/>
+      <c r="B457" s="24"/>
       <c r="C457" s="11" t="s">
         <v>1</v>
       </c>
@@ -6908,16 +6926,16 @@
       <c r="C458" s="23"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="22" t="s">
+      <c r="A459" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B459" s="22"/>
-      <c r="C459" s="22"/>
+      <c r="B459" s="24"/>
+      <c r="C459" s="24"/>
     </row>
     <row r="460" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="22"/>
-      <c r="B460" s="22"/>
-      <c r="C460" s="22"/>
+      <c r="A460" s="24"/>
+      <c r="B460" s="24"/>
+      <c r="C460" s="24"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
@@ -6927,19 +6945,19 @@
       <c r="C461" s="23"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="25"/>
-      <c r="B462" s="25"/>
-      <c r="C462" s="25"/>
+      <c r="A462" s="22"/>
+      <c r="B462" s="22"/>
+      <c r="C462" s="22"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="25"/>
-      <c r="B463" s="25"/>
-      <c r="C463" s="25"/>
+      <c r="A463" s="22"/>
+      <c r="B463" s="22"/>
+      <c r="C463" s="22"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="25"/>
-      <c r="B464" s="25"/>
-      <c r="C464" s="25"/>
+      <c r="A464" s="22"/>
+      <c r="B464" s="22"/>
+      <c r="C464" s="22"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
@@ -6962,10 +6980,10 @@
       <c r="C467" s="23"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="22" t="s">
+      <c r="A468" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B468" s="22"/>
+      <c r="B468" s="24"/>
       <c r="C468" s="11" t="s">
         <v>1</v>
       </c>
@@ -6978,16 +6996,16 @@
       <c r="C469" s="23"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="22" t="s">
+      <c r="A470" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B470" s="22"/>
-      <c r="C470" s="22"/>
+      <c r="B470" s="24"/>
+      <c r="C470" s="24"/>
     </row>
     <row r="471" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="22"/>
-      <c r="B471" s="22"/>
-      <c r="C471" s="22"/>
+      <c r="A471" s="24"/>
+      <c r="B471" s="24"/>
+      <c r="C471" s="24"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
@@ -6997,19 +7015,19 @@
       <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="25"/>
-      <c r="B473" s="25"/>
-      <c r="C473" s="25"/>
+      <c r="A473" s="22"/>
+      <c r="B473" s="22"/>
+      <c r="C473" s="22"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="25"/>
-      <c r="B474" s="25"/>
-      <c r="C474" s="25"/>
+      <c r="A474" s="22"/>
+      <c r="B474" s="22"/>
+      <c r="C474" s="22"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="25"/>
-      <c r="B475" s="25"/>
-      <c r="C475" s="25"/>
+      <c r="A475" s="22"/>
+      <c r="B475" s="22"/>
+      <c r="C475" s="22"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
@@ -7032,10 +7050,10 @@
       <c r="C478" s="23"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="22" t="s">
+      <c r="A479" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B479" s="22"/>
+      <c r="B479" s="24"/>
       <c r="C479" s="11" t="s">
         <v>1</v>
       </c>
@@ -7048,16 +7066,16 @@
       <c r="C480" s="23"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="22" t="s">
+      <c r="A481" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B481" s="22"/>
-      <c r="C481" s="22"/>
+      <c r="B481" s="24"/>
+      <c r="C481" s="24"/>
     </row>
     <row r="482" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="22"/>
-      <c r="B482" s="22"/>
-      <c r="C482" s="22"/>
+      <c r="A482" s="24"/>
+      <c r="B482" s="24"/>
+      <c r="C482" s="24"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
@@ -7067,19 +7085,19 @@
       <c r="C483" s="23"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="25"/>
-      <c r="B484" s="25"/>
-      <c r="C484" s="25"/>
+      <c r="A484" s="22"/>
+      <c r="B484" s="22"/>
+      <c r="C484" s="22"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="25"/>
-      <c r="B485" s="25"/>
-      <c r="C485" s="25"/>
+      <c r="A485" s="22"/>
+      <c r="B485" s="22"/>
+      <c r="C485" s="22"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="25"/>
-      <c r="B486" s="25"/>
-      <c r="C486" s="25"/>
+      <c r="A486" s="22"/>
+      <c r="B486" s="22"/>
+      <c r="C486" s="22"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
@@ -7102,10 +7120,10 @@
       <c r="C489" s="23"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="22" t="s">
+      <c r="A490" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="22"/>
+      <c r="B490" s="24"/>
       <c r="C490" s="11" t="s">
         <v>1</v>
       </c>
@@ -7118,16 +7136,16 @@
       <c r="C491" s="23"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="22" t="s">
+      <c r="A492" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B492" s="22"/>
-      <c r="C492" s="22"/>
+      <c r="B492" s="24"/>
+      <c r="C492" s="24"/>
     </row>
     <row r="493" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="22"/>
-      <c r="B493" s="22"/>
-      <c r="C493" s="22"/>
+      <c r="A493" s="24"/>
+      <c r="B493" s="24"/>
+      <c r="C493" s="24"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
@@ -7137,19 +7155,19 @@
       <c r="C494" s="23"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="25"/>
-      <c r="B495" s="25"/>
-      <c r="C495" s="25"/>
+      <c r="A495" s="22"/>
+      <c r="B495" s="22"/>
+      <c r="C495" s="22"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="25"/>
-      <c r="B496" s="25"/>
-      <c r="C496" s="25"/>
+      <c r="A496" s="22"/>
+      <c r="B496" s="22"/>
+      <c r="C496" s="22"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="25"/>
-      <c r="B497" s="25"/>
-      <c r="C497" s="25"/>
+      <c r="A497" s="22"/>
+      <c r="B497" s="22"/>
+      <c r="C497" s="22"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
@@ -7172,10 +7190,10 @@
       <c r="C500" s="23"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="22" t="s">
+      <c r="A501" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B501" s="22"/>
+      <c r="B501" s="24"/>
       <c r="C501" s="11" t="s">
         <v>1</v>
       </c>
@@ -7188,16 +7206,16 @@
       <c r="C502" s="23"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="22" t="s">
+      <c r="A503" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B503" s="22"/>
-      <c r="C503" s="22"/>
+      <c r="B503" s="24"/>
+      <c r="C503" s="24"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="22"/>
-      <c r="B504" s="22"/>
-      <c r="C504" s="22"/>
+      <c r="A504" s="24"/>
+      <c r="B504" s="24"/>
+      <c r="C504" s="24"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
@@ -7207,19 +7225,19 @@
       <c r="C505" s="23"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="25"/>
-      <c r="B506" s="25"/>
-      <c r="C506" s="25"/>
+      <c r="A506" s="22"/>
+      <c r="B506" s="22"/>
+      <c r="C506" s="22"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="25"/>
-      <c r="B507" s="25"/>
-      <c r="C507" s="25"/>
+      <c r="A507" s="22"/>
+      <c r="B507" s="22"/>
+      <c r="C507" s="22"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="25"/>
-      <c r="B508" s="25"/>
-      <c r="C508" s="25"/>
+      <c r="A508" s="22"/>
+      <c r="B508" s="22"/>
+      <c r="C508" s="22"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -7242,10 +7260,10 @@
       <c r="C511" s="23"/>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="22" t="s">
+      <c r="A512" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B512" s="22"/>
+      <c r="B512" s="24"/>
       <c r="C512" s="11" t="s">
         <v>1</v>
       </c>
@@ -7258,16 +7276,16 @@
       <c r="C513" s="23"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="22" t="s">
+      <c r="A514" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B514" s="22"/>
-      <c r="C514" s="22"/>
+      <c r="B514" s="24"/>
+      <c r="C514" s="24"/>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="22"/>
-      <c r="B515" s="22"/>
-      <c r="C515" s="22"/>
+      <c r="A515" s="24"/>
+      <c r="B515" s="24"/>
+      <c r="C515" s="24"/>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
@@ -7277,19 +7295,19 @@
       <c r="C516" s="23"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="25"/>
-      <c r="B517" s="25"/>
-      <c r="C517" s="25"/>
+      <c r="A517" s="22"/>
+      <c r="B517" s="22"/>
+      <c r="C517" s="22"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="25"/>
-      <c r="B518" s="25"/>
-      <c r="C518" s="25"/>
+      <c r="A518" s="22"/>
+      <c r="B518" s="22"/>
+      <c r="C518" s="22"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="25"/>
-      <c r="B519" s="25"/>
-      <c r="C519" s="25"/>
+      <c r="A519" s="22"/>
+      <c r="B519" s="22"/>
+      <c r="C519" s="22"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
@@ -7298,94 +7316,272 @@
     </row>
   </sheetData>
   <mergeCells count="378">
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C515"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="B511:C511"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A492:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A437:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C449"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C217"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A238:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C250"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C94"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C138"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A360:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
     <mergeCell ref="B390:C390"/>
     <mergeCell ref="A391:B391"/>
     <mergeCell ref="A392:C392"/>
@@ -7410,272 +7606,94 @@
     <mergeCell ref="A386:C386"/>
     <mergeCell ref="A387:C387"/>
     <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A327:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C339"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C138"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C94"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A238:C239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C250"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C217"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A437:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C449"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A492:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C515"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="B511:C511"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7714,10 +7732,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7730,16 +7748,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7749,19 +7767,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7776,60 +7794,60 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -7844,60 +7862,60 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7912,60 +7930,60 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
     </row>
     <row r="40" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -7980,60 +7998,60 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
     </row>
     <row r="50" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
     </row>
     <row r="53" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -8048,60 +8066,60 @@
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -8116,60 +8134,60 @@
       <c r="A68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="42"/>
+      <c r="C68" s="30"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="39"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="30"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="45"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
     </row>
     <row r="72" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -8184,60 +8202,60 @@
       <c r="A80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="42"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="39"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="48"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
     </row>
     <row r="85" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="37"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="33"/>
     </row>
     <row r="87" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -8252,60 +8270,60 @@
       <c r="A91" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="42"/>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="39"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="30"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="39"/>
     </row>
     <row r="95" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="48"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
     </row>
     <row r="96" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="37"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -8320,60 +8338,60 @@
       <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="42"/>
+      <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="39"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="41"/>
-      <c r="C104" s="42"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B105" s="44"/>
-      <c r="C105" s="45"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="39"/>
     </row>
     <row r="106" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="48"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="42"/>
     </row>
     <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="42"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="30"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="37"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="33"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -8388,60 +8406,60 @@
       <c r="A113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="42"/>
+      <c r="C113" s="30"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="39"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="42"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="43" t="s">
+      <c r="A116" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="44"/>
-      <c r="C116" s="45"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="39"/>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="48"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="42"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="42"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="30"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="37"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="33"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -8456,143 +8474,63 @@
       <c r="A124" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="42"/>
+      <c r="C124" s="30"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="42"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="30"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B127" s="44"/>
-      <c r="C127" s="45"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="39"/>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="46"/>
-      <c r="B128" s="47"/>
-      <c r="C128" s="48"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="42"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="42"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="30"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="37"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="33"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C95"/>
-    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A116:C117"/>
     <mergeCell ref="A49:C50"/>
     <mergeCell ref="A51:C51"/>
@@ -8609,6 +8547,86 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
+++ b/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SALVAVIDAS\OneDrive - Eficacia\Mis documentos\EFICACIA\DOROZCO\MINTIC2022\C3-PRG\Proyecto\ProyectoTic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C212D0FE-7C1B-4F26-B562-DB9970AD24A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7A812-4CCE-491B-A8D8-7421562A2C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BACKLOG" sheetId="7" r:id="rId1"/>
@@ -2092,22 +2092,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2128,22 +2128,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2475,6 +2475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,10 +2518,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,10 +2753,10 @@
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
@@ -3004,6 +3006,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -3454,9 +3457,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A60" sqref="A60:C61"/>
     </sheetView>
   </sheetViews>
@@ -3903,16 +3907,16 @@
       <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
@@ -3996,10 +4000,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView topLeftCell="A509" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D517" sqref="D517"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,10 +4029,10 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -4046,16 +4051,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -4094,10 +4099,10 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
@@ -4116,16 +4121,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4164,10 +4169,10 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
@@ -4186,16 +4191,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -4234,10 +4239,10 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -4256,16 +4261,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -4304,10 +4309,10 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
@@ -4326,16 +4331,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
@@ -4934,10 +4939,10 @@
       <c r="A145" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C145" s="23"/>
+      <c r="C145" s="25"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
@@ -4956,16 +4961,16 @@
       <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
@@ -5074,10 +5079,10 @@
       <c r="A167" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C167" s="23"/>
+      <c r="C167" s="25"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="s">
@@ -5364,10 +5369,10 @@
       <c r="A213" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C213" s="23"/>
+      <c r="C213" s="25"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="24" t="s">
@@ -5386,16 +5391,16 @@
       <c r="C215" s="23"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="24" t="s">
+      <c r="A216" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="24"/>
-      <c r="C216" s="24"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="25"/>
     </row>
     <row r="217" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="24"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="24"/>
+      <c r="A217" s="25"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="25"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
@@ -7701,6 +7706,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
@@ -7816,16 +7822,16 @@
       <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
@@ -7884,16 +7890,16 @@
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
@@ -7952,16 +7958,16 @@
       <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
     </row>
     <row r="40" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
@@ -8020,16 +8026,16 @@
       <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
     </row>
     <row r="50" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
@@ -8088,16 +8094,16 @@
       <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
     </row>
     <row r="61" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
@@ -8156,16 +8162,16 @@
       <c r="C70" s="30"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="51"/>
     </row>
     <row r="72" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
@@ -8224,16 +8230,16 @@
       <c r="C82" s="30"/>
     </row>
     <row r="83" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
@@ -8292,16 +8298,16 @@
       <c r="C93" s="30"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="39"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="51"/>
     </row>
     <row r="95" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="42"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
     </row>
     <row r="96" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
@@ -8360,16 +8366,16 @@
       <c r="C104" s="30"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B105" s="38"/>
-      <c r="C105" s="39"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="51"/>
     </row>
     <row r="106" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="42"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="54"/>
     </row>
     <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
@@ -8428,16 +8434,16 @@
       <c r="C115" s="30"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="38"/>
-      <c r="C116" s="39"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="51"/>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="42"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="54"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
@@ -8496,16 +8502,16 @@
       <c r="C126" s="30"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B127" s="38"/>
-      <c r="C127" s="39"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="51"/>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="41"/>
-      <c r="C128" s="42"/>
+      <c r="A128" s="52"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="54"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
@@ -8547,6 +8553,7 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A88:C88"/>
+    <mergeCell ref="B113:C113"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="A115:C115"/>
@@ -8554,21 +8561,25 @@
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="A94:C95"/>
     <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A48:C48"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:C84"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
     <mergeCell ref="A132:C132"/>
     <mergeCell ref="A118:C118"/>
     <mergeCell ref="A119:C119"/>
@@ -8581,32 +8592,27 @@
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A63:C63"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A60:C61"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C28"/>
     <mergeCell ref="A20:C20"/>

--- a/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
+++ b/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SALVAVIDAS\OneDrive - Eficacia\Mis documentos\EFICACIA\DOROZCO\MINTIC2022\C3-PRG\Proyecto\ProyectoTic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7A812-4CCE-491B-A8D8-7421562A2C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE185E-7648-4A85-941E-C23E73A4FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,17 +2047,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2068,11 +2068,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
@@ -2089,7 +2101,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,24 +2127,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2553,10 +2553,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2569,16 +2569,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -2588,19 +2588,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2623,10 +2623,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2639,16 +2639,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -2658,19 +2658,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,10 +2694,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2710,16 +2710,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2729,14 +2729,14 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2753,16 +2753,16 @@
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
@@ -2775,16 +2775,16 @@
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
@@ -2794,19 +2794,19 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2829,10 +2829,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2845,16 +2845,16 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -2864,19 +2864,19 @@
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2899,10 +2899,10 @@
       <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2915,16 +2915,16 @@
       <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
@@ -2934,50 +2934,30 @@
       <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -2989,14 +2969,34 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3041,10 +3041,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3057,16 +3057,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -3076,9 +3076,9 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3101,10 +3101,10 @@
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3131,11 +3131,11 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3145,9 +3145,9 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3167,9 +3167,9 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3197,10 +3197,10 @@
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3213,16 +3213,16 @@
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -3232,29 +3232,29 @@
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3277,10 +3277,10 @@
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="5" t="s">
         <v>1</v>
       </c>
@@ -3293,16 +3293,16 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
@@ -3312,29 +3312,29 @@
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3357,10 +3357,10 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3373,16 +3373,16 @@
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -3392,33 +3392,36 @@
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
@@ -3435,20 +3438,17 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3499,10 +3499,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3515,16 +3515,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="E6" s="19" t="s">
         <v>52</v>
       </c>
@@ -3548,19 +3548,19 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3583,10 +3583,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3599,16 +3599,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -3618,19 +3618,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3653,10 +3653,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3669,16 +3669,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="19" t="s">
         <v>53</v>
       </c>
@@ -3700,19 +3700,19 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3735,10 +3735,10 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
@@ -3751,16 +3751,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -3770,19 +3770,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -3805,10 +3805,10 @@
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3821,16 +3821,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="E50" s="19" t="s">
         <v>54</v>
       </c>
@@ -3844,31 +3844,31 @@
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3885,63 +3885,98 @@
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="E51:H52"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -3958,41 +3993,6 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4003,8 +4003,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:C171"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238:C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,16 +4029,16 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4051,16 +4051,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -4070,19 +4070,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4099,16 +4099,16 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
@@ -4121,16 +4121,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4140,19 +4140,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4169,16 +4169,16 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
@@ -4191,16 +4191,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -4210,19 +4210,19 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4239,16 +4239,16 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
@@ -4261,16 +4261,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -4280,19 +4280,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -4309,16 +4309,16 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
@@ -4331,16 +4331,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
@@ -4350,19 +4350,19 @@
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -4385,10 +4385,10 @@
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
@@ -4401,16 +4401,16 @@
       <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
@@ -4420,19 +4420,19 @@
       <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -4455,10 +4455,10 @@
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
@@ -4471,16 +4471,16 @@
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
@@ -4490,19 +4490,19 @@
       <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -4525,10 +4525,10 @@
       <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="24"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
@@ -4541,16 +4541,16 @@
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
     </row>
     <row r="83" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -4560,19 +4560,19 @@
       <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -4595,10 +4595,10 @@
       <c r="C90" s="23"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4611,16 +4611,16 @@
       <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
     </row>
     <row r="94" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
@@ -4630,19 +4630,19 @@
       <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4665,10 +4665,10 @@
       <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="5" t="s">
         <v>1</v>
       </c>
@@ -4681,16 +4681,16 @@
       <c r="C103" s="23"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
     </row>
     <row r="105" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -4700,19 +4700,19 @@
       <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4735,10 +4735,10 @@
       <c r="C112" s="23"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="24"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
@@ -4751,16 +4751,16 @@
       <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -4770,19 +4770,19 @@
       <c r="C117" s="23"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -4805,10 +4805,10 @@
       <c r="C123" s="23"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="24"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4821,16 +4821,16 @@
       <c r="C125" s="23"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
     </row>
     <row r="127" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
@@ -4840,19 +4840,19 @@
       <c r="C128" s="23"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4875,10 +4875,10 @@
       <c r="C134" s="23"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="24"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="5" t="s">
         <v>1</v>
       </c>
@@ -4891,16 +4891,16 @@
       <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
     </row>
     <row r="138" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
@@ -4910,19 +4910,19 @@
       <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="22"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -4939,16 +4939,16 @@
       <c r="A145" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B145" s="25" t="s">
+      <c r="B145" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C145" s="25"/>
+      <c r="C145" s="24"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="24"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4961,16 +4961,16 @@
       <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
@@ -4980,19 +4980,19 @@
       <c r="C150" s="23"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="22"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="22"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="22"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="22"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -5015,10 +5015,10 @@
       <c r="C156" s="23"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="24"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
@@ -5031,16 +5031,16 @@
       <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="24"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
@@ -5050,19 +5050,19 @@
       <c r="C161" s="23"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="22"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="22"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="22"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="22"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -5079,16 +5079,16 @@
       <c r="A167" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B167" s="25" t="s">
+      <c r="B167" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C167" s="25"/>
+      <c r="C167" s="24"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="24"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="5" t="s">
         <v>1</v>
       </c>
@@ -5120,19 +5120,19 @@
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="22"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="22"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -5155,10 +5155,10 @@
       <c r="C178" s="23"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="24" t="s">
+      <c r="A179" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="24"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="5" t="s">
         <v>1</v>
       </c>
@@ -5171,16 +5171,16 @@
       <c r="C180" s="23"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="24" t="s">
+      <c r="A181" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B181" s="24"/>
-      <c r="C181" s="24"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
     </row>
     <row r="182" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="24"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
@@ -5190,19 +5190,19 @@
       <c r="C183" s="23"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="22"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="22"/>
-      <c r="B185" s="22"/>
-      <c r="C185" s="22"/>
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="22"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -5219,16 +5219,16 @@
       <c r="A189" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C189" s="23"/>
+      <c r="C189" s="24"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="24"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="5" t="s">
         <v>1</v>
       </c>
@@ -5260,19 +5260,19 @@
       <c r="C194" s="23"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
-      <c r="C195" s="22"/>
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="22"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="22"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -5289,16 +5289,16 @@
       <c r="A200" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B200" s="23" t="s">
+      <c r="B200" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C200" s="23"/>
+      <c r="C200" s="24"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="24" t="s">
+      <c r="A201" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="24"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="11" t="s">
         <v>1</v>
       </c>
@@ -5330,29 +5330,29 @@
       <c r="C205" s="23"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="22"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
+      <c r="A206" s="25"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="22"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
+      <c r="A207" s="25"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="25"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="22"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
+      <c r="A208" s="25"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="22"/>
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
+      <c r="A209" s="25"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="22"/>
-      <c r="B210" s="22"/>
-      <c r="C210" s="22"/>
+      <c r="A210" s="25"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="25"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5369,16 +5369,16 @@
       <c r="A213" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B213" s="25" t="s">
+      <c r="B213" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C213" s="25"/>
+      <c r="C213" s="24"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="24"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="5" t="s">
         <v>1</v>
       </c>
@@ -5391,16 +5391,16 @@
       <c r="C215" s="23"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="25"/>
-      <c r="C216" s="25"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="24"/>
     </row>
     <row r="217" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="25"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="25"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
@@ -5410,19 +5410,19 @@
       <c r="C218" s="23"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="22"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="22"/>
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
+      <c r="A220" s="25"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="22"/>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
+      <c r="A221" s="25"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5439,16 +5439,16 @@
       <c r="A224" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B224" s="23" t="s">
+      <c r="B224" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C224" s="23"/>
+      <c r="C224" s="24"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="24" t="s">
+      <c r="A225" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="24"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="5" t="s">
         <v>1</v>
       </c>
@@ -5480,19 +5480,19 @@
       <c r="C229" s="23"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="22"/>
-      <c r="B230" s="22"/>
-      <c r="C230" s="22"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="25"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="22"/>
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="22"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="25"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -5509,16 +5509,16 @@
       <c r="A235" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B235" s="23" t="s">
+      <c r="B235" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C235" s="23"/>
+      <c r="C235" s="24"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="24" t="s">
+      <c r="A236" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="24"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="5" t="s">
         <v>1</v>
       </c>
@@ -5550,19 +5550,19 @@
       <c r="C240" s="23"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="22"/>
-      <c r="B241" s="22"/>
-      <c r="C241" s="22"/>
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="22"/>
-      <c r="B242" s="22"/>
-      <c r="C242" s="22"/>
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="22"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="25"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
@@ -5585,10 +5585,10 @@
       <c r="C246" s="23"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="24" t="s">
+      <c r="A247" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="24"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="5" t="s">
         <v>1</v>
       </c>
@@ -5601,16 +5601,16 @@
       <c r="C248" s="23"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="24" t="s">
+      <c r="A249" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B249" s="24"/>
-      <c r="C249" s="24"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="22"/>
     </row>
     <row r="250" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="24"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="24"/>
+      <c r="A250" s="22"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="22"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
@@ -5620,19 +5620,19 @@
       <c r="C251" s="23"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="22"/>
-      <c r="B252" s="22"/>
-      <c r="C252" s="22"/>
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="25"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="22"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="22"/>
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="25"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
@@ -5655,10 +5655,10 @@
       <c r="C257" s="23"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="24" t="s">
+      <c r="A258" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="24"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="5" t="s">
         <v>1</v>
       </c>
@@ -5671,16 +5671,16 @@
       <c r="C259" s="23"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="24" t="s">
+      <c r="A260" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B260" s="24"/>
-      <c r="C260" s="24"/>
+      <c r="B260" s="22"/>
+      <c r="C260" s="22"/>
     </row>
     <row r="261" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
-      <c r="C261" s="24"/>
+      <c r="A261" s="22"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="22"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
@@ -5690,19 +5690,19 @@
       <c r="C262" s="23"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="22"/>
-      <c r="B263" s="22"/>
-      <c r="C263" s="22"/>
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="22"/>
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="25"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="22"/>
-      <c r="B265" s="22"/>
-      <c r="C265" s="22"/>
+      <c r="A265" s="25"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="25"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
@@ -5725,10 +5725,10 @@
       <c r="C269" s="23"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="24" t="s">
+      <c r="A270" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="24"/>
+      <c r="B270" s="22"/>
       <c r="C270" s="11" t="s">
         <v>1</v>
       </c>
@@ -5741,16 +5741,16 @@
       <c r="C271" s="23"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="24" t="s">
+      <c r="A272" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B272" s="24"/>
-      <c r="C272" s="24"/>
+      <c r="B272" s="22"/>
+      <c r="C272" s="22"/>
     </row>
     <row r="273" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="24"/>
-      <c r="B273" s="24"/>
-      <c r="C273" s="24"/>
+      <c r="A273" s="22"/>
+      <c r="B273" s="22"/>
+      <c r="C273" s="22"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
@@ -5760,19 +5760,19 @@
       <c r="C274" s="23"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="22"/>
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
+      <c r="A275" s="25"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="25"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="22"/>
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
+      <c r="A276" s="25"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="25"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="22"/>
-      <c r="B277" s="22"/>
-      <c r="C277" s="22"/>
+      <c r="A277" s="25"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="25"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -5795,10 +5795,10 @@
       <c r="C280" s="23"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="24" t="s">
+      <c r="A281" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="24"/>
+      <c r="B281" s="22"/>
       <c r="C281" s="11" t="s">
         <v>1</v>
       </c>
@@ -5811,16 +5811,16 @@
       <c r="C282" s="23"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="24" t="s">
+      <c r="A283" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B283" s="24"/>
-      <c r="C283" s="24"/>
+      <c r="B283" s="22"/>
+      <c r="C283" s="22"/>
     </row>
     <row r="284" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="24"/>
-      <c r="B284" s="24"/>
-      <c r="C284" s="24"/>
+      <c r="A284" s="22"/>
+      <c r="B284" s="22"/>
+      <c r="C284" s="22"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
@@ -5830,19 +5830,19 @@
       <c r="C285" s="23"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="22"/>
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
+      <c r="A286" s="25"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="25"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="22"/>
-      <c r="B287" s="22"/>
-      <c r="C287" s="22"/>
+      <c r="A287" s="25"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="25"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="22"/>
-      <c r="B288" s="22"/>
-      <c r="C288" s="22"/>
+      <c r="A288" s="25"/>
+      <c r="B288" s="25"/>
+      <c r="C288" s="25"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
@@ -5865,10 +5865,10 @@
       <c r="C291" s="23"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="24" t="s">
+      <c r="A292" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="24"/>
+      <c r="B292" s="22"/>
       <c r="C292" s="11" t="s">
         <v>1</v>
       </c>
@@ -5881,16 +5881,16 @@
       <c r="C293" s="23"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="24" t="s">
+      <c r="A294" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B294" s="24"/>
-      <c r="C294" s="24"/>
+      <c r="B294" s="22"/>
+      <c r="C294" s="22"/>
     </row>
     <row r="295" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="24"/>
-      <c r="B295" s="24"/>
-      <c r="C295" s="24"/>
+      <c r="A295" s="22"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="22"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
@@ -5900,19 +5900,19 @@
       <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="22"/>
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
+      <c r="A297" s="25"/>
+      <c r="B297" s="25"/>
+      <c r="C297" s="25"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="22"/>
-      <c r="B298" s="22"/>
-      <c r="C298" s="22"/>
+      <c r="A298" s="25"/>
+      <c r="B298" s="25"/>
+      <c r="C298" s="25"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="22"/>
-      <c r="B299" s="22"/>
-      <c r="C299" s="22"/>
+      <c r="A299" s="25"/>
+      <c r="B299" s="25"/>
+      <c r="C299" s="25"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
@@ -5935,10 +5935,10 @@
       <c r="C302" s="23"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="24" t="s">
+      <c r="A303" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="24"/>
+      <c r="B303" s="22"/>
       <c r="C303" s="11" t="s">
         <v>1</v>
       </c>
@@ -5951,16 +5951,16 @@
       <c r="C304" s="23"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="24" t="s">
+      <c r="A305" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B305" s="24"/>
-      <c r="C305" s="24"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="22"/>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="24"/>
-      <c r="B306" s="24"/>
-      <c r="C306" s="24"/>
+      <c r="A306" s="22"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="22"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
@@ -5970,19 +5970,19 @@
       <c r="C307" s="23"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="22"/>
-      <c r="B308" s="22"/>
-      <c r="C308" s="22"/>
+      <c r="A308" s="25"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="25"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="22"/>
-      <c r="B309" s="22"/>
-      <c r="C309" s="22"/>
+      <c r="A309" s="25"/>
+      <c r="B309" s="25"/>
+      <c r="C309" s="25"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="22"/>
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
+      <c r="A310" s="25"/>
+      <c r="B310" s="25"/>
+      <c r="C310" s="25"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
@@ -6005,10 +6005,10 @@
       <c r="C313" s="23"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="24" t="s">
+      <c r="A314" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="24"/>
+      <c r="B314" s="22"/>
       <c r="C314" s="11" t="s">
         <v>1</v>
       </c>
@@ -6021,16 +6021,16 @@
       <c r="C315" s="23"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="24" t="s">
+      <c r="A316" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B316" s="24"/>
-      <c r="C316" s="24"/>
+      <c r="B316" s="22"/>
+      <c r="C316" s="22"/>
     </row>
     <row r="317" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="24"/>
-      <c r="B317" s="24"/>
-      <c r="C317" s="24"/>
+      <c r="A317" s="22"/>
+      <c r="B317" s="22"/>
+      <c r="C317" s="22"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
@@ -6040,19 +6040,19 @@
       <c r="C318" s="23"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="22"/>
-      <c r="B319" s="22"/>
-      <c r="C319" s="22"/>
+      <c r="A319" s="25"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="25"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="22"/>
-      <c r="B320" s="22"/>
-      <c r="C320" s="22"/>
+      <c r="A320" s="25"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="25"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="22"/>
-      <c r="B321" s="22"/>
-      <c r="C321" s="22"/>
+      <c r="A321" s="25"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="25"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
@@ -6075,10 +6075,10 @@
       <c r="C324" s="23"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="24" t="s">
+      <c r="A325" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="24"/>
+      <c r="B325" s="22"/>
       <c r="C325" s="11" t="s">
         <v>1</v>
       </c>
@@ -6091,16 +6091,16 @@
       <c r="C326" s="23"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="24" t="s">
+      <c r="A327" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B327" s="24"/>
-      <c r="C327" s="24"/>
+      <c r="B327" s="22"/>
+      <c r="C327" s="22"/>
     </row>
     <row r="328" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="24"/>
-      <c r="B328" s="24"/>
-      <c r="C328" s="24"/>
+      <c r="A328" s="22"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="22"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
@@ -6110,19 +6110,19 @@
       <c r="C329" s="23"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="22"/>
-      <c r="B330" s="22"/>
-      <c r="C330" s="22"/>
+      <c r="A330" s="25"/>
+      <c r="B330" s="25"/>
+      <c r="C330" s="25"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="22"/>
-      <c r="B331" s="22"/>
-      <c r="C331" s="22"/>
+      <c r="A331" s="25"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="25"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="22"/>
-      <c r="B332" s="22"/>
-      <c r="C332" s="22"/>
+      <c r="A332" s="25"/>
+      <c r="B332" s="25"/>
+      <c r="C332" s="25"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
@@ -6145,10 +6145,10 @@
       <c r="C335" s="23"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="24"/>
+      <c r="B336" s="22"/>
       <c r="C336" s="11" t="s">
         <v>1</v>
       </c>
@@ -6161,16 +6161,16 @@
       <c r="C337" s="23"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="24" t="s">
+      <c r="A338" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B338" s="24"/>
-      <c r="C338" s="24"/>
+      <c r="B338" s="22"/>
+      <c r="C338" s="22"/>
     </row>
     <row r="339" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="24"/>
-      <c r="B339" s="24"/>
-      <c r="C339" s="24"/>
+      <c r="A339" s="22"/>
+      <c r="B339" s="22"/>
+      <c r="C339" s="22"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
@@ -6180,19 +6180,19 @@
       <c r="C340" s="23"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="22"/>
-      <c r="B341" s="22"/>
-      <c r="C341" s="22"/>
+      <c r="A341" s="25"/>
+      <c r="B341" s="25"/>
+      <c r="C341" s="25"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="22"/>
-      <c r="B342" s="22"/>
-      <c r="C342" s="22"/>
+      <c r="A342" s="25"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="25"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="22"/>
-      <c r="B343" s="22"/>
-      <c r="C343" s="22"/>
+      <c r="A343" s="25"/>
+      <c r="B343" s="25"/>
+      <c r="C343" s="25"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
@@ -6215,10 +6215,10 @@
       <c r="C346" s="23"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="24" t="s">
+      <c r="A347" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B347" s="24"/>
+      <c r="B347" s="22"/>
       <c r="C347" s="11" t="s">
         <v>1</v>
       </c>
@@ -6231,16 +6231,16 @@
       <c r="C348" s="23"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="24" t="s">
+      <c r="A349" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B349" s="24"/>
-      <c r="C349" s="24"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="22"/>
     </row>
     <row r="350" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="24"/>
-      <c r="B350" s="24"/>
-      <c r="C350" s="24"/>
+      <c r="A350" s="22"/>
+      <c r="B350" s="22"/>
+      <c r="C350" s="22"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
@@ -6250,19 +6250,19 @@
       <c r="C351" s="23"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="22"/>
-      <c r="B352" s="22"/>
-      <c r="C352" s="22"/>
+      <c r="A352" s="25"/>
+      <c r="B352" s="25"/>
+      <c r="C352" s="25"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="22"/>
-      <c r="B353" s="22"/>
-      <c r="C353" s="22"/>
+      <c r="A353" s="25"/>
+      <c r="B353" s="25"/>
+      <c r="C353" s="25"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="22"/>
-      <c r="B354" s="22"/>
-      <c r="C354" s="22"/>
+      <c r="A354" s="25"/>
+      <c r="B354" s="25"/>
+      <c r="C354" s="25"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
@@ -6285,10 +6285,10 @@
       <c r="C357" s="23"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="24" t="s">
+      <c r="A358" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B358" s="24"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="11" t="s">
         <v>1</v>
       </c>
@@ -6301,16 +6301,16 @@
       <c r="C359" s="23"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="24" t="s">
+      <c r="A360" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B360" s="24"/>
-      <c r="C360" s="24"/>
+      <c r="B360" s="22"/>
+      <c r="C360" s="22"/>
     </row>
     <row r="361" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="24"/>
-      <c r="B361" s="24"/>
-      <c r="C361" s="24"/>
+      <c r="A361" s="22"/>
+      <c r="B361" s="22"/>
+      <c r="C361" s="22"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
@@ -6320,19 +6320,19 @@
       <c r="C362" s="23"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="22"/>
-      <c r="B363" s="22"/>
-      <c r="C363" s="22"/>
+      <c r="A363" s="25"/>
+      <c r="B363" s="25"/>
+      <c r="C363" s="25"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="22"/>
-      <c r="B364" s="22"/>
-      <c r="C364" s="22"/>
+      <c r="A364" s="25"/>
+      <c r="B364" s="25"/>
+      <c r="C364" s="25"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="22"/>
-      <c r="B365" s="22"/>
-      <c r="C365" s="22"/>
+      <c r="A365" s="25"/>
+      <c r="B365" s="25"/>
+      <c r="C365" s="25"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
@@ -6355,10 +6355,10 @@
       <c r="C368" s="23"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="24" t="s">
+      <c r="A369" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="24"/>
+      <c r="B369" s="22"/>
       <c r="C369" s="11" t="s">
         <v>1</v>
       </c>
@@ -6371,16 +6371,16 @@
       <c r="C370" s="23"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="24" t="s">
+      <c r="A371" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B371" s="24"/>
-      <c r="C371" s="24"/>
+      <c r="B371" s="22"/>
+      <c r="C371" s="22"/>
     </row>
     <row r="372" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="24"/>
-      <c r="B372" s="24"/>
-      <c r="C372" s="24"/>
+      <c r="A372" s="22"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="22"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
@@ -6390,19 +6390,19 @@
       <c r="C373" s="23"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="22"/>
-      <c r="B374" s="22"/>
-      <c r="C374" s="22"/>
+      <c r="A374" s="25"/>
+      <c r="B374" s="25"/>
+      <c r="C374" s="25"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="22"/>
-      <c r="B375" s="22"/>
-      <c r="C375" s="22"/>
+      <c r="A375" s="25"/>
+      <c r="B375" s="25"/>
+      <c r="C375" s="25"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="22"/>
-      <c r="B376" s="22"/>
-      <c r="C376" s="22"/>
+      <c r="A376" s="25"/>
+      <c r="B376" s="25"/>
+      <c r="C376" s="25"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
@@ -6425,10 +6425,10 @@
       <c r="C379" s="23"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="24" t="s">
+      <c r="A380" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B380" s="24"/>
+      <c r="B380" s="22"/>
       <c r="C380" s="11" t="s">
         <v>1</v>
       </c>
@@ -6441,16 +6441,16 @@
       <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="24" t="s">
+      <c r="A382" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B382" s="24"/>
-      <c r="C382" s="24"/>
+      <c r="B382" s="22"/>
+      <c r="C382" s="22"/>
     </row>
     <row r="383" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="24"/>
-      <c r="B383" s="24"/>
-      <c r="C383" s="24"/>
+      <c r="A383" s="22"/>
+      <c r="B383" s="22"/>
+      <c r="C383" s="22"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
@@ -6460,19 +6460,19 @@
       <c r="C384" s="23"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="22"/>
-      <c r="B385" s="22"/>
-      <c r="C385" s="22"/>
+      <c r="A385" s="25"/>
+      <c r="B385" s="25"/>
+      <c r="C385" s="25"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="22"/>
-      <c r="B386" s="22"/>
-      <c r="C386" s="22"/>
+      <c r="A386" s="25"/>
+      <c r="B386" s="25"/>
+      <c r="C386" s="25"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="22"/>
-      <c r="B387" s="22"/>
-      <c r="C387" s="22"/>
+      <c r="A387" s="25"/>
+      <c r="B387" s="25"/>
+      <c r="C387" s="25"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
@@ -6495,10 +6495,10 @@
       <c r="C390" s="23"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="24" t="s">
+      <c r="A391" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="24"/>
+      <c r="B391" s="22"/>
       <c r="C391" s="11" t="s">
         <v>1</v>
       </c>
@@ -6511,16 +6511,16 @@
       <c r="C392" s="23"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="24" t="s">
+      <c r="A393" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B393" s="24"/>
-      <c r="C393" s="24"/>
+      <c r="B393" s="22"/>
+      <c r="C393" s="22"/>
     </row>
     <row r="394" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="24"/>
-      <c r="B394" s="24"/>
-      <c r="C394" s="24"/>
+      <c r="A394" s="22"/>
+      <c r="B394" s="22"/>
+      <c r="C394" s="22"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
@@ -6530,19 +6530,19 @@
       <c r="C395" s="23"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="22"/>
-      <c r="B396" s="22"/>
-      <c r="C396" s="22"/>
+      <c r="A396" s="25"/>
+      <c r="B396" s="25"/>
+      <c r="C396" s="25"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="22"/>
-      <c r="B397" s="22"/>
-      <c r="C397" s="22"/>
+      <c r="A397" s="25"/>
+      <c r="B397" s="25"/>
+      <c r="C397" s="25"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="22"/>
-      <c r="B398" s="22"/>
-      <c r="C398" s="22"/>
+      <c r="A398" s="25"/>
+      <c r="B398" s="25"/>
+      <c r="C398" s="25"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
@@ -6565,10 +6565,10 @@
       <c r="C401" s="23"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="24" t="s">
+      <c r="A402" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B402" s="24"/>
+      <c r="B402" s="22"/>
       <c r="C402" s="11" t="s">
         <v>1</v>
       </c>
@@ -6581,16 +6581,16 @@
       <c r="C403" s="23"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="24" t="s">
+      <c r="A404" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B404" s="24"/>
-      <c r="C404" s="24"/>
+      <c r="B404" s="22"/>
+      <c r="C404" s="22"/>
     </row>
     <row r="405" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="24"/>
-      <c r="B405" s="24"/>
-      <c r="C405" s="24"/>
+      <c r="A405" s="22"/>
+      <c r="B405" s="22"/>
+      <c r="C405" s="22"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
@@ -6600,19 +6600,19 @@
       <c r="C406" s="23"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="22"/>
-      <c r="B407" s="22"/>
-      <c r="C407" s="22"/>
+      <c r="A407" s="25"/>
+      <c r="B407" s="25"/>
+      <c r="C407" s="25"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="22"/>
-      <c r="B408" s="22"/>
-      <c r="C408" s="22"/>
+      <c r="A408" s="25"/>
+      <c r="B408" s="25"/>
+      <c r="C408" s="25"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="22"/>
-      <c r="B409" s="22"/>
-      <c r="C409" s="22"/>
+      <c r="A409" s="25"/>
+      <c r="B409" s="25"/>
+      <c r="C409" s="25"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
@@ -6635,10 +6635,10 @@
       <c r="C412" s="23"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="24" t="s">
+      <c r="A413" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B413" s="24"/>
+      <c r="B413" s="22"/>
       <c r="C413" s="11" t="s">
         <v>1</v>
       </c>
@@ -6651,16 +6651,16 @@
       <c r="C414" s="23"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="24" t="s">
+      <c r="A415" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B415" s="24"/>
-      <c r="C415" s="24"/>
+      <c r="B415" s="22"/>
+      <c r="C415" s="22"/>
     </row>
     <row r="416" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="24"/>
-      <c r="B416" s="24"/>
-      <c r="C416" s="24"/>
+      <c r="A416" s="22"/>
+      <c r="B416" s="22"/>
+      <c r="C416" s="22"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
@@ -6670,19 +6670,19 @@
       <c r="C417" s="23"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="22"/>
-      <c r="B418" s="22"/>
-      <c r="C418" s="22"/>
+      <c r="A418" s="25"/>
+      <c r="B418" s="25"/>
+      <c r="C418" s="25"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="22"/>
-      <c r="B419" s="22"/>
-      <c r="C419" s="22"/>
+      <c r="A419" s="25"/>
+      <c r="B419" s="25"/>
+      <c r="C419" s="25"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="22"/>
-      <c r="B420" s="22"/>
-      <c r="C420" s="22"/>
+      <c r="A420" s="25"/>
+      <c r="B420" s="25"/>
+      <c r="C420" s="25"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
@@ -6705,10 +6705,10 @@
       <c r="C423" s="23"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="24" t="s">
+      <c r="A424" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B424" s="24"/>
+      <c r="B424" s="22"/>
       <c r="C424" s="11" t="s">
         <v>1</v>
       </c>
@@ -6721,16 +6721,16 @@
       <c r="C425" s="23"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="24" t="s">
+      <c r="A426" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B426" s="24"/>
-      <c r="C426" s="24"/>
+      <c r="B426" s="22"/>
+      <c r="C426" s="22"/>
     </row>
     <row r="427" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="24"/>
-      <c r="B427" s="24"/>
-      <c r="C427" s="24"/>
+      <c r="A427" s="22"/>
+      <c r="B427" s="22"/>
+      <c r="C427" s="22"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
@@ -6740,19 +6740,19 @@
       <c r="C428" s="23"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="22"/>
-      <c r="B429" s="22"/>
-      <c r="C429" s="22"/>
+      <c r="A429" s="25"/>
+      <c r="B429" s="25"/>
+      <c r="C429" s="25"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="22"/>
-      <c r="B430" s="22"/>
-      <c r="C430" s="22"/>
+      <c r="A430" s="25"/>
+      <c r="B430" s="25"/>
+      <c r="C430" s="25"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="22"/>
-      <c r="B431" s="22"/>
-      <c r="C431" s="22"/>
+      <c r="A431" s="25"/>
+      <c r="B431" s="25"/>
+      <c r="C431" s="25"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
@@ -6775,10 +6775,10 @@
       <c r="C434" s="23"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="24" t="s">
+      <c r="A435" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B435" s="24"/>
+      <c r="B435" s="22"/>
       <c r="C435" s="11" t="s">
         <v>1</v>
       </c>
@@ -6791,16 +6791,16 @@
       <c r="C436" s="23"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="24" t="s">
+      <c r="A437" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B437" s="24"/>
-      <c r="C437" s="24"/>
+      <c r="B437" s="22"/>
+      <c r="C437" s="22"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="24"/>
-      <c r="B438" s="24"/>
-      <c r="C438" s="24"/>
+      <c r="A438" s="22"/>
+      <c r="B438" s="22"/>
+      <c r="C438" s="22"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
@@ -6810,19 +6810,19 @@
       <c r="C439" s="23"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="22"/>
-      <c r="B440" s="22"/>
-      <c r="C440" s="22"/>
+      <c r="A440" s="25"/>
+      <c r="B440" s="25"/>
+      <c r="C440" s="25"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="22"/>
-      <c r="B441" s="22"/>
-      <c r="C441" s="22"/>
+      <c r="A441" s="25"/>
+      <c r="B441" s="25"/>
+      <c r="C441" s="25"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="22"/>
-      <c r="B442" s="22"/>
-      <c r="C442" s="22"/>
+      <c r="A442" s="25"/>
+      <c r="B442" s="25"/>
+      <c r="C442" s="25"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
@@ -6845,10 +6845,10 @@
       <c r="C445" s="23"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="24" t="s">
+      <c r="A446" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B446" s="24"/>
+      <c r="B446" s="22"/>
       <c r="C446" s="11" t="s">
         <v>1</v>
       </c>
@@ -6861,16 +6861,16 @@
       <c r="C447" s="23"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="24" t="s">
+      <c r="A448" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B448" s="24"/>
-      <c r="C448" s="24"/>
+      <c r="B448" s="22"/>
+      <c r="C448" s="22"/>
     </row>
     <row r="449" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="24"/>
-      <c r="B449" s="24"/>
-      <c r="C449" s="24"/>
+      <c r="A449" s="22"/>
+      <c r="B449" s="22"/>
+      <c r="C449" s="22"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
@@ -6880,19 +6880,19 @@
       <c r="C450" s="23"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="22"/>
-      <c r="B451" s="22"/>
-      <c r="C451" s="22"/>
+      <c r="A451" s="25"/>
+      <c r="B451" s="25"/>
+      <c r="C451" s="25"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="22"/>
-      <c r="B452" s="22"/>
-      <c r="C452" s="22"/>
+      <c r="A452" s="25"/>
+      <c r="B452" s="25"/>
+      <c r="C452" s="25"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="22"/>
-      <c r="B453" s="22"/>
-      <c r="C453" s="22"/>
+      <c r="A453" s="25"/>
+      <c r="B453" s="25"/>
+      <c r="C453" s="25"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
@@ -6915,10 +6915,10 @@
       <c r="C456" s="23"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="24" t="s">
+      <c r="A457" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B457" s="24"/>
+      <c r="B457" s="22"/>
       <c r="C457" s="11" t="s">
         <v>1</v>
       </c>
@@ -6931,16 +6931,16 @@
       <c r="C458" s="23"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="24" t="s">
+      <c r="A459" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B459" s="24"/>
-      <c r="C459" s="24"/>
+      <c r="B459" s="22"/>
+      <c r="C459" s="22"/>
     </row>
     <row r="460" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="24"/>
-      <c r="B460" s="24"/>
-      <c r="C460" s="24"/>
+      <c r="A460" s="22"/>
+      <c r="B460" s="22"/>
+      <c r="C460" s="22"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
@@ -6950,19 +6950,19 @@
       <c r="C461" s="23"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="22"/>
-      <c r="B462" s="22"/>
-      <c r="C462" s="22"/>
+      <c r="A462" s="25"/>
+      <c r="B462" s="25"/>
+      <c r="C462" s="25"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="22"/>
-      <c r="B463" s="22"/>
-      <c r="C463" s="22"/>
+      <c r="A463" s="25"/>
+      <c r="B463" s="25"/>
+      <c r="C463" s="25"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="22"/>
-      <c r="B464" s="22"/>
-      <c r="C464" s="22"/>
+      <c r="A464" s="25"/>
+      <c r="B464" s="25"/>
+      <c r="C464" s="25"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
@@ -6985,10 +6985,10 @@
       <c r="C467" s="23"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="24" t="s">
+      <c r="A468" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B468" s="24"/>
+      <c r="B468" s="22"/>
       <c r="C468" s="11" t="s">
         <v>1</v>
       </c>
@@ -7001,16 +7001,16 @@
       <c r="C469" s="23"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="24" t="s">
+      <c r="A470" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B470" s="24"/>
-      <c r="C470" s="24"/>
+      <c r="B470" s="22"/>
+      <c r="C470" s="22"/>
     </row>
     <row r="471" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="24"/>
-      <c r="B471" s="24"/>
-      <c r="C471" s="24"/>
+      <c r="A471" s="22"/>
+      <c r="B471" s="22"/>
+      <c r="C471" s="22"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
@@ -7020,19 +7020,19 @@
       <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="22"/>
-      <c r="B473" s="22"/>
-      <c r="C473" s="22"/>
+      <c r="A473" s="25"/>
+      <c r="B473" s="25"/>
+      <c r="C473" s="25"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="22"/>
-      <c r="B474" s="22"/>
-      <c r="C474" s="22"/>
+      <c r="A474" s="25"/>
+      <c r="B474" s="25"/>
+      <c r="C474" s="25"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="22"/>
-      <c r="B475" s="22"/>
-      <c r="C475" s="22"/>
+      <c r="A475" s="25"/>
+      <c r="B475" s="25"/>
+      <c r="C475" s="25"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
@@ -7055,10 +7055,10 @@
       <c r="C478" s="23"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="24" t="s">
+      <c r="A479" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B479" s="24"/>
+      <c r="B479" s="22"/>
       <c r="C479" s="11" t="s">
         <v>1</v>
       </c>
@@ -7071,16 +7071,16 @@
       <c r="C480" s="23"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="24" t="s">
+      <c r="A481" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B481" s="24"/>
-      <c r="C481" s="24"/>
+      <c r="B481" s="22"/>
+      <c r="C481" s="22"/>
     </row>
     <row r="482" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="24"/>
-      <c r="B482" s="24"/>
-      <c r="C482" s="24"/>
+      <c r="A482" s="22"/>
+      <c r="B482" s="22"/>
+      <c r="C482" s="22"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
@@ -7090,19 +7090,19 @@
       <c r="C483" s="23"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="22"/>
-      <c r="B484" s="22"/>
-      <c r="C484" s="22"/>
+      <c r="A484" s="25"/>
+      <c r="B484" s="25"/>
+      <c r="C484" s="25"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="22"/>
-      <c r="B485" s="22"/>
-      <c r="C485" s="22"/>
+      <c r="A485" s="25"/>
+      <c r="B485" s="25"/>
+      <c r="C485" s="25"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="22"/>
-      <c r="B486" s="22"/>
-      <c r="C486" s="22"/>
+      <c r="A486" s="25"/>
+      <c r="B486" s="25"/>
+      <c r="C486" s="25"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
@@ -7125,10 +7125,10 @@
       <c r="C489" s="23"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="24" t="s">
+      <c r="A490" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="24"/>
+      <c r="B490" s="22"/>
       <c r="C490" s="11" t="s">
         <v>1</v>
       </c>
@@ -7141,16 +7141,16 @@
       <c r="C491" s="23"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="24" t="s">
+      <c r="A492" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B492" s="24"/>
-      <c r="C492" s="24"/>
+      <c r="B492" s="22"/>
+      <c r="C492" s="22"/>
     </row>
     <row r="493" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="24"/>
-      <c r="B493" s="24"/>
-      <c r="C493" s="24"/>
+      <c r="A493" s="22"/>
+      <c r="B493" s="22"/>
+      <c r="C493" s="22"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
@@ -7160,19 +7160,19 @@
       <c r="C494" s="23"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="22"/>
-      <c r="B495" s="22"/>
-      <c r="C495" s="22"/>
+      <c r="A495" s="25"/>
+      <c r="B495" s="25"/>
+      <c r="C495" s="25"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="22"/>
-      <c r="B496" s="22"/>
-      <c r="C496" s="22"/>
+      <c r="A496" s="25"/>
+      <c r="B496" s="25"/>
+      <c r="C496" s="25"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="22"/>
-      <c r="B497" s="22"/>
-      <c r="C497" s="22"/>
+      <c r="A497" s="25"/>
+      <c r="B497" s="25"/>
+      <c r="C497" s="25"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
@@ -7195,10 +7195,10 @@
       <c r="C500" s="23"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="24" t="s">
+      <c r="A501" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B501" s="24"/>
+      <c r="B501" s="22"/>
       <c r="C501" s="11" t="s">
         <v>1</v>
       </c>
@@ -7211,16 +7211,16 @@
       <c r="C502" s="23"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="24" t="s">
+      <c r="A503" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B503" s="24"/>
-      <c r="C503" s="24"/>
+      <c r="B503" s="22"/>
+      <c r="C503" s="22"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="24"/>
-      <c r="B504" s="24"/>
-      <c r="C504" s="24"/>
+      <c r="A504" s="22"/>
+      <c r="B504" s="22"/>
+      <c r="C504" s="22"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
@@ -7230,19 +7230,19 @@
       <c r="C505" s="23"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="22"/>
-      <c r="B506" s="22"/>
-      <c r="C506" s="22"/>
+      <c r="A506" s="25"/>
+      <c r="B506" s="25"/>
+      <c r="C506" s="25"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="22"/>
-      <c r="B507" s="22"/>
-      <c r="C507" s="22"/>
+      <c r="A507" s="25"/>
+      <c r="B507" s="25"/>
+      <c r="C507" s="25"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="22"/>
-      <c r="B508" s="22"/>
-      <c r="C508" s="22"/>
+      <c r="A508" s="25"/>
+      <c r="B508" s="25"/>
+      <c r="C508" s="25"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -7265,10 +7265,10 @@
       <c r="C511" s="23"/>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="24" t="s">
+      <c r="A512" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B512" s="24"/>
+      <c r="B512" s="22"/>
       <c r="C512" s="11" t="s">
         <v>1</v>
       </c>
@@ -7281,16 +7281,16 @@
       <c r="C513" s="23"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="24" t="s">
+      <c r="A514" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B514" s="24"/>
-      <c r="C514" s="24"/>
+      <c r="B514" s="22"/>
+      <c r="C514" s="22"/>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="24"/>
-      <c r="B515" s="24"/>
-      <c r="C515" s="24"/>
+      <c r="A515" s="22"/>
+      <c r="B515" s="22"/>
+      <c r="C515" s="22"/>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
@@ -7300,19 +7300,19 @@
       <c r="C516" s="23"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="22"/>
-      <c r="B517" s="22"/>
-      <c r="C517" s="22"/>
+      <c r="A517" s="25"/>
+      <c r="B517" s="25"/>
+      <c r="C517" s="25"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="22"/>
-      <c r="B518" s="22"/>
-      <c r="C518" s="22"/>
+      <c r="A518" s="25"/>
+      <c r="B518" s="25"/>
+      <c r="C518" s="25"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="22"/>
-      <c r="B519" s="22"/>
-      <c r="C519" s="22"/>
+      <c r="A519" s="25"/>
+      <c r="B519" s="25"/>
+      <c r="C519" s="25"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
@@ -7321,35 +7321,331 @@
     </row>
   </sheetData>
   <mergeCells count="378">
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C217"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C515"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A492:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A437:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C449"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A393:C394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A398:C398"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A382:C383"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A360:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A327:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C339"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C138"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C94"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:C37"/>
@@ -7374,331 +7670,35 @@
     <mergeCell ref="A220:C220"/>
     <mergeCell ref="A221:C221"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C94"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C138"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="A391:B391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A393:C394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A398:C398"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A382:C383"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A437:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C449"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A492:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C515"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C217"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7738,10 +7738,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7754,16 +7754,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7773,19 +7773,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7800,26 +7800,26 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
@@ -7834,26 +7834,26 @@
       <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -7868,26 +7868,26 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
@@ -7902,26 +7902,26 @@
       <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7936,26 +7936,26 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
@@ -7970,26 +7970,26 @@
       <c r="C39" s="54"/>
     </row>
     <row r="40" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -8004,26 +8004,26 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
     </row>
     <row r="49" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
@@ -8038,26 +8038,26 @@
       <c r="C50" s="54"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -8072,26 +8072,26 @@
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="42"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
@@ -8106,26 +8106,26 @@
       <c r="C61" s="54"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -8140,26 +8140,26 @@
       <c r="A68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="30"/>
+      <c r="C68" s="42"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="35"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
@@ -8174,26 +8174,26 @@
       <c r="C72" s="54"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="30"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -8208,26 +8208,26 @@
       <c r="A80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="30"/>
+      <c r="C80" s="42"/>
     </row>
     <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="35"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="30"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
     </row>
     <row r="83" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
@@ -8242,26 +8242,26 @@
       <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="30"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
     </row>
     <row r="87" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -8276,26 +8276,26 @@
       <c r="A91" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="30"/>
+      <c r="C91" s="42"/>
     </row>
     <row r="92" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="35"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="30"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
@@ -8310,26 +8310,26 @@
       <c r="C95" s="54"/>
     </row>
     <row r="96" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="30"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="33"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -8344,26 +8344,26 @@
       <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="30"/>
+      <c r="C102" s="42"/>
     </row>
     <row r="103" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="35"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="30"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
@@ -8378,26 +8378,26 @@
       <c r="C106" s="54"/>
     </row>
     <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="36"/>
-      <c r="C107" s="30"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="33"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -8412,26 +8412,26 @@
       <c r="A113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="30"/>
+      <c r="C113" s="42"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="35"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="30"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="42"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="49" t="s">
@@ -8446,26 +8446,26 @@
       <c r="C117" s="54"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="30"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="42"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="33"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="37"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -8480,26 +8480,26 @@
       <c r="A124" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="30"/>
+      <c r="C124" s="42"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="35"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="36"/>
-      <c r="C126" s="30"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
@@ -8514,29 +8514,109 @@
       <c r="C128" s="54"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="36"/>
-      <c r="C129" s="30"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="42"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="33"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="37"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C95"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A116:C117"/>
     <mergeCell ref="A49:C50"/>
     <mergeCell ref="A51:C51"/>
@@ -8553,86 +8633,6 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A88:C88"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C84"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
+++ b/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SALVAVIDAS\OneDrive - Eficacia\Mis documentos\EFICACIA\DOROZCO\MINTIC2022\C3-PRG\Proyecto\ProyectoTic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mintic\ProyectoTic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE185E-7648-4A85-941E-C23E73A4FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4C1D8-53A1-489F-B2B2-E82A22FDCE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,17 +2047,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2068,23 +2068,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
@@ -2101,13 +2089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2127,6 +2109,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2553,10 +2553,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2569,16 +2569,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -2588,19 +2588,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2623,10 +2623,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2639,16 +2639,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -2658,19 +2658,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,10 +2694,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2710,16 +2710,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2729,14 +2729,14 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2753,16 +2753,16 @@
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
@@ -2775,16 +2775,16 @@
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
@@ -2794,19 +2794,19 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2829,10 +2829,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2845,16 +2845,16 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -2864,19 +2864,19 @@
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2899,10 +2899,10 @@
       <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2915,16 +2915,16 @@
       <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
@@ -2934,30 +2934,50 @@
       <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C38"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -2969,34 +2989,14 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="A61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3041,10 +3041,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3057,16 +3057,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -3076,9 +3076,9 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3101,10 +3101,10 @@
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3131,11 +3131,11 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="E14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3145,9 +3145,9 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3167,9 +3167,9 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3197,10 +3197,10 @@
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3213,16 +3213,16 @@
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -3232,29 +3232,29 @@
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3277,10 +3277,10 @@
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>1</v>
       </c>
@@ -3293,16 +3293,16 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
@@ -3312,29 +3312,29 @@
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3357,10 +3357,10 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3373,16 +3373,16 @@
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -3392,36 +3392,33 @@
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
@@ -3438,17 +3435,20 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3499,10 +3499,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3515,16 +3515,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="E6" s="19" t="s">
         <v>52</v>
       </c>
@@ -3548,19 +3548,19 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3583,10 +3583,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3599,16 +3599,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -3618,19 +3618,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3653,10 +3653,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3669,16 +3669,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="E28" s="19" t="s">
         <v>53</v>
       </c>
@@ -3700,19 +3700,19 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3735,10 +3735,10 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
@@ -3751,16 +3751,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -3770,19 +3770,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -3805,10 +3805,10 @@
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3821,16 +3821,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="E50" s="19" t="s">
         <v>54</v>
       </c>
@@ -3844,31 +3844,31 @@
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3885,70 +3885,91 @@
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A15:C15"/>
@@ -3965,34 +3986,13 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4003,8 +4003,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238:C239"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E493" sqref="E493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,16 +4029,16 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4051,16 +4051,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -4070,19 +4070,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4099,16 +4099,16 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
@@ -4121,16 +4121,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4140,19 +4140,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4169,16 +4169,16 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
@@ -4191,16 +4191,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -4210,19 +4210,19 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4239,16 +4239,16 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
@@ -4261,16 +4261,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -4280,19 +4280,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -4309,16 +4309,16 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
@@ -4331,16 +4331,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
@@ -4350,19 +4350,19 @@
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -4385,10 +4385,10 @@
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
@@ -4401,16 +4401,16 @@
       <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
@@ -4420,19 +4420,19 @@
       <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -4455,10 +4455,10 @@
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="22"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
@@ -4471,16 +4471,16 @@
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
@@ -4490,19 +4490,19 @@
       <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -4525,10 +4525,10 @@
       <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="22"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
@@ -4541,16 +4541,16 @@
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
     </row>
     <row r="83" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -4560,19 +4560,19 @@
       <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -4595,10 +4595,10 @@
       <c r="C90" s="23"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="22"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4611,16 +4611,16 @@
       <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
     </row>
     <row r="94" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
@@ -4630,19 +4630,19 @@
       <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4665,10 +4665,10 @@
       <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="22"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="5" t="s">
         <v>1</v>
       </c>
@@ -4681,16 +4681,16 @@
       <c r="C103" s="23"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
     </row>
     <row r="105" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -4700,19 +4700,19 @@
       <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4735,10 +4735,10 @@
       <c r="C112" s="23"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="22"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
@@ -4751,16 +4751,16 @@
       <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -4770,19 +4770,19 @@
       <c r="C117" s="23"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -4805,10 +4805,10 @@
       <c r="C123" s="23"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="22"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4821,16 +4821,16 @@
       <c r="C125" s="23"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
     </row>
     <row r="127" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
@@ -4840,19 +4840,19 @@
       <c r="C128" s="23"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4875,10 +4875,10 @@
       <c r="C134" s="23"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="22"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="5" t="s">
         <v>1</v>
       </c>
@@ -4891,16 +4891,16 @@
       <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
     </row>
     <row r="138" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
@@ -4910,19 +4910,19 @@
       <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -4939,16 +4939,16 @@
       <c r="A145" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="B145" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C145" s="24"/>
+      <c r="C145" s="25"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="22"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4961,16 +4961,16 @@
       <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
@@ -4980,19 +4980,19 @@
       <c r="C150" s="23"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="25"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="25"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="25"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -5015,10 +5015,10 @@
       <c r="C156" s="23"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="22" t="s">
+      <c r="A157" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="22"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
@@ -5031,16 +5031,16 @@
       <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="22" t="s">
+      <c r="A159" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
@@ -5050,19 +5050,19 @@
       <c r="C161" s="23"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="25"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="25"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -5079,16 +5079,16 @@
       <c r="A167" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B167" s="24" t="s">
+      <c r="B167" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C167" s="24"/>
+      <c r="C167" s="25"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="22" t="s">
+      <c r="A168" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="22"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="5" t="s">
         <v>1</v>
       </c>
@@ -5101,16 +5101,16 @@
       <c r="C169" s="23"/>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="24" t="s">
+      <c r="A170" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
     </row>
     <row r="171" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
@@ -5120,19 +5120,19 @@
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="25"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="25"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -5155,10 +5155,10 @@
       <c r="C178" s="23"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="22" t="s">
+      <c r="A179" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="22"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="5" t="s">
         <v>1</v>
       </c>
@@ -5171,16 +5171,16 @@
       <c r="C180" s="23"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
+      <c r="A181" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
     </row>
     <row r="182" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="22"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
@@ -5190,19 +5190,19 @@
       <c r="C183" s="23"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="25"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="25"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -5219,16 +5219,16 @@
       <c r="A189" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B189" s="24" t="s">
+      <c r="B189" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C189" s="24"/>
+      <c r="C189" s="25"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="22"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="5" t="s">
         <v>1</v>
       </c>
@@ -5241,16 +5241,16 @@
       <c r="C191" s="23"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="24" t="s">
+      <c r="A192" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25"/>
     </row>
     <row r="193" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
@@ -5260,19 +5260,19 @@
       <c r="C194" s="23"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="25"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="25"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="25"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="25"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -5289,16 +5289,16 @@
       <c r="A200" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C200" s="24"/>
+      <c r="C200" s="25"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
+      <c r="A201" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="22"/>
+      <c r="B201" s="24"/>
       <c r="C201" s="11" t="s">
         <v>1</v>
       </c>
@@ -5311,16 +5311,16 @@
       <c r="C202" s="23"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25"/>
     </row>
     <row r="204" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="24"/>
+      <c r="A204" s="25"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="25"/>
     </row>
     <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
@@ -5330,29 +5330,29 @@
       <c r="C205" s="23"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="25"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="25"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="25"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="25"/>
+      <c r="A210" s="22"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5369,16 +5369,16 @@
       <c r="A213" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B213" s="24" t="s">
+      <c r="B213" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C213" s="24"/>
+      <c r="C213" s="25"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="22" t="s">
+      <c r="A214" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="22"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="5" t="s">
         <v>1</v>
       </c>
@@ -5391,16 +5391,16 @@
       <c r="C215" s="23"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="24" t="s">
+      <c r="A216" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="24"/>
-      <c r="C216" s="24"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="25"/>
     </row>
     <row r="217" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="24"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="24"/>
+      <c r="A217" s="25"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="25"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
@@ -5410,19 +5410,19 @@
       <c r="C218" s="23"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="25"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="25"/>
+      <c r="A219" s="22"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="25"/>
+      <c r="A220" s="22"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="25"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5439,16 +5439,16 @@
       <c r="A224" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B224" s="24" t="s">
+      <c r="B224" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C224" s="24"/>
+      <c r="C224" s="25"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="22" t="s">
+      <c r="A225" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="22"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="5" t="s">
         <v>1</v>
       </c>
@@ -5461,16 +5461,16 @@
       <c r="C226" s="23"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="24" t="s">
+      <c r="A227" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B227" s="24"/>
-      <c r="C227" s="24"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="25"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="24"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="24"/>
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="25"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
@@ -5480,19 +5480,19 @@
       <c r="C229" s="23"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="25"/>
+      <c r="A230" s="22"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="25"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="25"/>
+      <c r="A231" s="22"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="22"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="25"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -5509,16 +5509,16 @@
       <c r="A235" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B235" s="24" t="s">
+      <c r="B235" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C235" s="24"/>
+      <c r="C235" s="25"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="22" t="s">
+      <c r="A236" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="22"/>
+      <c r="B236" s="24"/>
       <c r="C236" s="5" t="s">
         <v>1</v>
       </c>
@@ -5531,16 +5531,16 @@
       <c r="C237" s="23"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="24" t="s">
+      <c r="A238" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B238" s="24"/>
-      <c r="C238" s="24"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="25"/>
     </row>
     <row r="239" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="24"/>
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
@@ -5550,19 +5550,19 @@
       <c r="C240" s="23"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="25"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="25"/>
+      <c r="A241" s="22"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="22"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="25"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="25"/>
+      <c r="A242" s="22"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="22"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="25"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="25"/>
+      <c r="A243" s="22"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
@@ -5585,10 +5585,10 @@
       <c r="C246" s="23"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="22" t="s">
+      <c r="A247" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="22"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="5" t="s">
         <v>1</v>
       </c>
@@ -5601,16 +5601,16 @@
       <c r="C248" s="23"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="22" t="s">
+      <c r="A249" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
     </row>
     <row r="250" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="22"/>
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
@@ -5620,19 +5620,19 @@
       <c r="C251" s="23"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
-      <c r="C252" s="25"/>
+      <c r="A252" s="22"/>
+      <c r="B252" s="22"/>
+      <c r="C252" s="22"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="25"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="25"/>
+      <c r="A253" s="22"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="22"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="25"/>
-      <c r="B254" s="25"/>
-      <c r="C254" s="25"/>
+      <c r="A254" s="22"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
@@ -5655,10 +5655,10 @@
       <c r="C257" s="23"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="22" t="s">
+      <c r="A258" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="22"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="5" t="s">
         <v>1</v>
       </c>
@@ -5671,16 +5671,16 @@
       <c r="C259" s="23"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="22" t="s">
+      <c r="A260" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
     </row>
     <row r="261" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="22"/>
-      <c r="B261" s="22"/>
-      <c r="C261" s="22"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
@@ -5690,19 +5690,19 @@
       <c r="C262" s="23"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="25"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
+      <c r="A263" s="22"/>
+      <c r="B263" s="22"/>
+      <c r="C263" s="22"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="25"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="25"/>
+      <c r="A264" s="22"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="25"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="25"/>
+      <c r="A265" s="22"/>
+      <c r="B265" s="22"/>
+      <c r="C265" s="22"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
@@ -5725,10 +5725,10 @@
       <c r="C269" s="23"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="22" t="s">
+      <c r="A270" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="22"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="11" t="s">
         <v>1</v>
       </c>
@@ -5741,16 +5741,16 @@
       <c r="C271" s="23"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="22" t="s">
+      <c r="A272" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B272" s="22"/>
-      <c r="C272" s="22"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="24"/>
     </row>
     <row r="273" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="22"/>
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
+      <c r="A273" s="24"/>
+      <c r="B273" s="24"/>
+      <c r="C273" s="24"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
@@ -5760,19 +5760,19 @@
       <c r="C274" s="23"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="25"/>
-      <c r="B275" s="25"/>
-      <c r="C275" s="25"/>
+      <c r="A275" s="22"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="22"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="25"/>
-      <c r="B276" s="25"/>
-      <c r="C276" s="25"/>
+      <c r="A276" s="22"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="22"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="25"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="25"/>
+      <c r="A277" s="22"/>
+      <c r="B277" s="22"/>
+      <c r="C277" s="22"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -5795,10 +5795,10 @@
       <c r="C280" s="23"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="22" t="s">
+      <c r="A281" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="22"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="11" t="s">
         <v>1</v>
       </c>
@@ -5811,16 +5811,16 @@
       <c r="C282" s="23"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="22" t="s">
+      <c r="A283" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B283" s="22"/>
-      <c r="C283" s="22"/>
+      <c r="B283" s="24"/>
+      <c r="C283" s="24"/>
     </row>
     <row r="284" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="22"/>
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="24"/>
+      <c r="C284" s="24"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
@@ -5830,19 +5830,19 @@
       <c r="C285" s="23"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="25"/>
-      <c r="B286" s="25"/>
-      <c r="C286" s="25"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="22"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="25"/>
-      <c r="B287" s="25"/>
-      <c r="C287" s="25"/>
+      <c r="A287" s="22"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="22"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="25"/>
-      <c r="B288" s="25"/>
-      <c r="C288" s="25"/>
+      <c r="A288" s="22"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="22"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
@@ -5865,10 +5865,10 @@
       <c r="C291" s="23"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="22" t="s">
+      <c r="A292" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="22"/>
+      <c r="B292" s="24"/>
       <c r="C292" s="11" t="s">
         <v>1</v>
       </c>
@@ -5881,16 +5881,16 @@
       <c r="C293" s="23"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="22" t="s">
+      <c r="A294" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B294" s="22"/>
-      <c r="C294" s="22"/>
+      <c r="B294" s="24"/>
+      <c r="C294" s="24"/>
     </row>
     <row r="295" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="22"/>
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
+      <c r="A295" s="24"/>
+      <c r="B295" s="24"/>
+      <c r="C295" s="24"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
@@ -5900,19 +5900,19 @@
       <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="25"/>
-      <c r="B297" s="25"/>
-      <c r="C297" s="25"/>
+      <c r="A297" s="22"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="22"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="25"/>
-      <c r="B298" s="25"/>
-      <c r="C298" s="25"/>
+      <c r="A298" s="22"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="22"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="25"/>
-      <c r="B299" s="25"/>
-      <c r="C299" s="25"/>
+      <c r="A299" s="22"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="22"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
@@ -5935,10 +5935,10 @@
       <c r="C302" s="23"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="22" t="s">
+      <c r="A303" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="22"/>
+      <c r="B303" s="24"/>
       <c r="C303" s="11" t="s">
         <v>1</v>
       </c>
@@ -5951,16 +5951,16 @@
       <c r="C304" s="23"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="22" t="s">
+      <c r="A305" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
+      <c r="B305" s="24"/>
+      <c r="C305" s="24"/>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="22"/>
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
+      <c r="A306" s="24"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="24"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
@@ -5970,19 +5970,19 @@
       <c r="C307" s="23"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="25"/>
-      <c r="B308" s="25"/>
-      <c r="C308" s="25"/>
+      <c r="A308" s="22"/>
+      <c r="B308" s="22"/>
+      <c r="C308" s="22"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="25"/>
-      <c r="B309" s="25"/>
-      <c r="C309" s="25"/>
+      <c r="A309" s="22"/>
+      <c r="B309" s="22"/>
+      <c r="C309" s="22"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="25"/>
-      <c r="B310" s="25"/>
-      <c r="C310" s="25"/>
+      <c r="A310" s="22"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="22"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
@@ -6005,10 +6005,10 @@
       <c r="C313" s="23"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="22" t="s">
+      <c r="A314" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="22"/>
+      <c r="B314" s="24"/>
       <c r="C314" s="11" t="s">
         <v>1</v>
       </c>
@@ -6021,16 +6021,16 @@
       <c r="C315" s="23"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="22" t="s">
+      <c r="A316" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B316" s="22"/>
-      <c r="C316" s="22"/>
+      <c r="B316" s="24"/>
+      <c r="C316" s="24"/>
     </row>
     <row r="317" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="22"/>
-      <c r="B317" s="22"/>
-      <c r="C317" s="22"/>
+      <c r="A317" s="24"/>
+      <c r="B317" s="24"/>
+      <c r="C317" s="24"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
@@ -6040,19 +6040,19 @@
       <c r="C318" s="23"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="25"/>
-      <c r="B319" s="25"/>
-      <c r="C319" s="25"/>
+      <c r="A319" s="22"/>
+      <c r="B319" s="22"/>
+      <c r="C319" s="22"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="25"/>
-      <c r="B320" s="25"/>
-      <c r="C320" s="25"/>
+      <c r="A320" s="22"/>
+      <c r="B320" s="22"/>
+      <c r="C320" s="22"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="25"/>
-      <c r="B321" s="25"/>
-      <c r="C321" s="25"/>
+      <c r="A321" s="22"/>
+      <c r="B321" s="22"/>
+      <c r="C321" s="22"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
@@ -6075,10 +6075,10 @@
       <c r="C324" s="23"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="22" t="s">
+      <c r="A325" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="22"/>
+      <c r="B325" s="24"/>
       <c r="C325" s="11" t="s">
         <v>1</v>
       </c>
@@ -6091,16 +6091,16 @@
       <c r="C326" s="23"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="22" t="s">
+      <c r="A327" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B327" s="22"/>
-      <c r="C327" s="22"/>
+      <c r="B327" s="24"/>
+      <c r="C327" s="24"/>
     </row>
     <row r="328" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="22"/>
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
+      <c r="A328" s="24"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="24"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
@@ -6110,19 +6110,19 @@
       <c r="C329" s="23"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="25"/>
-      <c r="B330" s="25"/>
-      <c r="C330" s="25"/>
+      <c r="A330" s="22"/>
+      <c r="B330" s="22"/>
+      <c r="C330" s="22"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="25"/>
-      <c r="B331" s="25"/>
-      <c r="C331" s="25"/>
+      <c r="A331" s="22"/>
+      <c r="B331" s="22"/>
+      <c r="C331" s="22"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="25"/>
-      <c r="B332" s="25"/>
-      <c r="C332" s="25"/>
+      <c r="A332" s="22"/>
+      <c r="B332" s="22"/>
+      <c r="C332" s="22"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
@@ -6145,10 +6145,10 @@
       <c r="C335" s="23"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="22" t="s">
+      <c r="A336" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="22"/>
+      <c r="B336" s="24"/>
       <c r="C336" s="11" t="s">
         <v>1</v>
       </c>
@@ -6161,16 +6161,16 @@
       <c r="C337" s="23"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="22" t="s">
+      <c r="A338" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B338" s="22"/>
-      <c r="C338" s="22"/>
+      <c r="B338" s="24"/>
+      <c r="C338" s="24"/>
     </row>
     <row r="339" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="22"/>
-      <c r="B339" s="22"/>
-      <c r="C339" s="22"/>
+      <c r="A339" s="24"/>
+      <c r="B339" s="24"/>
+      <c r="C339" s="24"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
@@ -6180,19 +6180,19 @@
       <c r="C340" s="23"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="25"/>
-      <c r="B341" s="25"/>
-      <c r="C341" s="25"/>
+      <c r="A341" s="22"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="22"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="25"/>
-      <c r="B342" s="25"/>
-      <c r="C342" s="25"/>
+      <c r="A342" s="22"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="22"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="25"/>
-      <c r="B343" s="25"/>
-      <c r="C343" s="25"/>
+      <c r="A343" s="22"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="22"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
@@ -6215,10 +6215,10 @@
       <c r="C346" s="23"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="22" t="s">
+      <c r="A347" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B347" s="22"/>
+      <c r="B347" s="24"/>
       <c r="C347" s="11" t="s">
         <v>1</v>
       </c>
@@ -6231,16 +6231,16 @@
       <c r="C348" s="23"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="22" t="s">
+      <c r="A349" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B349" s="22"/>
-      <c r="C349" s="22"/>
+      <c r="B349" s="24"/>
+      <c r="C349" s="24"/>
     </row>
     <row r="350" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="22"/>
-      <c r="B350" s="22"/>
-      <c r="C350" s="22"/>
+      <c r="A350" s="24"/>
+      <c r="B350" s="24"/>
+      <c r="C350" s="24"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
@@ -6250,19 +6250,19 @@
       <c r="C351" s="23"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="25"/>
-      <c r="B352" s="25"/>
-      <c r="C352" s="25"/>
+      <c r="A352" s="22"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="22"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="25"/>
-      <c r="B353" s="25"/>
-      <c r="C353" s="25"/>
+      <c r="A353" s="22"/>
+      <c r="B353" s="22"/>
+      <c r="C353" s="22"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="25"/>
-      <c r="B354" s="25"/>
-      <c r="C354" s="25"/>
+      <c r="A354" s="22"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="22"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
@@ -6285,10 +6285,10 @@
       <c r="C357" s="23"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="22" t="s">
+      <c r="A358" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B358" s="22"/>
+      <c r="B358" s="24"/>
       <c r="C358" s="11" t="s">
         <v>1</v>
       </c>
@@ -6301,16 +6301,16 @@
       <c r="C359" s="23"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="22" t="s">
+      <c r="A360" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B360" s="22"/>
-      <c r="C360" s="22"/>
+      <c r="B360" s="24"/>
+      <c r="C360" s="24"/>
     </row>
     <row r="361" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="22"/>
-      <c r="B361" s="22"/>
-      <c r="C361" s="22"/>
+      <c r="A361" s="24"/>
+      <c r="B361" s="24"/>
+      <c r="C361" s="24"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
@@ -6320,19 +6320,19 @@
       <c r="C362" s="23"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="25"/>
-      <c r="B363" s="25"/>
-      <c r="C363" s="25"/>
+      <c r="A363" s="22"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="22"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="25"/>
-      <c r="B364" s="25"/>
-      <c r="C364" s="25"/>
+      <c r="A364" s="22"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="22"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="25"/>
-      <c r="B365" s="25"/>
-      <c r="C365" s="25"/>
+      <c r="A365" s="22"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="22"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
@@ -6355,10 +6355,10 @@
       <c r="C368" s="23"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="22" t="s">
+      <c r="A369" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="22"/>
+      <c r="B369" s="24"/>
       <c r="C369" s="11" t="s">
         <v>1</v>
       </c>
@@ -6371,16 +6371,16 @@
       <c r="C370" s="23"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="22" t="s">
+      <c r="A371" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B371" s="22"/>
-      <c r="C371" s="22"/>
+      <c r="B371" s="24"/>
+      <c r="C371" s="24"/>
     </row>
     <row r="372" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="22"/>
-      <c r="B372" s="22"/>
-      <c r="C372" s="22"/>
+      <c r="A372" s="24"/>
+      <c r="B372" s="24"/>
+      <c r="C372" s="24"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
@@ -6390,19 +6390,19 @@
       <c r="C373" s="23"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="25"/>
-      <c r="B374" s="25"/>
-      <c r="C374" s="25"/>
+      <c r="A374" s="22"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="22"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="25"/>
-      <c r="B375" s="25"/>
-      <c r="C375" s="25"/>
+      <c r="A375" s="22"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="22"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="25"/>
-      <c r="B376" s="25"/>
-      <c r="C376" s="25"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="22"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
@@ -6425,10 +6425,10 @@
       <c r="C379" s="23"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="22" t="s">
+      <c r="A380" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B380" s="22"/>
+      <c r="B380" s="24"/>
       <c r="C380" s="11" t="s">
         <v>1</v>
       </c>
@@ -6441,16 +6441,16 @@
       <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="22" t="s">
+      <c r="A382" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B382" s="22"/>
-      <c r="C382" s="22"/>
+      <c r="B382" s="24"/>
+      <c r="C382" s="24"/>
     </row>
     <row r="383" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="22"/>
-      <c r="B383" s="22"/>
-      <c r="C383" s="22"/>
+      <c r="A383" s="24"/>
+      <c r="B383" s="24"/>
+      <c r="C383" s="24"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
@@ -6460,19 +6460,19 @@
       <c r="C384" s="23"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="25"/>
-      <c r="B385" s="25"/>
-      <c r="C385" s="25"/>
+      <c r="A385" s="22"/>
+      <c r="B385" s="22"/>
+      <c r="C385" s="22"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="25"/>
-      <c r="B386" s="25"/>
-      <c r="C386" s="25"/>
+      <c r="A386" s="22"/>
+      <c r="B386" s="22"/>
+      <c r="C386" s="22"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="25"/>
-      <c r="B387" s="25"/>
-      <c r="C387" s="25"/>
+      <c r="A387" s="22"/>
+      <c r="B387" s="22"/>
+      <c r="C387" s="22"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
@@ -6495,10 +6495,10 @@
       <c r="C390" s="23"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="22" t="s">
+      <c r="A391" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="22"/>
+      <c r="B391" s="24"/>
       <c r="C391" s="11" t="s">
         <v>1</v>
       </c>
@@ -6511,16 +6511,16 @@
       <c r="C392" s="23"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="22" t="s">
+      <c r="A393" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B393" s="22"/>
-      <c r="C393" s="22"/>
+      <c r="B393" s="24"/>
+      <c r="C393" s="24"/>
     </row>
     <row r="394" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="22"/>
-      <c r="B394" s="22"/>
-      <c r="C394" s="22"/>
+      <c r="A394" s="24"/>
+      <c r="B394" s="24"/>
+      <c r="C394" s="24"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
@@ -6530,19 +6530,19 @@
       <c r="C395" s="23"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="25"/>
-      <c r="B396" s="25"/>
-      <c r="C396" s="25"/>
+      <c r="A396" s="22"/>
+      <c r="B396" s="22"/>
+      <c r="C396" s="22"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="25"/>
-      <c r="B397" s="25"/>
-      <c r="C397" s="25"/>
+      <c r="A397" s="22"/>
+      <c r="B397" s="22"/>
+      <c r="C397" s="22"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="25"/>
-      <c r="B398" s="25"/>
-      <c r="C398" s="25"/>
+      <c r="A398" s="22"/>
+      <c r="B398" s="22"/>
+      <c r="C398" s="22"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
@@ -6565,10 +6565,10 @@
       <c r="C401" s="23"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B402" s="22"/>
+      <c r="B402" s="24"/>
       <c r="C402" s="11" t="s">
         <v>1</v>
       </c>
@@ -6581,16 +6581,16 @@
       <c r="C403" s="23"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="22" t="s">
+      <c r="A404" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B404" s="22"/>
-      <c r="C404" s="22"/>
+      <c r="B404" s="24"/>
+      <c r="C404" s="24"/>
     </row>
     <row r="405" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="22"/>
-      <c r="B405" s="22"/>
-      <c r="C405" s="22"/>
+      <c r="A405" s="24"/>
+      <c r="B405" s="24"/>
+      <c r="C405" s="24"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
@@ -6600,19 +6600,19 @@
       <c r="C406" s="23"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="25"/>
-      <c r="B407" s="25"/>
-      <c r="C407" s="25"/>
+      <c r="A407" s="22"/>
+      <c r="B407" s="22"/>
+      <c r="C407" s="22"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="25"/>
-      <c r="B408" s="25"/>
-      <c r="C408" s="25"/>
+      <c r="A408" s="22"/>
+      <c r="B408" s="22"/>
+      <c r="C408" s="22"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="25"/>
-      <c r="B409" s="25"/>
-      <c r="C409" s="25"/>
+      <c r="A409" s="22"/>
+      <c r="B409" s="22"/>
+      <c r="C409" s="22"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
@@ -6635,10 +6635,10 @@
       <c r="C412" s="23"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="22" t="s">
+      <c r="A413" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B413" s="22"/>
+      <c r="B413" s="24"/>
       <c r="C413" s="11" t="s">
         <v>1</v>
       </c>
@@ -6651,16 +6651,16 @@
       <c r="C414" s="23"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="22" t="s">
+      <c r="A415" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B415" s="22"/>
-      <c r="C415" s="22"/>
+      <c r="B415" s="24"/>
+      <c r="C415" s="24"/>
     </row>
     <row r="416" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="22"/>
-      <c r="B416" s="22"/>
-      <c r="C416" s="22"/>
+      <c r="A416" s="24"/>
+      <c r="B416" s="24"/>
+      <c r="C416" s="24"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
@@ -6670,19 +6670,19 @@
       <c r="C417" s="23"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="25"/>
-      <c r="B418" s="25"/>
-      <c r="C418" s="25"/>
+      <c r="A418" s="22"/>
+      <c r="B418" s="22"/>
+      <c r="C418" s="22"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="25"/>
-      <c r="B419" s="25"/>
-      <c r="C419" s="25"/>
+      <c r="A419" s="22"/>
+      <c r="B419" s="22"/>
+      <c r="C419" s="22"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="25"/>
-      <c r="B420" s="25"/>
-      <c r="C420" s="25"/>
+      <c r="A420" s="22"/>
+      <c r="B420" s="22"/>
+      <c r="C420" s="22"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
@@ -6705,10 +6705,10 @@
       <c r="C423" s="23"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="22" t="s">
+      <c r="A424" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B424" s="22"/>
+      <c r="B424" s="24"/>
       <c r="C424" s="11" t="s">
         <v>1</v>
       </c>
@@ -6721,16 +6721,16 @@
       <c r="C425" s="23"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="22" t="s">
+      <c r="A426" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B426" s="22"/>
-      <c r="C426" s="22"/>
+      <c r="B426" s="24"/>
+      <c r="C426" s="24"/>
     </row>
     <row r="427" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="22"/>
-      <c r="B427" s="22"/>
-      <c r="C427" s="22"/>
+      <c r="A427" s="24"/>
+      <c r="B427" s="24"/>
+      <c r="C427" s="24"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
@@ -6740,19 +6740,19 @@
       <c r="C428" s="23"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="25"/>
-      <c r="B429" s="25"/>
-      <c r="C429" s="25"/>
+      <c r="A429" s="22"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="22"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="25"/>
-      <c r="B430" s="25"/>
-      <c r="C430" s="25"/>
+      <c r="A430" s="22"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="22"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="25"/>
-      <c r="B431" s="25"/>
-      <c r="C431" s="25"/>
+      <c r="A431" s="22"/>
+      <c r="B431" s="22"/>
+      <c r="C431" s="22"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
@@ -6775,10 +6775,10 @@
       <c r="C434" s="23"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="22" t="s">
+      <c r="A435" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B435" s="22"/>
+      <c r="B435" s="24"/>
       <c r="C435" s="11" t="s">
         <v>1</v>
       </c>
@@ -6791,16 +6791,16 @@
       <c r="C436" s="23"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="22" t="s">
+      <c r="A437" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B437" s="22"/>
-      <c r="C437" s="22"/>
+      <c r="B437" s="24"/>
+      <c r="C437" s="24"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="22"/>
-      <c r="B438" s="22"/>
-      <c r="C438" s="22"/>
+      <c r="A438" s="24"/>
+      <c r="B438" s="24"/>
+      <c r="C438" s="24"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
@@ -6810,19 +6810,19 @@
       <c r="C439" s="23"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="25"/>
-      <c r="B440" s="25"/>
-      <c r="C440" s="25"/>
+      <c r="A440" s="22"/>
+      <c r="B440" s="22"/>
+      <c r="C440" s="22"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="25"/>
-      <c r="B441" s="25"/>
-      <c r="C441" s="25"/>
+      <c r="A441" s="22"/>
+      <c r="B441" s="22"/>
+      <c r="C441" s="22"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="25"/>
-      <c r="B442" s="25"/>
-      <c r="C442" s="25"/>
+      <c r="A442" s="22"/>
+      <c r="B442" s="22"/>
+      <c r="C442" s="22"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
@@ -6845,10 +6845,10 @@
       <c r="C445" s="23"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="22" t="s">
+      <c r="A446" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B446" s="22"/>
+      <c r="B446" s="24"/>
       <c r="C446" s="11" t="s">
         <v>1</v>
       </c>
@@ -6861,16 +6861,16 @@
       <c r="C447" s="23"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="22" t="s">
+      <c r="A448" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B448" s="22"/>
-      <c r="C448" s="22"/>
+      <c r="B448" s="24"/>
+      <c r="C448" s="24"/>
     </row>
     <row r="449" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="22"/>
-      <c r="B449" s="22"/>
-      <c r="C449" s="22"/>
+      <c r="A449" s="24"/>
+      <c r="B449" s="24"/>
+      <c r="C449" s="24"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
@@ -6880,19 +6880,19 @@
       <c r="C450" s="23"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="25"/>
-      <c r="B451" s="25"/>
-      <c r="C451" s="25"/>
+      <c r="A451" s="22"/>
+      <c r="B451" s="22"/>
+      <c r="C451" s="22"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="25"/>
-      <c r="B452" s="25"/>
-      <c r="C452" s="25"/>
+      <c r="A452" s="22"/>
+      <c r="B452" s="22"/>
+      <c r="C452" s="22"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="25"/>
-      <c r="B453" s="25"/>
-      <c r="C453" s="25"/>
+      <c r="A453" s="22"/>
+      <c r="B453" s="22"/>
+      <c r="C453" s="22"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
@@ -6915,10 +6915,10 @@
       <c r="C456" s="23"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="22" t="s">
+      <c r="A457" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B457" s="22"/>
+      <c r="B457" s="24"/>
       <c r="C457" s="11" t="s">
         <v>1</v>
       </c>
@@ -6931,16 +6931,16 @@
       <c r="C458" s="23"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="22" t="s">
+      <c r="A459" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B459" s="22"/>
-      <c r="C459" s="22"/>
+      <c r="B459" s="24"/>
+      <c r="C459" s="24"/>
     </row>
     <row r="460" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="22"/>
-      <c r="B460" s="22"/>
-      <c r="C460" s="22"/>
+      <c r="A460" s="24"/>
+      <c r="B460" s="24"/>
+      <c r="C460" s="24"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
@@ -6950,19 +6950,19 @@
       <c r="C461" s="23"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="25"/>
-      <c r="B462" s="25"/>
-      <c r="C462" s="25"/>
+      <c r="A462" s="22"/>
+      <c r="B462" s="22"/>
+      <c r="C462" s="22"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="25"/>
-      <c r="B463" s="25"/>
-      <c r="C463" s="25"/>
+      <c r="A463" s="22"/>
+      <c r="B463" s="22"/>
+      <c r="C463" s="22"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="25"/>
-      <c r="B464" s="25"/>
-      <c r="C464" s="25"/>
+      <c r="A464" s="22"/>
+      <c r="B464" s="22"/>
+      <c r="C464" s="22"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
@@ -6985,10 +6985,10 @@
       <c r="C467" s="23"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="22" t="s">
+      <c r="A468" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B468" s="22"/>
+      <c r="B468" s="24"/>
       <c r="C468" s="11" t="s">
         <v>1</v>
       </c>
@@ -7001,16 +7001,16 @@
       <c r="C469" s="23"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="22" t="s">
+      <c r="A470" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B470" s="22"/>
-      <c r="C470" s="22"/>
+      <c r="B470" s="24"/>
+      <c r="C470" s="24"/>
     </row>
     <row r="471" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="22"/>
-      <c r="B471" s="22"/>
-      <c r="C471" s="22"/>
+      <c r="A471" s="24"/>
+      <c r="B471" s="24"/>
+      <c r="C471" s="24"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
@@ -7020,19 +7020,19 @@
       <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="25"/>
-      <c r="B473" s="25"/>
-      <c r="C473" s="25"/>
+      <c r="A473" s="22"/>
+      <c r="B473" s="22"/>
+      <c r="C473" s="22"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="25"/>
-      <c r="B474" s="25"/>
-      <c r="C474" s="25"/>
+      <c r="A474" s="22"/>
+      <c r="B474" s="22"/>
+      <c r="C474" s="22"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="25"/>
-      <c r="B475" s="25"/>
-      <c r="C475" s="25"/>
+      <c r="A475" s="22"/>
+      <c r="B475" s="22"/>
+      <c r="C475" s="22"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
@@ -7049,16 +7049,16 @@
       <c r="A478" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B478" s="23" t="s">
+      <c r="B478" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C478" s="23"/>
+      <c r="C478" s="25"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="22" t="s">
+      <c r="A479" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B479" s="22"/>
+      <c r="B479" s="24"/>
       <c r="C479" s="11" t="s">
         <v>1</v>
       </c>
@@ -7071,16 +7071,16 @@
       <c r="C480" s="23"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="22" t="s">
+      <c r="A481" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B481" s="22"/>
-      <c r="C481" s="22"/>
+      <c r="B481" s="25"/>
+      <c r="C481" s="25"/>
     </row>
     <row r="482" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="22"/>
-      <c r="B482" s="22"/>
-      <c r="C482" s="22"/>
+      <c r="A482" s="25"/>
+      <c r="B482" s="25"/>
+      <c r="C482" s="25"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
@@ -7090,19 +7090,19 @@
       <c r="C483" s="23"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="25"/>
-      <c r="B484" s="25"/>
-      <c r="C484" s="25"/>
+      <c r="A484" s="22"/>
+      <c r="B484" s="22"/>
+      <c r="C484" s="22"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="25"/>
-      <c r="B485" s="25"/>
-      <c r="C485" s="25"/>
+      <c r="A485" s="22"/>
+      <c r="B485" s="22"/>
+      <c r="C485" s="22"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="25"/>
-      <c r="B486" s="25"/>
-      <c r="C486" s="25"/>
+      <c r="A486" s="22"/>
+      <c r="B486" s="22"/>
+      <c r="C486" s="22"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
@@ -7119,16 +7119,16 @@
       <c r="A489" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B489" s="23" t="s">
+      <c r="B489" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C489" s="23"/>
+      <c r="C489" s="25"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="22" t="s">
+      <c r="A490" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="22"/>
+      <c r="B490" s="24"/>
       <c r="C490" s="11" t="s">
         <v>1</v>
       </c>
@@ -7141,16 +7141,16 @@
       <c r="C491" s="23"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="22" t="s">
+      <c r="A492" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B492" s="22"/>
-      <c r="C492" s="22"/>
+      <c r="B492" s="25"/>
+      <c r="C492" s="25"/>
     </row>
     <row r="493" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="22"/>
-      <c r="B493" s="22"/>
-      <c r="C493" s="22"/>
+      <c r="A493" s="25"/>
+      <c r="B493" s="25"/>
+      <c r="C493" s="25"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
@@ -7160,19 +7160,19 @@
       <c r="C494" s="23"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="25"/>
-      <c r="B495" s="25"/>
-      <c r="C495" s="25"/>
+      <c r="A495" s="22"/>
+      <c r="B495" s="22"/>
+      <c r="C495" s="22"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="25"/>
-      <c r="B496" s="25"/>
-      <c r="C496" s="25"/>
+      <c r="A496" s="22"/>
+      <c r="B496" s="22"/>
+      <c r="C496" s="22"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="25"/>
-      <c r="B497" s="25"/>
-      <c r="C497" s="25"/>
+      <c r="A497" s="22"/>
+      <c r="B497" s="22"/>
+      <c r="C497" s="22"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
@@ -7195,10 +7195,10 @@
       <c r="C500" s="23"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="22" t="s">
+      <c r="A501" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B501" s="22"/>
+      <c r="B501" s="24"/>
       <c r="C501" s="11" t="s">
         <v>1</v>
       </c>
@@ -7211,16 +7211,16 @@
       <c r="C502" s="23"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="22" t="s">
+      <c r="A503" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B503" s="22"/>
-      <c r="C503" s="22"/>
+      <c r="B503" s="24"/>
+      <c r="C503" s="24"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="22"/>
-      <c r="B504" s="22"/>
-      <c r="C504" s="22"/>
+      <c r="A504" s="24"/>
+      <c r="B504" s="24"/>
+      <c r="C504" s="24"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
@@ -7230,19 +7230,19 @@
       <c r="C505" s="23"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="25"/>
-      <c r="B506" s="25"/>
-      <c r="C506" s="25"/>
+      <c r="A506" s="22"/>
+      <c r="B506" s="22"/>
+      <c r="C506" s="22"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="25"/>
-      <c r="B507" s="25"/>
-      <c r="C507" s="25"/>
+      <c r="A507" s="22"/>
+      <c r="B507" s="22"/>
+      <c r="C507" s="22"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="25"/>
-      <c r="B508" s="25"/>
-      <c r="C508" s="25"/>
+      <c r="A508" s="22"/>
+      <c r="B508" s="22"/>
+      <c r="C508" s="22"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -7265,10 +7265,10 @@
       <c r="C511" s="23"/>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="22" t="s">
+      <c r="A512" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B512" s="22"/>
+      <c r="B512" s="24"/>
       <c r="C512" s="11" t="s">
         <v>1</v>
       </c>
@@ -7281,16 +7281,16 @@
       <c r="C513" s="23"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="22" t="s">
+      <c r="A514" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B514" s="22"/>
-      <c r="C514" s="22"/>
+      <c r="B514" s="24"/>
+      <c r="C514" s="24"/>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="22"/>
-      <c r="B515" s="22"/>
-      <c r="C515" s="22"/>
+      <c r="A515" s="24"/>
+      <c r="B515" s="24"/>
+      <c r="C515" s="24"/>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
@@ -7300,19 +7300,19 @@
       <c r="C516" s="23"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="25"/>
-      <c r="B517" s="25"/>
-      <c r="C517" s="25"/>
+      <c r="A517" s="22"/>
+      <c r="B517" s="22"/>
+      <c r="C517" s="22"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="25"/>
-      <c r="B518" s="25"/>
-      <c r="C518" s="25"/>
+      <c r="A518" s="22"/>
+      <c r="B518" s="22"/>
+      <c r="C518" s="22"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="25"/>
-      <c r="B519" s="25"/>
-      <c r="C519" s="25"/>
+      <c r="A519" s="22"/>
+      <c r="B519" s="22"/>
+      <c r="C519" s="22"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
@@ -7321,94 +7321,272 @@
     </row>
   </sheetData>
   <mergeCells count="378">
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C515"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="B511:C511"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A492:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A437:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C449"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C217"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A238:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C250"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C94"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C138"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A360:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
     <mergeCell ref="B390:C390"/>
     <mergeCell ref="A391:B391"/>
     <mergeCell ref="A392:C392"/>
@@ -7433,272 +7611,94 @@
     <mergeCell ref="A386:C386"/>
     <mergeCell ref="A387:C387"/>
     <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A327:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C339"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C138"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C94"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A238:C239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C250"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C217"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A437:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C449"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A492:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C515"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="B511:C511"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7738,10 +7738,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7754,16 +7754,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7773,19 +7773,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7800,26 +7800,26 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
@@ -7834,26 +7834,26 @@
       <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -7868,26 +7868,26 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
@@ -7902,26 +7902,26 @@
       <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7936,26 +7936,26 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
@@ -7970,26 +7970,26 @@
       <c r="C39" s="54"/>
     </row>
     <row r="40" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -8004,26 +8004,26 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
@@ -8038,26 +8038,26 @@
       <c r="C50" s="54"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
     </row>
     <row r="53" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -8072,26 +8072,26 @@
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
@@ -8106,26 +8106,26 @@
       <c r="C61" s="54"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -8140,26 +8140,26 @@
       <c r="A68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="42"/>
+      <c r="C68" s="30"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="39"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="30"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
@@ -8174,26 +8174,26 @@
       <c r="C72" s="54"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -8208,26 +8208,26 @@
       <c r="A80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="42"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="39"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
@@ -8242,26 +8242,26 @@
       <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="37"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="33"/>
     </row>
     <row r="87" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -8276,26 +8276,26 @@
       <c r="A91" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="42"/>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="39"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="30"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
@@ -8310,26 +8310,26 @@
       <c r="C95" s="54"/>
     </row>
     <row r="96" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="37"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -8344,26 +8344,26 @@
       <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="42"/>
+      <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="39"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="41"/>
-      <c r="C104" s="42"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
@@ -8378,26 +8378,26 @@
       <c r="C106" s="54"/>
     </row>
     <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="42"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="30"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="37"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="33"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -8412,26 +8412,26 @@
       <c r="A113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="42"/>
+      <c r="C113" s="30"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="39"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="42"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="49" t="s">
@@ -8446,26 +8446,26 @@
       <c r="C117" s="54"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="42"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="30"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="37"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="33"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -8480,26 +8480,26 @@
       <c r="A124" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="42"/>
+      <c r="C124" s="30"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="42"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="30"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
@@ -8514,54 +8514,84 @@
       <c r="C128" s="54"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="42"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="30"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="37"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="33"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A116:C117"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B113:C113"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
@@ -8578,61 +8608,31 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C84"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A116:C117"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
+++ b/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mintic\ProyectoTic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4C1D8-53A1-489F-B2B2-E82A22FDCE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10467CFD-687E-448A-96B5-3269EEDAA11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,17 +2047,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2068,11 +2068,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
@@ -2089,7 +2101,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,24 +2127,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2553,10 +2553,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2569,16 +2569,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -2588,19 +2588,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2623,10 +2623,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2639,16 +2639,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -2658,19 +2658,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,10 +2694,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2710,16 +2710,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2729,14 +2729,14 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2753,16 +2753,16 @@
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
@@ -2775,16 +2775,16 @@
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
@@ -2794,19 +2794,19 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2829,10 +2829,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2845,16 +2845,16 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -2864,19 +2864,19 @@
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2899,10 +2899,10 @@
       <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2915,16 +2915,16 @@
       <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
@@ -2934,50 +2934,30 @@
       <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -2989,14 +2969,34 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3041,10 +3041,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3057,16 +3057,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -3076,9 +3076,9 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3101,10 +3101,10 @@
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3131,11 +3131,11 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3145,9 +3145,9 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3167,9 +3167,9 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3197,10 +3197,10 @@
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3213,16 +3213,16 @@
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -3232,29 +3232,29 @@
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3277,10 +3277,10 @@
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="5" t="s">
         <v>1</v>
       </c>
@@ -3293,16 +3293,16 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
@@ -3312,29 +3312,29 @@
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3357,10 +3357,10 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3373,16 +3373,16 @@
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -3392,33 +3392,36 @@
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
@@ -3435,20 +3438,17 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3499,10 +3499,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3515,16 +3515,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="E6" s="19" t="s">
         <v>52</v>
       </c>
@@ -3548,19 +3548,19 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3583,10 +3583,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3599,16 +3599,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -3618,19 +3618,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3653,10 +3653,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3669,16 +3669,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="E28" s="19" t="s">
         <v>53</v>
       </c>
@@ -3700,19 +3700,19 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3735,10 +3735,10 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
@@ -3751,16 +3751,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -3770,19 +3770,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -3805,10 +3805,10 @@
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3821,16 +3821,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="E50" s="19" t="s">
         <v>54</v>
       </c>
@@ -3844,31 +3844,31 @@
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3885,63 +3885,98 @@
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="E51:H52"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -3958,41 +3993,6 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4003,8 +4003,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E493" sqref="E493"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,16 +4029,16 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4051,16 +4051,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -4070,19 +4070,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4099,16 +4099,16 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
@@ -4121,16 +4121,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4140,19 +4140,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4169,16 +4169,16 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
@@ -4191,16 +4191,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -4210,19 +4210,19 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4239,16 +4239,16 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
@@ -4261,16 +4261,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -4280,19 +4280,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -4309,16 +4309,16 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
@@ -4331,16 +4331,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
@@ -4350,19 +4350,19 @@
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -4385,10 +4385,10 @@
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
@@ -4401,16 +4401,16 @@
       <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
@@ -4420,19 +4420,19 @@
       <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -4455,10 +4455,10 @@
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
@@ -4471,16 +4471,16 @@
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
@@ -4490,19 +4490,19 @@
       <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -4525,10 +4525,10 @@
       <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="24"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
@@ -4541,16 +4541,16 @@
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
     </row>
     <row r="83" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -4560,19 +4560,19 @@
       <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -4595,10 +4595,10 @@
       <c r="C90" s="23"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4611,16 +4611,16 @@
       <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
     </row>
     <row r="94" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
@@ -4630,19 +4630,19 @@
       <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4665,10 +4665,10 @@
       <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="5" t="s">
         <v>1</v>
       </c>
@@ -4681,16 +4681,16 @@
       <c r="C103" s="23"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
     </row>
     <row r="105" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -4700,19 +4700,19 @@
       <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4735,10 +4735,10 @@
       <c r="C112" s="23"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="24"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
@@ -4751,16 +4751,16 @@
       <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -4770,19 +4770,19 @@
       <c r="C117" s="23"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -4805,10 +4805,10 @@
       <c r="C123" s="23"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="24"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4821,16 +4821,16 @@
       <c r="C125" s="23"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
     </row>
     <row r="127" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
@@ -4840,19 +4840,19 @@
       <c r="C128" s="23"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4875,10 +4875,10 @@
       <c r="C134" s="23"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="24"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="5" t="s">
         <v>1</v>
       </c>
@@ -4891,16 +4891,16 @@
       <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
     </row>
     <row r="138" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
@@ -4910,19 +4910,19 @@
       <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="22"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -4939,16 +4939,16 @@
       <c r="A145" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B145" s="25" t="s">
+      <c r="B145" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C145" s="25"/>
+      <c r="C145" s="24"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="24"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4961,16 +4961,16 @@
       <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
@@ -4980,19 +4980,19 @@
       <c r="C150" s="23"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="22"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="22"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="22"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="22"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -5015,10 +5015,10 @@
       <c r="C156" s="23"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="24"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
@@ -5031,16 +5031,16 @@
       <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="24"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
@@ -5050,19 +5050,19 @@
       <c r="C161" s="23"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="22"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="22"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="22"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="22"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -5079,16 +5079,16 @@
       <c r="A167" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B167" s="25" t="s">
+      <c r="B167" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C167" s="25"/>
+      <c r="C167" s="24"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="24"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="5" t="s">
         <v>1</v>
       </c>
@@ -5101,16 +5101,16 @@
       <c r="C169" s="23"/>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
     </row>
     <row r="171" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="25"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
@@ -5120,19 +5120,19 @@
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="22"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="22"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -5155,10 +5155,10 @@
       <c r="C178" s="23"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="24" t="s">
+      <c r="A179" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="24"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="5" t="s">
         <v>1</v>
       </c>
@@ -5171,16 +5171,16 @@
       <c r="C180" s="23"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="24" t="s">
+      <c r="A181" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B181" s="24"/>
-      <c r="C181" s="24"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
     </row>
     <row r="182" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="24"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
@@ -5190,19 +5190,19 @@
       <c r="C183" s="23"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="22"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="22"/>
-      <c r="B185" s="22"/>
-      <c r="C185" s="22"/>
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="22"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -5219,16 +5219,16 @@
       <c r="A189" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B189" s="25" t="s">
+      <c r="B189" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C189" s="25"/>
+      <c r="C189" s="24"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="24"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="5" t="s">
         <v>1</v>
       </c>
@@ -5241,16 +5241,16 @@
       <c r="C191" s="23"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B192" s="25"/>
-      <c r="C192" s="25"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
     </row>
     <row r="193" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="25"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="25"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
@@ -5260,19 +5260,19 @@
       <c r="C194" s="23"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
-      <c r="C195" s="22"/>
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="22"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="22"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -5289,16 +5289,16 @@
       <c r="A200" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B200" s="25" t="s">
+      <c r="B200" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C200" s="25"/>
+      <c r="C200" s="24"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="24" t="s">
+      <c r="A201" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="24"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="11" t="s">
         <v>1</v>
       </c>
@@ -5311,16 +5311,16 @@
       <c r="C202" s="23"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B203" s="25"/>
-      <c r="C203" s="25"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
     </row>
     <row r="204" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="25"/>
-      <c r="B204" s="25"/>
-      <c r="C204" s="25"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
     </row>
     <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
@@ -5330,29 +5330,29 @@
       <c r="C205" s="23"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="22"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
+      <c r="A206" s="25"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="22"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
+      <c r="A207" s="25"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="25"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="22"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
+      <c r="A208" s="25"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="22"/>
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
+      <c r="A209" s="25"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="22"/>
-      <c r="B210" s="22"/>
-      <c r="C210" s="22"/>
+      <c r="A210" s="25"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="25"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5369,16 +5369,16 @@
       <c r="A213" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B213" s="25" t="s">
+      <c r="B213" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C213" s="25"/>
+      <c r="C213" s="24"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="24"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="5" t="s">
         <v>1</v>
       </c>
@@ -5391,16 +5391,16 @@
       <c r="C215" s="23"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="25"/>
-      <c r="C216" s="25"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="24"/>
     </row>
     <row r="217" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="25"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="25"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
@@ -5410,19 +5410,19 @@
       <c r="C218" s="23"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="22"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="22"/>
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
+      <c r="A220" s="25"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="22"/>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
+      <c r="A221" s="25"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5439,16 +5439,16 @@
       <c r="A224" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B224" s="25" t="s">
+      <c r="B224" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C224" s="25"/>
+      <c r="C224" s="24"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="24" t="s">
+      <c r="A225" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="24"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="5" t="s">
         <v>1</v>
       </c>
@@ -5461,16 +5461,16 @@
       <c r="C226" s="23"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B227" s="25"/>
-      <c r="C227" s="25"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="24"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="25"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="25"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="24"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
@@ -5480,19 +5480,19 @@
       <c r="C229" s="23"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="22"/>
-      <c r="B230" s="22"/>
-      <c r="C230" s="22"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="25"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="22"/>
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="22"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="25"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -5509,16 +5509,16 @@
       <c r="A235" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B235" s="25" t="s">
+      <c r="B235" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C235" s="25"/>
+      <c r="C235" s="24"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="24" t="s">
+      <c r="A236" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="24"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="5" t="s">
         <v>1</v>
       </c>
@@ -5531,16 +5531,16 @@
       <c r="C237" s="23"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="25" t="s">
+      <c r="A238" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B238" s="25"/>
-      <c r="C238" s="25"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
     </row>
     <row r="239" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="25"/>
-      <c r="B239" s="25"/>
-      <c r="C239" s="25"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="24"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
@@ -5550,19 +5550,19 @@
       <c r="C240" s="23"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="22"/>
-      <c r="B241" s="22"/>
-      <c r="C241" s="22"/>
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="22"/>
-      <c r="B242" s="22"/>
-      <c r="C242" s="22"/>
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="22"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="25"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
@@ -5585,10 +5585,10 @@
       <c r="C246" s="23"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="24" t="s">
+      <c r="A247" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="24"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="5" t="s">
         <v>1</v>
       </c>
@@ -5601,16 +5601,16 @@
       <c r="C248" s="23"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="24" t="s">
+      <c r="A249" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B249" s="24"/>
-      <c r="C249" s="24"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="22"/>
     </row>
     <row r="250" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="24"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="24"/>
+      <c r="A250" s="22"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="22"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
@@ -5620,19 +5620,19 @@
       <c r="C251" s="23"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="22"/>
-      <c r="B252" s="22"/>
-      <c r="C252" s="22"/>
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="25"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="22"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="22"/>
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="25"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
@@ -5655,10 +5655,10 @@
       <c r="C257" s="23"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="24" t="s">
+      <c r="A258" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="24"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="5" t="s">
         <v>1</v>
       </c>
@@ -5671,16 +5671,16 @@
       <c r="C259" s="23"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="24" t="s">
+      <c r="A260" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B260" s="24"/>
-      <c r="C260" s="24"/>
+      <c r="B260" s="22"/>
+      <c r="C260" s="22"/>
     </row>
     <row r="261" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
-      <c r="C261" s="24"/>
+      <c r="A261" s="22"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="22"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
@@ -5690,19 +5690,19 @@
       <c r="C262" s="23"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="22"/>
-      <c r="B263" s="22"/>
-      <c r="C263" s="22"/>
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="22"/>
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="25"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="22"/>
-      <c r="B265" s="22"/>
-      <c r="C265" s="22"/>
+      <c r="A265" s="25"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="25"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
@@ -5725,10 +5725,10 @@
       <c r="C269" s="23"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="24" t="s">
+      <c r="A270" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="24"/>
+      <c r="B270" s="22"/>
       <c r="C270" s="11" t="s">
         <v>1</v>
       </c>
@@ -5741,16 +5741,16 @@
       <c r="C271" s="23"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="24" t="s">
+      <c r="A272" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B272" s="24"/>
-      <c r="C272" s="24"/>
+      <c r="B272" s="22"/>
+      <c r="C272" s="22"/>
     </row>
     <row r="273" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="24"/>
-      <c r="B273" s="24"/>
-      <c r="C273" s="24"/>
+      <c r="A273" s="22"/>
+      <c r="B273" s="22"/>
+      <c r="C273" s="22"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
@@ -5760,19 +5760,19 @@
       <c r="C274" s="23"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="22"/>
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
+      <c r="A275" s="25"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="25"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="22"/>
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
+      <c r="A276" s="25"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="25"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="22"/>
-      <c r="B277" s="22"/>
-      <c r="C277" s="22"/>
+      <c r="A277" s="25"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="25"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -5795,10 +5795,10 @@
       <c r="C280" s="23"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="24" t="s">
+      <c r="A281" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="24"/>
+      <c r="B281" s="22"/>
       <c r="C281" s="11" t="s">
         <v>1</v>
       </c>
@@ -5811,16 +5811,16 @@
       <c r="C282" s="23"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="24" t="s">
+      <c r="A283" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B283" s="24"/>
-      <c r="C283" s="24"/>
+      <c r="B283" s="22"/>
+      <c r="C283" s="22"/>
     </row>
     <row r="284" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="24"/>
-      <c r="B284" s="24"/>
-      <c r="C284" s="24"/>
+      <c r="A284" s="22"/>
+      <c r="B284" s="22"/>
+      <c r="C284" s="22"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
@@ -5830,19 +5830,19 @@
       <c r="C285" s="23"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="22"/>
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
+      <c r="A286" s="25"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="25"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="22"/>
-      <c r="B287" s="22"/>
-      <c r="C287" s="22"/>
+      <c r="A287" s="25"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="25"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="22"/>
-      <c r="B288" s="22"/>
-      <c r="C288" s="22"/>
+      <c r="A288" s="25"/>
+      <c r="B288" s="25"/>
+      <c r="C288" s="25"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
@@ -5865,10 +5865,10 @@
       <c r="C291" s="23"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="24" t="s">
+      <c r="A292" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="24"/>
+      <c r="B292" s="22"/>
       <c r="C292" s="11" t="s">
         <v>1</v>
       </c>
@@ -5881,16 +5881,16 @@
       <c r="C293" s="23"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="24" t="s">
+      <c r="A294" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B294" s="24"/>
-      <c r="C294" s="24"/>
+      <c r="B294" s="22"/>
+      <c r="C294" s="22"/>
     </row>
     <row r="295" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="24"/>
-      <c r="B295" s="24"/>
-      <c r="C295" s="24"/>
+      <c r="A295" s="22"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="22"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
@@ -5900,19 +5900,19 @@
       <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="22"/>
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
+      <c r="A297" s="25"/>
+      <c r="B297" s="25"/>
+      <c r="C297" s="25"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="22"/>
-      <c r="B298" s="22"/>
-      <c r="C298" s="22"/>
+      <c r="A298" s="25"/>
+      <c r="B298" s="25"/>
+      <c r="C298" s="25"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="22"/>
-      <c r="B299" s="22"/>
-      <c r="C299" s="22"/>
+      <c r="A299" s="25"/>
+      <c r="B299" s="25"/>
+      <c r="C299" s="25"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
@@ -5935,10 +5935,10 @@
       <c r="C302" s="23"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="24" t="s">
+      <c r="A303" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="24"/>
+      <c r="B303" s="22"/>
       <c r="C303" s="11" t="s">
         <v>1</v>
       </c>
@@ -5951,16 +5951,16 @@
       <c r="C304" s="23"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="24" t="s">
+      <c r="A305" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B305" s="24"/>
-      <c r="C305" s="24"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="22"/>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="24"/>
-      <c r="B306" s="24"/>
-      <c r="C306" s="24"/>
+      <c r="A306" s="22"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="22"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
@@ -5970,19 +5970,19 @@
       <c r="C307" s="23"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="22"/>
-      <c r="B308" s="22"/>
-      <c r="C308" s="22"/>
+      <c r="A308" s="25"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="25"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="22"/>
-      <c r="B309" s="22"/>
-      <c r="C309" s="22"/>
+      <c r="A309" s="25"/>
+      <c r="B309" s="25"/>
+      <c r="C309" s="25"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="22"/>
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
+      <c r="A310" s="25"/>
+      <c r="B310" s="25"/>
+      <c r="C310" s="25"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
@@ -6005,10 +6005,10 @@
       <c r="C313" s="23"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="24" t="s">
+      <c r="A314" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="24"/>
+      <c r="B314" s="22"/>
       <c r="C314" s="11" t="s">
         <v>1</v>
       </c>
@@ -6021,16 +6021,16 @@
       <c r="C315" s="23"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="24" t="s">
+      <c r="A316" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B316" s="24"/>
-      <c r="C316" s="24"/>
+      <c r="B316" s="22"/>
+      <c r="C316" s="22"/>
     </row>
     <row r="317" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="24"/>
-      <c r="B317" s="24"/>
-      <c r="C317" s="24"/>
+      <c r="A317" s="22"/>
+      <c r="B317" s="22"/>
+      <c r="C317" s="22"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
@@ -6040,19 +6040,19 @@
       <c r="C318" s="23"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="22"/>
-      <c r="B319" s="22"/>
-      <c r="C319" s="22"/>
+      <c r="A319" s="25"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="25"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="22"/>
-      <c r="B320" s="22"/>
-      <c r="C320" s="22"/>
+      <c r="A320" s="25"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="25"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="22"/>
-      <c r="B321" s="22"/>
-      <c r="C321" s="22"/>
+      <c r="A321" s="25"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="25"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
@@ -6075,10 +6075,10 @@
       <c r="C324" s="23"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="24" t="s">
+      <c r="A325" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="24"/>
+      <c r="B325" s="22"/>
       <c r="C325" s="11" t="s">
         <v>1</v>
       </c>
@@ -6091,16 +6091,16 @@
       <c r="C326" s="23"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="24" t="s">
+      <c r="A327" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B327" s="24"/>
-      <c r="C327" s="24"/>
+      <c r="B327" s="22"/>
+      <c r="C327" s="22"/>
     </row>
     <row r="328" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="24"/>
-      <c r="B328" s="24"/>
-      <c r="C328" s="24"/>
+      <c r="A328" s="22"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="22"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
@@ -6110,19 +6110,19 @@
       <c r="C329" s="23"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="22"/>
-      <c r="B330" s="22"/>
-      <c r="C330" s="22"/>
+      <c r="A330" s="25"/>
+      <c r="B330" s="25"/>
+      <c r="C330" s="25"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="22"/>
-      <c r="B331" s="22"/>
-      <c r="C331" s="22"/>
+      <c r="A331" s="25"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="25"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="22"/>
-      <c r="B332" s="22"/>
-      <c r="C332" s="22"/>
+      <c r="A332" s="25"/>
+      <c r="B332" s="25"/>
+      <c r="C332" s="25"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
@@ -6145,10 +6145,10 @@
       <c r="C335" s="23"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="24"/>
+      <c r="B336" s="22"/>
       <c r="C336" s="11" t="s">
         <v>1</v>
       </c>
@@ -6161,16 +6161,16 @@
       <c r="C337" s="23"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="24" t="s">
+      <c r="A338" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B338" s="24"/>
-      <c r="C338" s="24"/>
+      <c r="B338" s="22"/>
+      <c r="C338" s="22"/>
     </row>
     <row r="339" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="24"/>
-      <c r="B339" s="24"/>
-      <c r="C339" s="24"/>
+      <c r="A339" s="22"/>
+      <c r="B339" s="22"/>
+      <c r="C339" s="22"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
@@ -6180,19 +6180,19 @@
       <c r="C340" s="23"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="22"/>
-      <c r="B341" s="22"/>
-      <c r="C341" s="22"/>
+      <c r="A341" s="25"/>
+      <c r="B341" s="25"/>
+      <c r="C341" s="25"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="22"/>
-      <c r="B342" s="22"/>
-      <c r="C342" s="22"/>
+      <c r="A342" s="25"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="25"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="22"/>
-      <c r="B343" s="22"/>
-      <c r="C343" s="22"/>
+      <c r="A343" s="25"/>
+      <c r="B343" s="25"/>
+      <c r="C343" s="25"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
@@ -6215,10 +6215,10 @@
       <c r="C346" s="23"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="24" t="s">
+      <c r="A347" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B347" s="24"/>
+      <c r="B347" s="22"/>
       <c r="C347" s="11" t="s">
         <v>1</v>
       </c>
@@ -6231,16 +6231,16 @@
       <c r="C348" s="23"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="24" t="s">
+      <c r="A349" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B349" s="24"/>
-      <c r="C349" s="24"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="22"/>
     </row>
     <row r="350" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="24"/>
-      <c r="B350" s="24"/>
-      <c r="C350" s="24"/>
+      <c r="A350" s="22"/>
+      <c r="B350" s="22"/>
+      <c r="C350" s="22"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
@@ -6250,19 +6250,19 @@
       <c r="C351" s="23"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="22"/>
-      <c r="B352" s="22"/>
-      <c r="C352" s="22"/>
+      <c r="A352" s="25"/>
+      <c r="B352" s="25"/>
+      <c r="C352" s="25"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="22"/>
-      <c r="B353" s="22"/>
-      <c r="C353" s="22"/>
+      <c r="A353" s="25"/>
+      <c r="B353" s="25"/>
+      <c r="C353" s="25"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="22"/>
-      <c r="B354" s="22"/>
-      <c r="C354" s="22"/>
+      <c r="A354" s="25"/>
+      <c r="B354" s="25"/>
+      <c r="C354" s="25"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
@@ -6285,10 +6285,10 @@
       <c r="C357" s="23"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="24" t="s">
+      <c r="A358" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B358" s="24"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="11" t="s">
         <v>1</v>
       </c>
@@ -6301,16 +6301,16 @@
       <c r="C359" s="23"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="24" t="s">
+      <c r="A360" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B360" s="24"/>
-      <c r="C360" s="24"/>
+      <c r="B360" s="22"/>
+      <c r="C360" s="22"/>
     </row>
     <row r="361" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="24"/>
-      <c r="B361" s="24"/>
-      <c r="C361" s="24"/>
+      <c r="A361" s="22"/>
+      <c r="B361" s="22"/>
+      <c r="C361" s="22"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
@@ -6320,19 +6320,19 @@
       <c r="C362" s="23"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="22"/>
-      <c r="B363" s="22"/>
-      <c r="C363" s="22"/>
+      <c r="A363" s="25"/>
+      <c r="B363" s="25"/>
+      <c r="C363" s="25"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="22"/>
-      <c r="B364" s="22"/>
-      <c r="C364" s="22"/>
+      <c r="A364" s="25"/>
+      <c r="B364" s="25"/>
+      <c r="C364" s="25"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="22"/>
-      <c r="B365" s="22"/>
-      <c r="C365" s="22"/>
+      <c r="A365" s="25"/>
+      <c r="B365" s="25"/>
+      <c r="C365" s="25"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
@@ -6355,10 +6355,10 @@
       <c r="C368" s="23"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="24" t="s">
+      <c r="A369" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="24"/>
+      <c r="B369" s="22"/>
       <c r="C369" s="11" t="s">
         <v>1</v>
       </c>
@@ -6371,16 +6371,16 @@
       <c r="C370" s="23"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="24" t="s">
+      <c r="A371" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B371" s="24"/>
-      <c r="C371" s="24"/>
+      <c r="B371" s="22"/>
+      <c r="C371" s="22"/>
     </row>
     <row r="372" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="24"/>
-      <c r="B372" s="24"/>
-      <c r="C372" s="24"/>
+      <c r="A372" s="22"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="22"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
@@ -6390,19 +6390,19 @@
       <c r="C373" s="23"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="22"/>
-      <c r="B374" s="22"/>
-      <c r="C374" s="22"/>
+      <c r="A374" s="25"/>
+      <c r="B374" s="25"/>
+      <c r="C374" s="25"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="22"/>
-      <c r="B375" s="22"/>
-      <c r="C375" s="22"/>
+      <c r="A375" s="25"/>
+      <c r="B375" s="25"/>
+      <c r="C375" s="25"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="22"/>
-      <c r="B376" s="22"/>
-      <c r="C376" s="22"/>
+      <c r="A376" s="25"/>
+      <c r="B376" s="25"/>
+      <c r="C376" s="25"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
@@ -6425,10 +6425,10 @@
       <c r="C379" s="23"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="24" t="s">
+      <c r="A380" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B380" s="24"/>
+      <c r="B380" s="22"/>
       <c r="C380" s="11" t="s">
         <v>1</v>
       </c>
@@ -6441,16 +6441,16 @@
       <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="24" t="s">
+      <c r="A382" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B382" s="24"/>
-      <c r="C382" s="24"/>
+      <c r="B382" s="22"/>
+      <c r="C382" s="22"/>
     </row>
     <row r="383" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="24"/>
-      <c r="B383" s="24"/>
-      <c r="C383" s="24"/>
+      <c r="A383" s="22"/>
+      <c r="B383" s="22"/>
+      <c r="C383" s="22"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
@@ -6460,19 +6460,19 @@
       <c r="C384" s="23"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="22"/>
-      <c r="B385" s="22"/>
-      <c r="C385" s="22"/>
+      <c r="A385" s="25"/>
+      <c r="B385" s="25"/>
+      <c r="C385" s="25"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="22"/>
-      <c r="B386" s="22"/>
-      <c r="C386" s="22"/>
+      <c r="A386" s="25"/>
+      <c r="B386" s="25"/>
+      <c r="C386" s="25"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="22"/>
-      <c r="B387" s="22"/>
-      <c r="C387" s="22"/>
+      <c r="A387" s="25"/>
+      <c r="B387" s="25"/>
+      <c r="C387" s="25"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
@@ -6495,10 +6495,10 @@
       <c r="C390" s="23"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="24" t="s">
+      <c r="A391" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="24"/>
+      <c r="B391" s="22"/>
       <c r="C391" s="11" t="s">
         <v>1</v>
       </c>
@@ -6511,16 +6511,16 @@
       <c r="C392" s="23"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="24" t="s">
+      <c r="A393" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="B393" s="24"/>
-      <c r="C393" s="24"/>
+      <c r="B393" s="22"/>
+      <c r="C393" s="22"/>
     </row>
     <row r="394" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="24"/>
-      <c r="B394" s="24"/>
-      <c r="C394" s="24"/>
+      <c r="A394" s="22"/>
+      <c r="B394" s="22"/>
+      <c r="C394" s="22"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
@@ -6530,19 +6530,19 @@
       <c r="C395" s="23"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="22"/>
-      <c r="B396" s="22"/>
-      <c r="C396" s="22"/>
+      <c r="A396" s="25"/>
+      <c r="B396" s="25"/>
+      <c r="C396" s="25"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="22"/>
-      <c r="B397" s="22"/>
-      <c r="C397" s="22"/>
+      <c r="A397" s="25"/>
+      <c r="B397" s="25"/>
+      <c r="C397" s="25"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="22"/>
-      <c r="B398" s="22"/>
-      <c r="C398" s="22"/>
+      <c r="A398" s="25"/>
+      <c r="B398" s="25"/>
+      <c r="C398" s="25"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
@@ -6565,10 +6565,10 @@
       <c r="C401" s="23"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="24" t="s">
+      <c r="A402" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B402" s="24"/>
+      <c r="B402" s="22"/>
       <c r="C402" s="11" t="s">
         <v>1</v>
       </c>
@@ -6581,16 +6581,16 @@
       <c r="C403" s="23"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="24" t="s">
+      <c r="A404" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B404" s="24"/>
-      <c r="C404" s="24"/>
+      <c r="B404" s="22"/>
+      <c r="C404" s="22"/>
     </row>
     <row r="405" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="24"/>
-      <c r="B405" s="24"/>
-      <c r="C405" s="24"/>
+      <c r="A405" s="22"/>
+      <c r="B405" s="22"/>
+      <c r="C405" s="22"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
@@ -6600,19 +6600,19 @@
       <c r="C406" s="23"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="22"/>
-      <c r="B407" s="22"/>
-      <c r="C407" s="22"/>
+      <c r="A407" s="25"/>
+      <c r="B407" s="25"/>
+      <c r="C407" s="25"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="22"/>
-      <c r="B408" s="22"/>
-      <c r="C408" s="22"/>
+      <c r="A408" s="25"/>
+      <c r="B408" s="25"/>
+      <c r="C408" s="25"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="22"/>
-      <c r="B409" s="22"/>
-      <c r="C409" s="22"/>
+      <c r="A409" s="25"/>
+      <c r="B409" s="25"/>
+      <c r="C409" s="25"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
@@ -6635,10 +6635,10 @@
       <c r="C412" s="23"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="24" t="s">
+      <c r="A413" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B413" s="24"/>
+      <c r="B413" s="22"/>
       <c r="C413" s="11" t="s">
         <v>1</v>
       </c>
@@ -6651,16 +6651,16 @@
       <c r="C414" s="23"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="24" t="s">
+      <c r="A415" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B415" s="24"/>
-      <c r="C415" s="24"/>
+      <c r="B415" s="22"/>
+      <c r="C415" s="22"/>
     </row>
     <row r="416" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="24"/>
-      <c r="B416" s="24"/>
-      <c r="C416" s="24"/>
+      <c r="A416" s="22"/>
+      <c r="B416" s="22"/>
+      <c r="C416" s="22"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
@@ -6670,19 +6670,19 @@
       <c r="C417" s="23"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="22"/>
-      <c r="B418" s="22"/>
-      <c r="C418" s="22"/>
+      <c r="A418" s="25"/>
+      <c r="B418" s="25"/>
+      <c r="C418" s="25"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="22"/>
-      <c r="B419" s="22"/>
-      <c r="C419" s="22"/>
+      <c r="A419" s="25"/>
+      <c r="B419" s="25"/>
+      <c r="C419" s="25"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="22"/>
-      <c r="B420" s="22"/>
-      <c r="C420" s="22"/>
+      <c r="A420" s="25"/>
+      <c r="B420" s="25"/>
+      <c r="C420" s="25"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
@@ -6705,10 +6705,10 @@
       <c r="C423" s="23"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="24" t="s">
+      <c r="A424" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B424" s="24"/>
+      <c r="B424" s="22"/>
       <c r="C424" s="11" t="s">
         <v>1</v>
       </c>
@@ -6721,16 +6721,16 @@
       <c r="C425" s="23"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="24" t="s">
+      <c r="A426" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B426" s="24"/>
-      <c r="C426" s="24"/>
+      <c r="B426" s="22"/>
+      <c r="C426" s="22"/>
     </row>
     <row r="427" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="24"/>
-      <c r="B427" s="24"/>
-      <c r="C427" s="24"/>
+      <c r="A427" s="22"/>
+      <c r="B427" s="22"/>
+      <c r="C427" s="22"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
@@ -6740,19 +6740,19 @@
       <c r="C428" s="23"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="22"/>
-      <c r="B429" s="22"/>
-      <c r="C429" s="22"/>
+      <c r="A429" s="25"/>
+      <c r="B429" s="25"/>
+      <c r="C429" s="25"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="22"/>
-      <c r="B430" s="22"/>
-      <c r="C430" s="22"/>
+      <c r="A430" s="25"/>
+      <c r="B430" s="25"/>
+      <c r="C430" s="25"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="22"/>
-      <c r="B431" s="22"/>
-      <c r="C431" s="22"/>
+      <c r="A431" s="25"/>
+      <c r="B431" s="25"/>
+      <c r="C431" s="25"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
@@ -6775,10 +6775,10 @@
       <c r="C434" s="23"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="24" t="s">
+      <c r="A435" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B435" s="24"/>
+      <c r="B435" s="22"/>
       <c r="C435" s="11" t="s">
         <v>1</v>
       </c>
@@ -6791,16 +6791,16 @@
       <c r="C436" s="23"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="24" t="s">
+      <c r="A437" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B437" s="24"/>
-      <c r="C437" s="24"/>
+      <c r="B437" s="22"/>
+      <c r="C437" s="22"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="24"/>
-      <c r="B438" s="24"/>
-      <c r="C438" s="24"/>
+      <c r="A438" s="22"/>
+      <c r="B438" s="22"/>
+      <c r="C438" s="22"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
@@ -6810,19 +6810,19 @@
       <c r="C439" s="23"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="22"/>
-      <c r="B440" s="22"/>
-      <c r="C440" s="22"/>
+      <c r="A440" s="25"/>
+      <c r="B440" s="25"/>
+      <c r="C440" s="25"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="22"/>
-      <c r="B441" s="22"/>
-      <c r="C441" s="22"/>
+      <c r="A441" s="25"/>
+      <c r="B441" s="25"/>
+      <c r="C441" s="25"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="22"/>
-      <c r="B442" s="22"/>
-      <c r="C442" s="22"/>
+      <c r="A442" s="25"/>
+      <c r="B442" s="25"/>
+      <c r="C442" s="25"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
@@ -6845,10 +6845,10 @@
       <c r="C445" s="23"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="24" t="s">
+      <c r="A446" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B446" s="24"/>
+      <c r="B446" s="22"/>
       <c r="C446" s="11" t="s">
         <v>1</v>
       </c>
@@ -6861,16 +6861,16 @@
       <c r="C447" s="23"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="24" t="s">
+      <c r="A448" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B448" s="24"/>
-      <c r="C448" s="24"/>
+      <c r="B448" s="22"/>
+      <c r="C448" s="22"/>
     </row>
     <row r="449" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="24"/>
-      <c r="B449" s="24"/>
-      <c r="C449" s="24"/>
+      <c r="A449" s="22"/>
+      <c r="B449" s="22"/>
+      <c r="C449" s="22"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
@@ -6880,19 +6880,19 @@
       <c r="C450" s="23"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="22"/>
-      <c r="B451" s="22"/>
-      <c r="C451" s="22"/>
+      <c r="A451" s="25"/>
+      <c r="B451" s="25"/>
+      <c r="C451" s="25"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="22"/>
-      <c r="B452" s="22"/>
-      <c r="C452" s="22"/>
+      <c r="A452" s="25"/>
+      <c r="B452" s="25"/>
+      <c r="C452" s="25"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="22"/>
-      <c r="B453" s="22"/>
-      <c r="C453" s="22"/>
+      <c r="A453" s="25"/>
+      <c r="B453" s="25"/>
+      <c r="C453" s="25"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
@@ -6915,10 +6915,10 @@
       <c r="C456" s="23"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="24" t="s">
+      <c r="A457" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B457" s="24"/>
+      <c r="B457" s="22"/>
       <c r="C457" s="11" t="s">
         <v>1</v>
       </c>
@@ -6931,16 +6931,16 @@
       <c r="C458" s="23"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="24" t="s">
+      <c r="A459" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B459" s="24"/>
-      <c r="C459" s="24"/>
+      <c r="B459" s="22"/>
+      <c r="C459" s="22"/>
     </row>
     <row r="460" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="24"/>
-      <c r="B460" s="24"/>
-      <c r="C460" s="24"/>
+      <c r="A460" s="22"/>
+      <c r="B460" s="22"/>
+      <c r="C460" s="22"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
@@ -6950,19 +6950,19 @@
       <c r="C461" s="23"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="22"/>
-      <c r="B462" s="22"/>
-      <c r="C462" s="22"/>
+      <c r="A462" s="25"/>
+      <c r="B462" s="25"/>
+      <c r="C462" s="25"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="22"/>
-      <c r="B463" s="22"/>
-      <c r="C463" s="22"/>
+      <c r="A463" s="25"/>
+      <c r="B463" s="25"/>
+      <c r="C463" s="25"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="22"/>
-      <c r="B464" s="22"/>
-      <c r="C464" s="22"/>
+      <c r="A464" s="25"/>
+      <c r="B464" s="25"/>
+      <c r="C464" s="25"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
@@ -6985,10 +6985,10 @@
       <c r="C467" s="23"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="24" t="s">
+      <c r="A468" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B468" s="24"/>
+      <c r="B468" s="22"/>
       <c r="C468" s="11" t="s">
         <v>1</v>
       </c>
@@ -7001,16 +7001,16 @@
       <c r="C469" s="23"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="24" t="s">
+      <c r="A470" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B470" s="24"/>
-      <c r="C470" s="24"/>
+      <c r="B470" s="22"/>
+      <c r="C470" s="22"/>
     </row>
     <row r="471" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="24"/>
-      <c r="B471" s="24"/>
-      <c r="C471" s="24"/>
+      <c r="A471" s="22"/>
+      <c r="B471" s="22"/>
+      <c r="C471" s="22"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
@@ -7020,19 +7020,19 @@
       <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="22"/>
-      <c r="B473" s="22"/>
-      <c r="C473" s="22"/>
+      <c r="A473" s="25"/>
+      <c r="B473" s="25"/>
+      <c r="C473" s="25"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="22"/>
-      <c r="B474" s="22"/>
-      <c r="C474" s="22"/>
+      <c r="A474" s="25"/>
+      <c r="B474" s="25"/>
+      <c r="C474" s="25"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="22"/>
-      <c r="B475" s="22"/>
-      <c r="C475" s="22"/>
+      <c r="A475" s="25"/>
+      <c r="B475" s="25"/>
+      <c r="C475" s="25"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
@@ -7049,16 +7049,16 @@
       <c r="A478" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B478" s="25" t="s">
+      <c r="B478" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C478" s="25"/>
+      <c r="C478" s="24"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="24" t="s">
+      <c r="A479" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B479" s="24"/>
+      <c r="B479" s="22"/>
       <c r="C479" s="11" t="s">
         <v>1</v>
       </c>
@@ -7071,16 +7071,16 @@
       <c r="C480" s="23"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="25" t="s">
+      <c r="A481" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B481" s="25"/>
-      <c r="C481" s="25"/>
+      <c r="B481" s="24"/>
+      <c r="C481" s="24"/>
     </row>
     <row r="482" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="25"/>
-      <c r="B482" s="25"/>
-      <c r="C482" s="25"/>
+      <c r="A482" s="24"/>
+      <c r="B482" s="24"/>
+      <c r="C482" s="24"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
@@ -7090,19 +7090,19 @@
       <c r="C483" s="23"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="22"/>
-      <c r="B484" s="22"/>
-      <c r="C484" s="22"/>
+      <c r="A484" s="25"/>
+      <c r="B484" s="25"/>
+      <c r="C484" s="25"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="22"/>
-      <c r="B485" s="22"/>
-      <c r="C485" s="22"/>
+      <c r="A485" s="25"/>
+      <c r="B485" s="25"/>
+      <c r="C485" s="25"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="22"/>
-      <c r="B486" s="22"/>
-      <c r="C486" s="22"/>
+      <c r="A486" s="25"/>
+      <c r="B486" s="25"/>
+      <c r="C486" s="25"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
@@ -7119,16 +7119,16 @@
       <c r="A489" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B489" s="25" t="s">
+      <c r="B489" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C489" s="25"/>
+      <c r="C489" s="24"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="24" t="s">
+      <c r="A490" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="24"/>
+      <c r="B490" s="22"/>
       <c r="C490" s="11" t="s">
         <v>1</v>
       </c>
@@ -7141,16 +7141,16 @@
       <c r="C491" s="23"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="25" t="s">
+      <c r="A492" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B492" s="25"/>
-      <c r="C492" s="25"/>
+      <c r="B492" s="24"/>
+      <c r="C492" s="24"/>
     </row>
     <row r="493" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="25"/>
-      <c r="B493" s="25"/>
-      <c r="C493" s="25"/>
+      <c r="A493" s="24"/>
+      <c r="B493" s="24"/>
+      <c r="C493" s="24"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
@@ -7160,19 +7160,19 @@
       <c r="C494" s="23"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="22"/>
-      <c r="B495" s="22"/>
-      <c r="C495" s="22"/>
+      <c r="A495" s="25"/>
+      <c r="B495" s="25"/>
+      <c r="C495" s="25"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="22"/>
-      <c r="B496" s="22"/>
-      <c r="C496" s="22"/>
+      <c r="A496" s="25"/>
+      <c r="B496" s="25"/>
+      <c r="C496" s="25"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="22"/>
-      <c r="B497" s="22"/>
-      <c r="C497" s="22"/>
+      <c r="A497" s="25"/>
+      <c r="B497" s="25"/>
+      <c r="C497" s="25"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
@@ -7195,10 +7195,10 @@
       <c r="C500" s="23"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="24" t="s">
+      <c r="A501" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B501" s="24"/>
+      <c r="B501" s="22"/>
       <c r="C501" s="11" t="s">
         <v>1</v>
       </c>
@@ -7211,16 +7211,16 @@
       <c r="C502" s="23"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="24" t="s">
+      <c r="A503" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B503" s="24"/>
-      <c r="C503" s="24"/>
+      <c r="B503" s="22"/>
+      <c r="C503" s="22"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="24"/>
-      <c r="B504" s="24"/>
-      <c r="C504" s="24"/>
+      <c r="A504" s="22"/>
+      <c r="B504" s="22"/>
+      <c r="C504" s="22"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
@@ -7230,19 +7230,19 @@
       <c r="C505" s="23"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="22"/>
-      <c r="B506" s="22"/>
-      <c r="C506" s="22"/>
+      <c r="A506" s="25"/>
+      <c r="B506" s="25"/>
+      <c r="C506" s="25"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="22"/>
-      <c r="B507" s="22"/>
-      <c r="C507" s="22"/>
+      <c r="A507" s="25"/>
+      <c r="B507" s="25"/>
+      <c r="C507" s="25"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="22"/>
-      <c r="B508" s="22"/>
-      <c r="C508" s="22"/>
+      <c r="A508" s="25"/>
+      <c r="B508" s="25"/>
+      <c r="C508" s="25"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -7265,10 +7265,10 @@
       <c r="C511" s="23"/>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="24" t="s">
+      <c r="A512" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B512" s="24"/>
+      <c r="B512" s="22"/>
       <c r="C512" s="11" t="s">
         <v>1</v>
       </c>
@@ -7281,16 +7281,16 @@
       <c r="C513" s="23"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="24" t="s">
+      <c r="A514" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B514" s="24"/>
-      <c r="C514" s="24"/>
+      <c r="B514" s="22"/>
+      <c r="C514" s="22"/>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="24"/>
-      <c r="B515" s="24"/>
-      <c r="C515" s="24"/>
+      <c r="A515" s="22"/>
+      <c r="B515" s="22"/>
+      <c r="C515" s="22"/>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
@@ -7300,19 +7300,19 @@
       <c r="C516" s="23"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="22"/>
-      <c r="B517" s="22"/>
-      <c r="C517" s="22"/>
+      <c r="A517" s="25"/>
+      <c r="B517" s="25"/>
+      <c r="C517" s="25"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="22"/>
-      <c r="B518" s="22"/>
-      <c r="C518" s="22"/>
+      <c r="A518" s="25"/>
+      <c r="B518" s="25"/>
+      <c r="C518" s="25"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="22"/>
-      <c r="B519" s="22"/>
-      <c r="C519" s="22"/>
+      <c r="A519" s="25"/>
+      <c r="B519" s="25"/>
+      <c r="C519" s="25"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
@@ -7321,35 +7321,331 @@
     </row>
   </sheetData>
   <mergeCells count="378">
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C217"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C515"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A492:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A437:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C449"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A393:C394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A398:C398"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A382:C383"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A360:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A327:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C339"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C138"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C94"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:C37"/>
@@ -7374,331 +7670,35 @@
     <mergeCell ref="A220:C220"/>
     <mergeCell ref="A221:C221"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C94"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C138"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="A391:B391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A393:C394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A398:C398"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A382:C383"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A437:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C449"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A492:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C515"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C217"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7738,10 +7738,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7754,16 +7754,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7773,19 +7773,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7800,26 +7800,26 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
@@ -7834,26 +7834,26 @@
       <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -7868,26 +7868,26 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
@@ -7902,26 +7902,26 @@
       <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7936,26 +7936,26 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
@@ -7970,26 +7970,26 @@
       <c r="C39" s="54"/>
     </row>
     <row r="40" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -8004,26 +8004,26 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
     </row>
     <row r="49" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
@@ -8038,26 +8038,26 @@
       <c r="C50" s="54"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -8072,26 +8072,26 @@
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="42"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
@@ -8106,26 +8106,26 @@
       <c r="C61" s="54"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -8140,26 +8140,26 @@
       <c r="A68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="30"/>
+      <c r="C68" s="42"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="35"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
@@ -8174,26 +8174,26 @@
       <c r="C72" s="54"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="30"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -8208,26 +8208,26 @@
       <c r="A80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="30"/>
+      <c r="C80" s="42"/>
     </row>
     <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="35"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="30"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
     </row>
     <row r="83" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
@@ -8242,26 +8242,26 @@
       <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="30"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
     </row>
     <row r="87" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -8276,26 +8276,26 @@
       <c r="A91" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="30"/>
+      <c r="C91" s="42"/>
     </row>
     <row r="92" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="35"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="30"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
@@ -8310,26 +8310,26 @@
       <c r="C95" s="54"/>
     </row>
     <row r="96" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="30"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="33"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -8344,26 +8344,26 @@
       <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="30"/>
+      <c r="C102" s="42"/>
     </row>
     <row r="103" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="35"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="30"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
@@ -8378,26 +8378,26 @@
       <c r="C106" s="54"/>
     </row>
     <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="36"/>
-      <c r="C107" s="30"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="33"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -8412,26 +8412,26 @@
       <c r="A113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="30"/>
+      <c r="C113" s="42"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="35"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="30"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="42"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="49" t="s">
@@ -8446,26 +8446,26 @@
       <c r="C117" s="54"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="30"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="42"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="33"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="37"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -8480,26 +8480,26 @@
       <c r="A124" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="30"/>
+      <c r="C124" s="42"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="35"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="36"/>
-      <c r="C126" s="30"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
@@ -8514,29 +8514,109 @@
       <c r="C128" s="54"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="36"/>
-      <c r="C129" s="30"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="42"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="33"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="37"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C95"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A116:C117"/>
     <mergeCell ref="A49:C50"/>
     <mergeCell ref="A51:C51"/>
@@ -8553,86 +8633,6 @@
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C84"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
+++ b/HISTORIAS DE USUARIO EXCEL V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mintic\ProyectoTic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10467CFD-687E-448A-96B5-3269EEDAA11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83306F28-08C6-4DDF-9838-CF1D596F69EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,17 +2047,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2068,23 +2068,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
@@ -2101,13 +2089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2127,6 +2109,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2521,7 +2521,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
@@ -2553,10 +2553,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2569,16 +2569,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -2588,19 +2588,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2623,10 +2623,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2639,16 +2639,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -2658,19 +2658,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,10 +2694,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -2710,16 +2710,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2729,14 +2729,14 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2753,16 +2753,16 @@
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
@@ -2775,16 +2775,16 @@
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
@@ -2794,19 +2794,19 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -2829,10 +2829,10 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2845,16 +2845,16 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -2864,19 +2864,19 @@
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2899,10 +2899,10 @@
       <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2915,16 +2915,16 @@
       <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
@@ -2934,30 +2934,50 @@
       <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C38"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -2969,34 +2989,14 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="A61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3009,7 +3009,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C24"/>
     </sheetView>
   </sheetViews>
@@ -3041,10 +3041,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3057,16 +3057,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -3076,9 +3076,9 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3101,10 +3101,10 @@
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3131,11 +3131,11 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="E14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3145,9 +3145,9 @@
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3167,9 +3167,9 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -3197,10 +3197,10 @@
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3213,16 +3213,16 @@
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
@@ -3232,29 +3232,29 @@
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3277,10 +3277,10 @@
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>1</v>
       </c>
@@ -3293,16 +3293,16 @@
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
@@ -3312,29 +3312,29 @@
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -3357,10 +3357,10 @@
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3373,16 +3373,16 @@
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -3392,36 +3392,33 @@
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
@@ -3438,17 +3435,20 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3460,8 +3460,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,10 +3499,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3515,16 +3515,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="E6" s="19" t="s">
         <v>52</v>
       </c>
@@ -3548,19 +3548,19 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3583,10 +3583,10 @@
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3599,16 +3599,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -3618,19 +3618,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3653,10 +3653,10 @@
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3669,16 +3669,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="E28" s="19" t="s">
         <v>53</v>
       </c>
@@ -3700,19 +3700,19 @@
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3729,16 +3729,16 @@
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
@@ -3751,16 +3751,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -3770,19 +3770,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -3799,16 +3799,16 @@
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
@@ -3821,16 +3821,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="E50" s="19" t="s">
         <v>54</v>
       </c>
@@ -3844,31 +3844,31 @@
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -3885,70 +3885,91 @@
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A15:C15"/>
@@ -3965,34 +3986,13 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4004,7 +4004,7 @@
   <dimension ref="A1:C522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C6"/>
+      <selection activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,16 +4029,16 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4051,16 +4051,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -4070,19 +4070,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4099,16 +4099,16 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
@@ -4121,16 +4121,16 @@
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4140,19 +4140,19 @@
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4169,16 +4169,16 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
@@ -4191,16 +4191,16 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -4210,19 +4210,19 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4239,16 +4239,16 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
@@ -4261,16 +4261,16 @@
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -4280,19 +4280,19 @@
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -4309,16 +4309,16 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
@@ -4331,16 +4331,16 @@
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
@@ -4350,19 +4350,19 @@
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -4385,10 +4385,10 @@
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
@@ -4401,16 +4401,16 @@
       <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
@@ -4420,19 +4420,19 @@
       <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -4455,10 +4455,10 @@
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="22"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
@@ -4471,16 +4471,16 @@
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
@@ -4490,19 +4490,19 @@
       <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -4525,10 +4525,10 @@
       <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="22"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
@@ -4541,16 +4541,16 @@
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
     </row>
     <row r="83" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
@@ -4560,19 +4560,19 @@
       <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -4595,10 +4595,10 @@
       <c r="C90" s="23"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="22"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="5" t="s">
         <v>1</v>
       </c>
@@ -4611,16 +4611,16 @@
       <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
     </row>
     <row r="94" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
@@ -4630,19 +4630,19 @@
       <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4665,10 +4665,10 @@
       <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="22"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="5" t="s">
         <v>1</v>
       </c>
@@ -4681,16 +4681,16 @@
       <c r="C103" s="23"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
     </row>
     <row r="105" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
@@ -4700,19 +4700,19 @@
       <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4735,10 +4735,10 @@
       <c r="C112" s="23"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="22"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="5" t="s">
         <v>1</v>
       </c>
@@ -4751,16 +4751,16 @@
       <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
@@ -4770,19 +4770,19 @@
       <c r="C117" s="23"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -4805,10 +4805,10 @@
       <c r="C123" s="23"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="22"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="5" t="s">
         <v>1</v>
       </c>
@@ -4821,16 +4821,16 @@
       <c r="C125" s="23"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
     </row>
     <row r="127" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
@@ -4840,19 +4840,19 @@
       <c r="C128" s="23"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -4875,10 +4875,10 @@
       <c r="C134" s="23"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="22"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="5" t="s">
         <v>1</v>
       </c>
@@ -4891,16 +4891,16 @@
       <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
     </row>
     <row r="138" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
@@ -4910,19 +4910,19 @@
       <c r="C139" s="23"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -4939,16 +4939,16 @@
       <c r="A145" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="B145" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C145" s="24"/>
+      <c r="C145" s="25"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="22"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="5" t="s">
         <v>1</v>
       </c>
@@ -4961,16 +4961,16 @@
       <c r="C147" s="23"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
@@ -4980,19 +4980,19 @@
       <c r="C150" s="23"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="25"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="25"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="25"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -5015,10 +5015,10 @@
       <c r="C156" s="23"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="22" t="s">
+      <c r="A157" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="22"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
@@ -5031,16 +5031,16 @@
       <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="22" t="s">
+      <c r="A159" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
@@ -5050,19 +5050,19 @@
       <c r="C161" s="23"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="25"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="25"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -5079,16 +5079,16 @@
       <c r="A167" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B167" s="24" t="s">
+      <c r="B167" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C167" s="24"/>
+      <c r="C167" s="25"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="22" t="s">
+      <c r="A168" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="22"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="5" t="s">
         <v>1</v>
       </c>
@@ -5101,16 +5101,16 @@
       <c r="C169" s="23"/>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="24" t="s">
+      <c r="A170" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
     </row>
     <row r="171" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
@@ -5120,19 +5120,19 @@
       <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="25"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="25"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
@@ -5155,10 +5155,10 @@
       <c r="C178" s="23"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="22" t="s">
+      <c r="A179" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="22"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="5" t="s">
         <v>1</v>
       </c>
@@ -5171,16 +5171,16 @@
       <c r="C180" s="23"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
+      <c r="A181" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
     </row>
     <row r="182" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="22"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
@@ -5190,19 +5190,19 @@
       <c r="C183" s="23"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="25"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="25"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -5219,16 +5219,16 @@
       <c r="A189" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B189" s="24" t="s">
+      <c r="B189" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C189" s="24"/>
+      <c r="C189" s="25"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="22"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="5" t="s">
         <v>1</v>
       </c>
@@ -5241,16 +5241,16 @@
       <c r="C191" s="23"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="24" t="s">
+      <c r="A192" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25"/>
     </row>
     <row r="193" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
@@ -5260,19 +5260,19 @@
       <c r="C194" s="23"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="25"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="25"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="25"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="25"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -5289,16 +5289,16 @@
       <c r="A200" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C200" s="24"/>
+      <c r="C200" s="25"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
+      <c r="A201" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="22"/>
+      <c r="B201" s="24"/>
       <c r="C201" s="11" t="s">
         <v>1</v>
       </c>
@@ -5311,16 +5311,16 @@
       <c r="C202" s="23"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25"/>
     </row>
     <row r="204" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="24"/>
+      <c r="A204" s="25"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="25"/>
     </row>
     <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
@@ -5330,29 +5330,29 @@
       <c r="C205" s="23"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="25"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="25"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="25"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="25"/>
+      <c r="A210" s="22"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5369,16 +5369,16 @@
       <c r="A213" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B213" s="24" t="s">
+      <c r="B213" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C213" s="24"/>
+      <c r="C213" s="25"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="22" t="s">
+      <c r="A214" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="22"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="5" t="s">
         <v>1</v>
       </c>
@@ -5391,16 +5391,16 @@
       <c r="C215" s="23"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="24" t="s">
+      <c r="A216" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="24"/>
-      <c r="C216" s="24"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="25"/>
     </row>
     <row r="217" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="24"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="24"/>
+      <c r="A217" s="25"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="25"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
@@ -5410,19 +5410,19 @@
       <c r="C218" s="23"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="25"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="25"/>
+      <c r="A219" s="22"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="25"/>
+      <c r="A220" s="22"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="25"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5439,16 +5439,16 @@
       <c r="A224" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B224" s="24" t="s">
+      <c r="B224" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C224" s="24"/>
+      <c r="C224" s="25"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="22" t="s">
+      <c r="A225" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="22"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="5" t="s">
         <v>1</v>
       </c>
@@ -5461,16 +5461,16 @@
       <c r="C226" s="23"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="24" t="s">
+      <c r="A227" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B227" s="24"/>
-      <c r="C227" s="24"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="25"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="24"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="24"/>
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="25"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
@@ -5480,19 +5480,19 @@
       <c r="C229" s="23"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="25"/>
+      <c r="A230" s="22"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="25"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="25"/>
+      <c r="A231" s="22"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="22"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="25"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -5509,16 +5509,16 @@
       <c r="A235" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B235" s="24" t="s">
+      <c r="B235" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C235" s="24"/>
+      <c r="C235" s="25"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="22" t="s">
+      <c r="A236" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="22"/>
+      <c r="B236" s="24"/>
       <c r="C236" s="5" t="s">
         <v>1</v>
       </c>
@@ -5531,16 +5531,16 @@
       <c r="C237" s="23"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="24" t="s">
+      <c r="A238" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B238" s="24"/>
-      <c r="C238" s="24"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="25"/>
     </row>
     <row r="239" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="24"/>
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
@@ -5550,19 +5550,19 @@
       <c r="C240" s="23"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="25"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="25"/>
+      <c r="A241" s="22"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="22"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="25"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="25"/>
+      <c r="A242" s="22"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="22"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="25"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="25"/>
+      <c r="A243" s="22"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
@@ -5585,10 +5585,10 @@
       <c r="C246" s="23"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="22" t="s">
+      <c r="A247" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="22"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="5" t="s">
         <v>1</v>
       </c>
@@ -5601,16 +5601,16 @@
       <c r="C248" s="23"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="22" t="s">
+      <c r="A249" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
     </row>
     <row r="250" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="22"/>
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
@@ -5620,19 +5620,19 @@
       <c r="C251" s="23"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
-      <c r="C252" s="25"/>
+      <c r="A252" s="22"/>
+      <c r="B252" s="22"/>
+      <c r="C252" s="22"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="25"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="25"/>
+      <c r="A253" s="22"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="22"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="25"/>
-      <c r="B254" s="25"/>
-      <c r="C254" s="25"/>
+      <c r="A254" s="22"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
@@ -5655,10 +5655,10 @@
       <c r="C257" s="23"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="22" t="s">
+      <c r="A258" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="22"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="5" t="s">
         <v>1</v>
       </c>
@@ -5671,16 +5671,16 @@
       <c r="C259" s="23"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="22" t="s">
+      <c r="A260" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
     </row>
     <row r="261" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="22"/>
-      <c r="B261" s="22"/>
-      <c r="C261" s="22"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
@@ -5690,19 +5690,19 @@
       <c r="C262" s="23"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="25"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
+      <c r="A263" s="22"/>
+      <c r="B263" s="22"/>
+      <c r="C263" s="22"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="25"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="25"/>
+      <c r="A264" s="22"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="25"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="25"/>
+      <c r="A265" s="22"/>
+      <c r="B265" s="22"/>
+      <c r="C265" s="22"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
@@ -5725,10 +5725,10 @@
       <c r="C269" s="23"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="22" t="s">
+      <c r="A270" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="22"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="11" t="s">
         <v>1</v>
       </c>
@@ -5741,16 +5741,16 @@
       <c r="C271" s="23"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="22" t="s">
+      <c r="A272" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B272" s="22"/>
-      <c r="C272" s="22"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="24"/>
     </row>
     <row r="273" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="22"/>
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
+      <c r="A273" s="24"/>
+      <c r="B273" s="24"/>
+      <c r="C273" s="24"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
@@ -5760,19 +5760,19 @@
       <c r="C274" s="23"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="25"/>
-      <c r="B275" s="25"/>
-      <c r="C275" s="25"/>
+      <c r="A275" s="22"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="22"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="25"/>
-      <c r="B276" s="25"/>
-      <c r="C276" s="25"/>
+      <c r="A276" s="22"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="22"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="25"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="25"/>
+      <c r="A277" s="22"/>
+      <c r="B277" s="22"/>
+      <c r="C277" s="22"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -5795,10 +5795,10 @@
       <c r="C280" s="23"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="22" t="s">
+      <c r="A281" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="22"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="11" t="s">
         <v>1</v>
       </c>
@@ -5811,16 +5811,16 @@
       <c r="C282" s="23"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="22" t="s">
+      <c r="A283" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B283" s="22"/>
-      <c r="C283" s="22"/>
+      <c r="B283" s="24"/>
+      <c r="C283" s="24"/>
     </row>
     <row r="284" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="22"/>
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="24"/>
+      <c r="C284" s="24"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
@@ -5830,19 +5830,19 @@
       <c r="C285" s="23"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="25"/>
-      <c r="B286" s="25"/>
-      <c r="C286" s="25"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="22"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="25"/>
-      <c r="B287" s="25"/>
-      <c r="C287" s="25"/>
+      <c r="A287" s="22"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="22"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="25"/>
-      <c r="B288" s="25"/>
-      <c r="C288" s="25"/>
+      <c r="A288" s="22"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="22"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
@@ -5865,10 +5865,10 @@
       <c r="C291" s="23"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="22" t="s">
+      <c r="A292" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="22"/>
+      <c r="B292" s="24"/>
       <c r="C292" s="11" t="s">
         <v>1</v>
       </c>
@@ -5881,16 +5881,16 @@
       <c r="C293" s="23"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="22" t="s">
+      <c r="A294" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B294" s="22"/>
-      <c r="C294" s="22"/>
+      <c r="B294" s="24"/>
+      <c r="C294" s="24"/>
     </row>
     <row r="295" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="22"/>
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
+      <c r="A295" s="24"/>
+      <c r="B295" s="24"/>
+      <c r="C295" s="24"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
@@ -5900,19 +5900,19 @@
       <c r="C296" s="23"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="25"/>
-      <c r="B297" s="25"/>
-      <c r="C297" s="25"/>
+      <c r="A297" s="22"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="22"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="25"/>
-      <c r="B298" s="25"/>
-      <c r="C298" s="25"/>
+      <c r="A298" s="22"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="22"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="25"/>
-      <c r="B299" s="25"/>
-      <c r="C299" s="25"/>
+      <c r="A299" s="22"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="22"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
@@ -5935,10 +5935,10 @@
       <c r="C302" s="23"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="22" t="s">
+      <c r="A303" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="22"/>
+      <c r="B303" s="24"/>
       <c r="C303" s="11" t="s">
         <v>1</v>
       </c>
@@ -5951,16 +5951,16 @@
       <c r="C304" s="23"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="22" t="s">
+      <c r="A305" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
+      <c r="B305" s="24"/>
+      <c r="C305" s="24"/>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="22"/>
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
+      <c r="A306" s="24"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="24"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
@@ -5970,19 +5970,19 @@
       <c r="C307" s="23"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="25"/>
-      <c r="B308" s="25"/>
-      <c r="C308" s="25"/>
+      <c r="A308" s="22"/>
+      <c r="B308" s="22"/>
+      <c r="C308" s="22"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="25"/>
-      <c r="B309" s="25"/>
-      <c r="C309" s="25"/>
+      <c r="A309" s="22"/>
+      <c r="B309" s="22"/>
+      <c r="C309" s="22"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="25"/>
-      <c r="B310" s="25"/>
-      <c r="C310" s="25"/>
+      <c r="A310" s="22"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="22"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
@@ -6005,10 +6005,10 @@
       <c r="C313" s="23"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="22" t="s">
+      <c r="A314" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="22"/>
+      <c r="B314" s="24"/>
       <c r="C314" s="11" t="s">
         <v>1</v>
       </c>
@@ -6021,16 +6021,16 @@
       <c r="C315" s="23"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="22" t="s">
+      <c r="A316" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B316" s="22"/>
-      <c r="C316" s="22"/>
+      <c r="B316" s="24"/>
+      <c r="C316" s="24"/>
     </row>
     <row r="317" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="22"/>
-      <c r="B317" s="22"/>
-      <c r="C317" s="22"/>
+      <c r="A317" s="24"/>
+      <c r="B317" s="24"/>
+      <c r="C317" s="24"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
@@ -6040,19 +6040,19 @@
       <c r="C318" s="23"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="25"/>
-      <c r="B319" s="25"/>
-      <c r="C319" s="25"/>
+      <c r="A319" s="22"/>
+      <c r="B319" s="22"/>
+      <c r="C319" s="22"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="25"/>
-      <c r="B320" s="25"/>
-      <c r="C320" s="25"/>
+      <c r="A320" s="22"/>
+      <c r="B320" s="22"/>
+      <c r="C320" s="22"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="25"/>
-      <c r="B321" s="25"/>
-      <c r="C321" s="25"/>
+      <c r="A321" s="22"/>
+      <c r="B321" s="22"/>
+      <c r="C321" s="22"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
@@ -6075,10 +6075,10 @@
       <c r="C324" s="23"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="22" t="s">
+      <c r="A325" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="22"/>
+      <c r="B325" s="24"/>
       <c r="C325" s="11" t="s">
         <v>1</v>
       </c>
@@ -6091,16 +6091,16 @@
       <c r="C326" s="23"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="22" t="s">
+      <c r="A327" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B327" s="22"/>
-      <c r="C327" s="22"/>
+      <c r="B327" s="24"/>
+      <c r="C327" s="24"/>
     </row>
     <row r="328" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="22"/>
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
+      <c r="A328" s="24"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="24"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
@@ -6110,19 +6110,19 @@
       <c r="C329" s="23"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="25"/>
-      <c r="B330" s="25"/>
-      <c r="C330" s="25"/>
+      <c r="A330" s="22"/>
+      <c r="B330" s="22"/>
+      <c r="C330" s="22"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="25"/>
-      <c r="B331" s="25"/>
-      <c r="C331" s="25"/>
+      <c r="A331" s="22"/>
+      <c r="B331" s="22"/>
+      <c r="C331" s="22"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="25"/>
-      <c r="B332" s="25"/>
-      <c r="C332" s="25"/>
+      <c r="A332" s="22"/>
+      <c r="B332" s="22"/>
+      <c r="C332" s="22"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
@@ -6145,10 +6145,10 @@
       <c r="C335" s="23"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="22" t="s">
+      <c r="A336" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="22"/>
+      <c r="B336" s="24"/>
       <c r="C336" s="11" t="s">
         <v>1</v>
       </c>
@@ -6161,16 +6161,16 @@
       <c r="C337" s="23"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="22" t="s">
+      <c r="A338" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B338" s="22"/>
-      <c r="C338" s="22"/>
+      <c r="B338" s="24"/>
+      <c r="C338" s="24"/>
     </row>
     <row r="339" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="22"/>
-      <c r="B339" s="22"/>
-      <c r="C339" s="22"/>
+      <c r="A339" s="24"/>
+      <c r="B339" s="24"/>
+      <c r="C339" s="24"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
@@ -6180,19 +6180,19 @@
       <c r="C340" s="23"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="25"/>
-      <c r="B341" s="25"/>
-      <c r="C341" s="25"/>
+      <c r="A341" s="22"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="22"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="25"/>
-      <c r="B342" s="25"/>
-      <c r="C342" s="25"/>
+      <c r="A342" s="22"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="22"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="25"/>
-      <c r="B343" s="25"/>
-      <c r="C343" s="25"/>
+      <c r="A343" s="22"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="22"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
@@ -6215,10 +6215,10 @@
       <c r="C346" s="23"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="22" t="s">
+      <c r="A347" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B347" s="22"/>
+      <c r="B347" s="24"/>
       <c r="C347" s="11" t="s">
         <v>1</v>
       </c>
@@ -6231,16 +6231,16 @@
       <c r="C348" s="23"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="22" t="s">
+      <c r="A349" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B349" s="22"/>
-      <c r="C349" s="22"/>
+      <c r="B349" s="24"/>
+      <c r="C349" s="24"/>
     </row>
     <row r="350" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="22"/>
-      <c r="B350" s="22"/>
-      <c r="C350" s="22"/>
+      <c r="A350" s="24"/>
+      <c r="B350" s="24"/>
+      <c r="C350" s="24"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
@@ -6250,19 +6250,19 @@
       <c r="C351" s="23"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="25"/>
-      <c r="B352" s="25"/>
-      <c r="C352" s="25"/>
+      <c r="A352" s="22"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="22"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="25"/>
-      <c r="B353" s="25"/>
-      <c r="C353" s="25"/>
+      <c r="A353" s="22"/>
+      <c r="B353" s="22"/>
+      <c r="C353" s="22"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="25"/>
-      <c r="B354" s="25"/>
-      <c r="C354" s="25"/>
+      <c r="A354" s="22"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="22"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
@@ -6285,10 +6285,10 @@
       <c r="C357" s="23"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="22" t="s">
+      <c r="A358" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B358" s="22"/>
+      <c r="B358" s="24"/>
       <c r="C358" s="11" t="s">
         <v>1</v>
       </c>
@@ -6301,16 +6301,16 @@
       <c r="C359" s="23"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="22" t="s">
+      <c r="A360" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B360" s="22"/>
-      <c r="C360" s="22"/>
+      <c r="B360" s="24"/>
+      <c r="C360" s="24"/>
     </row>
     <row r="361" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="22"/>
-      <c r="B361" s="22"/>
-      <c r="C361" s="22"/>
+      <c r="A361" s="24"/>
+      <c r="B361" s="24"/>
+      <c r="C361" s="24"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
@@ -6320,19 +6320,19 @@
       <c r="C362" s="23"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="25"/>
-      <c r="B363" s="25"/>
-      <c r="C363" s="25"/>
+      <c r="A363" s="22"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="22"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="25"/>
-      <c r="B364" s="25"/>
-      <c r="C364" s="25"/>
+      <c r="A364" s="22"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="22"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="25"/>
-      <c r="B365" s="25"/>
-      <c r="C365" s="25"/>
+      <c r="A365" s="22"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="22"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
@@ -6355,10 +6355,10 @@
       <c r="C368" s="23"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="22" t="s">
+      <c r="A369" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="22"/>
+      <c r="B369" s="24"/>
       <c r="C369" s="11" t="s">
         <v>1</v>
       </c>
@@ -6371,16 +6371,16 @@
       <c r="C370" s="23"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="22" t="s">
+      <c r="A371" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B371" s="22"/>
-      <c r="C371" s="22"/>
+      <c r="B371" s="24"/>
+      <c r="C371" s="24"/>
     </row>
     <row r="372" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="22"/>
-      <c r="B372" s="22"/>
-      <c r="C372" s="22"/>
+      <c r="A372" s="24"/>
+      <c r="B372" s="24"/>
+      <c r="C372" s="24"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
@@ -6390,19 +6390,19 @@
       <c r="C373" s="23"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="25"/>
-      <c r="B374" s="25"/>
-      <c r="C374" s="25"/>
+      <c r="A374" s="22"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="22"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="25"/>
-      <c r="B375" s="25"/>
-      <c r="C375" s="25"/>
+      <c r="A375" s="22"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="22"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="25"/>
-      <c r="B376" s="25"/>
-      <c r="C376" s="25"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="22"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
@@ -6425,10 +6425,10 @@
       <c r="C379" s="23"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="22" t="s">
+      <c r="A380" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B380" s="22"/>
+      <c r="B380" s="24"/>
       <c r="C380" s="11" t="s">
         <v>1</v>
       </c>
@@ -6441,16 +6441,16 @@
       <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="22" t="s">
+      <c r="A382" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B382" s="22"/>
-      <c r="C382" s="22"/>
+      <c r="B382" s="24"/>
+      <c r="C382" s="24"/>
     </row>
     <row r="383" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="22"/>
-      <c r="B383" s="22"/>
-      <c r="C383" s="22"/>
+      <c r="A383" s="24"/>
+      <c r="B383" s="24"/>
+      <c r="C383" s="24"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
@@ -6460,19 +6460,19 @@
       <c r="C384" s="23"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="25"/>
-      <c r="B385" s="25"/>
-      <c r="C385" s="25"/>
+      <c r="A385" s="22"/>
+      <c r="B385" s="22"/>
+      <c r="C385" s="22"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="25"/>
-      <c r="B386" s="25"/>
-      <c r="C386" s="25"/>
+      <c r="A386" s="22"/>
+      <c r="B386" s="22"/>
+      <c r="C386" s="22"/>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="25"/>
-      <c r="B387" s="25"/>
-      <c r="C387" s="25"/>
+      <c r="A387" s="22"/>
+      <c r="B387" s="22"/>
+      <c r="C387" s="22"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
@@ -6495,10 +6495,10 @@
       <c r="C390" s="23"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="22" t="s">
+      <c r="A391" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="22"/>
+      <c r="B391" s="24"/>
       <c r="C391" s="11" t="s">
         <v>1</v>
       </c>
@@ -6511,16 +6511,16 @@
       <c r="C392" s="23"/>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="22" t="s">
+      <c r="A393" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B393" s="22"/>
-      <c r="C393" s="22"/>
+      <c r="B393" s="24"/>
+      <c r="C393" s="24"/>
     </row>
     <row r="394" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="22"/>
-      <c r="B394" s="22"/>
-      <c r="C394" s="22"/>
+      <c r="A394" s="24"/>
+      <c r="B394" s="24"/>
+      <c r="C394" s="24"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
@@ -6530,19 +6530,19 @@
       <c r="C395" s="23"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="25"/>
-      <c r="B396" s="25"/>
-      <c r="C396" s="25"/>
+      <c r="A396" s="22"/>
+      <c r="B396" s="22"/>
+      <c r="C396" s="22"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="25"/>
-      <c r="B397" s="25"/>
-      <c r="C397" s="25"/>
+      <c r="A397" s="22"/>
+      <c r="B397" s="22"/>
+      <c r="C397" s="22"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="25"/>
-      <c r="B398" s="25"/>
-      <c r="C398" s="25"/>
+      <c r="A398" s="22"/>
+      <c r="B398" s="22"/>
+      <c r="C398" s="22"/>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
@@ -6565,10 +6565,10 @@
       <c r="C401" s="23"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="22" t="s">
+      <c r="A402" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B402" s="22"/>
+      <c r="B402" s="24"/>
       <c r="C402" s="11" t="s">
         <v>1</v>
       </c>
@@ -6581,16 +6581,16 @@
       <c r="C403" s="23"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="22" t="s">
+      <c r="A404" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B404" s="22"/>
-      <c r="C404" s="22"/>
+      <c r="B404" s="24"/>
+      <c r="C404" s="24"/>
     </row>
     <row r="405" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="22"/>
-      <c r="B405" s="22"/>
-      <c r="C405" s="22"/>
+      <c r="A405" s="24"/>
+      <c r="B405" s="24"/>
+      <c r="C405" s="24"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
@@ -6600,19 +6600,19 @@
       <c r="C406" s="23"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="25"/>
-      <c r="B407" s="25"/>
-      <c r="C407" s="25"/>
+      <c r="A407" s="22"/>
+      <c r="B407" s="22"/>
+      <c r="C407" s="22"/>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="25"/>
-      <c r="B408" s="25"/>
-      <c r="C408" s="25"/>
+      <c r="A408" s="22"/>
+      <c r="B408" s="22"/>
+      <c r="C408" s="22"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="25"/>
-      <c r="B409" s="25"/>
-      <c r="C409" s="25"/>
+      <c r="A409" s="22"/>
+      <c r="B409" s="22"/>
+      <c r="C409" s="22"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
@@ -6635,10 +6635,10 @@
       <c r="C412" s="23"/>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="22" t="s">
+      <c r="A413" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B413" s="22"/>
+      <c r="B413" s="24"/>
       <c r="C413" s="11" t="s">
         <v>1</v>
       </c>
@@ -6651,16 +6651,16 @@
       <c r="C414" s="23"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="22" t="s">
+      <c r="A415" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B415" s="22"/>
-      <c r="C415" s="22"/>
+      <c r="B415" s="24"/>
+      <c r="C415" s="24"/>
     </row>
     <row r="416" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="22"/>
-      <c r="B416" s="22"/>
-      <c r="C416" s="22"/>
+      <c r="A416" s="24"/>
+      <c r="B416" s="24"/>
+      <c r="C416" s="24"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
@@ -6670,19 +6670,19 @@
       <c r="C417" s="23"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="25"/>
-      <c r="B418" s="25"/>
-      <c r="C418" s="25"/>
+      <c r="A418" s="22"/>
+      <c r="B418" s="22"/>
+      <c r="C418" s="22"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="25"/>
-      <c r="B419" s="25"/>
-      <c r="C419" s="25"/>
+      <c r="A419" s="22"/>
+      <c r="B419" s="22"/>
+      <c r="C419" s="22"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="25"/>
-      <c r="B420" s="25"/>
-      <c r="C420" s="25"/>
+      <c r="A420" s="22"/>
+      <c r="B420" s="22"/>
+      <c r="C420" s="22"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
@@ -6705,10 +6705,10 @@
       <c r="C423" s="23"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="22" t="s">
+      <c r="A424" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B424" s="22"/>
+      <c r="B424" s="24"/>
       <c r="C424" s="11" t="s">
         <v>1</v>
       </c>
@@ -6721,16 +6721,16 @@
       <c r="C425" s="23"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="22" t="s">
+      <c r="A426" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B426" s="22"/>
-      <c r="C426" s="22"/>
+      <c r="B426" s="24"/>
+      <c r="C426" s="24"/>
     </row>
     <row r="427" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="22"/>
-      <c r="B427" s="22"/>
-      <c r="C427" s="22"/>
+      <c r="A427" s="24"/>
+      <c r="B427" s="24"/>
+      <c r="C427" s="24"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
@@ -6740,19 +6740,19 @@
       <c r="C428" s="23"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="25"/>
-      <c r="B429" s="25"/>
-      <c r="C429" s="25"/>
+      <c r="A429" s="22"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="22"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="25"/>
-      <c r="B430" s="25"/>
-      <c r="C430" s="25"/>
+      <c r="A430" s="22"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="22"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="25"/>
-      <c r="B431" s="25"/>
-      <c r="C431" s="25"/>
+      <c r="A431" s="22"/>
+      <c r="B431" s="22"/>
+      <c r="C431" s="22"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
@@ -6775,10 +6775,10 @@
       <c r="C434" s="23"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="22" t="s">
+      <c r="A435" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B435" s="22"/>
+      <c r="B435" s="24"/>
       <c r="C435" s="11" t="s">
         <v>1</v>
       </c>
@@ -6791,16 +6791,16 @@
       <c r="C436" s="23"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="22" t="s">
+      <c r="A437" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B437" s="22"/>
-      <c r="C437" s="22"/>
+      <c r="B437" s="24"/>
+      <c r="C437" s="24"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="22"/>
-      <c r="B438" s="22"/>
-      <c r="C438" s="22"/>
+      <c r="A438" s="24"/>
+      <c r="B438" s="24"/>
+      <c r="C438" s="24"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
@@ -6810,19 +6810,19 @@
       <c r="C439" s="23"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="25"/>
-      <c r="B440" s="25"/>
-      <c r="C440" s="25"/>
+      <c r="A440" s="22"/>
+      <c r="B440" s="22"/>
+      <c r="C440" s="22"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="25"/>
-      <c r="B441" s="25"/>
-      <c r="C441" s="25"/>
+      <c r="A441" s="22"/>
+      <c r="B441" s="22"/>
+      <c r="C441" s="22"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="25"/>
-      <c r="B442" s="25"/>
-      <c r="C442" s="25"/>
+      <c r="A442" s="22"/>
+      <c r="B442" s="22"/>
+      <c r="C442" s="22"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
@@ -6845,10 +6845,10 @@
       <c r="C445" s="23"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="22" t="s">
+      <c r="A446" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B446" s="22"/>
+      <c r="B446" s="24"/>
       <c r="C446" s="11" t="s">
         <v>1</v>
       </c>
@@ -6861,16 +6861,16 @@
       <c r="C447" s="23"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="22" t="s">
+      <c r="A448" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B448" s="22"/>
-      <c r="C448" s="22"/>
+      <c r="B448" s="24"/>
+      <c r="C448" s="24"/>
     </row>
     <row r="449" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="22"/>
-      <c r="B449" s="22"/>
-      <c r="C449" s="22"/>
+      <c r="A449" s="24"/>
+      <c r="B449" s="24"/>
+      <c r="C449" s="24"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
@@ -6880,19 +6880,19 @@
       <c r="C450" s="23"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="25"/>
-      <c r="B451" s="25"/>
-      <c r="C451" s="25"/>
+      <c r="A451" s="22"/>
+      <c r="B451" s="22"/>
+      <c r="C451" s="22"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="25"/>
-      <c r="B452" s="25"/>
-      <c r="C452" s="25"/>
+      <c r="A452" s="22"/>
+      <c r="B452" s="22"/>
+      <c r="C452" s="22"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="25"/>
-      <c r="B453" s="25"/>
-      <c r="C453" s="25"/>
+      <c r="A453" s="22"/>
+      <c r="B453" s="22"/>
+      <c r="C453" s="22"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
@@ -6915,10 +6915,10 @@
       <c r="C456" s="23"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="22" t="s">
+      <c r="A457" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B457" s="22"/>
+      <c r="B457" s="24"/>
       <c r="C457" s="11" t="s">
         <v>1</v>
       </c>
@@ -6931,16 +6931,16 @@
       <c r="C458" s="23"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="22" t="s">
+      <c r="A459" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B459" s="22"/>
-      <c r="C459" s="22"/>
+      <c r="B459" s="24"/>
+      <c r="C459" s="24"/>
     </row>
     <row r="460" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="22"/>
-      <c r="B460" s="22"/>
-      <c r="C460" s="22"/>
+      <c r="A460" s="24"/>
+      <c r="B460" s="24"/>
+      <c r="C460" s="24"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
@@ -6950,19 +6950,19 @@
       <c r="C461" s="23"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="25"/>
-      <c r="B462" s="25"/>
-      <c r="C462" s="25"/>
+      <c r="A462" s="22"/>
+      <c r="B462" s="22"/>
+      <c r="C462" s="22"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="25"/>
-      <c r="B463" s="25"/>
-      <c r="C463" s="25"/>
+      <c r="A463" s="22"/>
+      <c r="B463" s="22"/>
+      <c r="C463" s="22"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="25"/>
-      <c r="B464" s="25"/>
-      <c r="C464" s="25"/>
+      <c r="A464" s="22"/>
+      <c r="B464" s="22"/>
+      <c r="C464" s="22"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
@@ -6985,10 +6985,10 @@
       <c r="C467" s="23"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="22" t="s">
+      <c r="A468" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B468" s="22"/>
+      <c r="B468" s="24"/>
       <c r="C468" s="11" t="s">
         <v>1</v>
       </c>
@@ -7001,16 +7001,16 @@
       <c r="C469" s="23"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="22" t="s">
+      <c r="A470" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B470" s="22"/>
-      <c r="C470" s="22"/>
+      <c r="B470" s="24"/>
+      <c r="C470" s="24"/>
     </row>
     <row r="471" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="22"/>
-      <c r="B471" s="22"/>
-      <c r="C471" s="22"/>
+      <c r="A471" s="24"/>
+      <c r="B471" s="24"/>
+      <c r="C471" s="24"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
@@ -7020,19 +7020,19 @@
       <c r="C472" s="23"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="25"/>
-      <c r="B473" s="25"/>
-      <c r="C473" s="25"/>
+      <c r="A473" s="22"/>
+      <c r="B473" s="22"/>
+      <c r="C473" s="22"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="25"/>
-      <c r="B474" s="25"/>
-      <c r="C474" s="25"/>
+      <c r="A474" s="22"/>
+      <c r="B474" s="22"/>
+      <c r="C474" s="22"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="25"/>
-      <c r="B475" s="25"/>
-      <c r="C475" s="25"/>
+      <c r="A475" s="22"/>
+      <c r="B475" s="22"/>
+      <c r="C475" s="22"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
@@ -7049,16 +7049,16 @@
       <c r="A478" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B478" s="24" t="s">
+      <c r="B478" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C478" s="24"/>
+      <c r="C478" s="25"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="22" t="s">
+      <c r="A479" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B479" s="22"/>
+      <c r="B479" s="24"/>
       <c r="C479" s="11" t="s">
         <v>1</v>
       </c>
@@ -7071,16 +7071,16 @@
       <c r="C480" s="23"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="24" t="s">
+      <c r="A481" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B481" s="24"/>
-      <c r="C481" s="24"/>
+      <c r="B481" s="25"/>
+      <c r="C481" s="25"/>
     </row>
     <row r="482" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="24"/>
-      <c r="B482" s="24"/>
-      <c r="C482" s="24"/>
+      <c r="A482" s="25"/>
+      <c r="B482" s="25"/>
+      <c r="C482" s="25"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
@@ -7090,19 +7090,19 @@
       <c r="C483" s="23"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="25"/>
-      <c r="B484" s="25"/>
-      <c r="C484" s="25"/>
+      <c r="A484" s="22"/>
+      <c r="B484" s="22"/>
+      <c r="C484" s="22"/>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="25"/>
-      <c r="B485" s="25"/>
-      <c r="C485" s="25"/>
+      <c r="A485" s="22"/>
+      <c r="B485" s="22"/>
+      <c r="C485" s="22"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="25"/>
-      <c r="B486" s="25"/>
-      <c r="C486" s="25"/>
+      <c r="A486" s="22"/>
+      <c r="B486" s="22"/>
+      <c r="C486" s="22"/>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
@@ -7119,16 +7119,16 @@
       <c r="A489" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B489" s="24" t="s">
+      <c r="B489" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C489" s="24"/>
+      <c r="C489" s="25"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="22" t="s">
+      <c r="A490" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="22"/>
+      <c r="B490" s="24"/>
       <c r="C490" s="11" t="s">
         <v>1</v>
       </c>
@@ -7141,16 +7141,16 @@
       <c r="C491" s="23"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="24" t="s">
+      <c r="A492" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B492" s="24"/>
-      <c r="C492" s="24"/>
+      <c r="B492" s="25"/>
+      <c r="C492" s="25"/>
     </row>
     <row r="493" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="24"/>
-      <c r="B493" s="24"/>
-      <c r="C493" s="24"/>
+      <c r="A493" s="25"/>
+      <c r="B493" s="25"/>
+      <c r="C493" s="25"/>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
@@ -7160,19 +7160,19 @@
       <c r="C494" s="23"/>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="25"/>
-      <c r="B495" s="25"/>
-      <c r="C495" s="25"/>
+      <c r="A495" s="22"/>
+      <c r="B495" s="22"/>
+      <c r="C495" s="22"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="25"/>
-      <c r="B496" s="25"/>
-      <c r="C496" s="25"/>
+      <c r="A496" s="22"/>
+      <c r="B496" s="22"/>
+      <c r="C496" s="22"/>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="25"/>
-      <c r="B497" s="25"/>
-      <c r="C497" s="25"/>
+      <c r="A497" s="22"/>
+      <c r="B497" s="22"/>
+      <c r="C497" s="22"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
@@ -7195,10 +7195,10 @@
       <c r="C500" s="23"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="22" t="s">
+      <c r="A501" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B501" s="22"/>
+      <c r="B501" s="24"/>
       <c r="C501" s="11" t="s">
         <v>1</v>
       </c>
@@ -7211,16 +7211,16 @@
       <c r="C502" s="23"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="22" t="s">
+      <c r="A503" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B503" s="22"/>
-      <c r="C503" s="22"/>
+      <c r="B503" s="24"/>
+      <c r="C503" s="24"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="22"/>
-      <c r="B504" s="22"/>
-      <c r="C504" s="22"/>
+      <c r="A504" s="24"/>
+      <c r="B504" s="24"/>
+      <c r="C504" s="24"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
@@ -7230,19 +7230,19 @@
       <c r="C505" s="23"/>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="25"/>
-      <c r="B506" s="25"/>
-      <c r="C506" s="25"/>
+      <c r="A506" s="22"/>
+      <c r="B506" s="22"/>
+      <c r="C506" s="22"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="25"/>
-      <c r="B507" s="25"/>
-      <c r="C507" s="25"/>
+      <c r="A507" s="22"/>
+      <c r="B507" s="22"/>
+      <c r="C507" s="22"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="25"/>
-      <c r="B508" s="25"/>
-      <c r="C508" s="25"/>
+      <c r="A508" s="22"/>
+      <c r="B508" s="22"/>
+      <c r="C508" s="22"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
@@ -7265,10 +7265,10 @@
       <c r="C511" s="23"/>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="22" t="s">
+      <c r="A512" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B512" s="22"/>
+      <c r="B512" s="24"/>
       <c r="C512" s="11" t="s">
         <v>1</v>
       </c>
@@ -7281,16 +7281,16 @@
       <c r="C513" s="23"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="22" t="s">
+      <c r="A514" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B514" s="22"/>
-      <c r="C514" s="22"/>
+      <c r="B514" s="24"/>
+      <c r="C514" s="24"/>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="22"/>
-      <c r="B515" s="22"/>
-      <c r="C515" s="22"/>
+      <c r="A515" s="24"/>
+      <c r="B515" s="24"/>
+      <c r="C515" s="24"/>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
@@ -7300,19 +7300,19 @@
       <c r="C516" s="23"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="25"/>
-      <c r="B517" s="25"/>
-      <c r="C517" s="25"/>
+      <c r="A517" s="22"/>
+      <c r="B517" s="22"/>
+      <c r="C517" s="22"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="25"/>
-      <c r="B518" s="25"/>
-      <c r="C518" s="25"/>
+      <c r="A518" s="22"/>
+      <c r="B518" s="22"/>
+      <c r="C518" s="22"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="25"/>
-      <c r="B519" s="25"/>
-      <c r="C519" s="25"/>
+      <c r="A519" s="22"/>
+      <c r="B519" s="22"/>
+      <c r="C519" s="22"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
@@ -7321,94 +7321,272 @@
     </row>
   </sheetData>
   <mergeCells count="378">
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C515"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="B511:C511"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A492:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="B478:C478"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A437:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="B445:C445"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C449"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C217"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A238:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C250"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C94"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C138"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A360:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
     <mergeCell ref="B390:C390"/>
     <mergeCell ref="A391:B391"/>
     <mergeCell ref="A392:C392"/>
@@ -7433,272 +7611,94 @@
     <mergeCell ref="A386:C386"/>
     <mergeCell ref="A387:C387"/>
     <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A360:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A327:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C339"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C138"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C94"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A238:C239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C250"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C217"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A437:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="B445:C445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C449"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A492:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C515"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="B511:C511"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7709,7 +7709,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
@@ -7738,10 +7738,10 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7754,16 +7754,16 @@
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7773,19 +7773,19 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -7800,26 +7800,26 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
@@ -7834,26 +7834,26 @@
       <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -7868,26 +7868,26 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
@@ -7902,26 +7902,26 @@
       <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7936,26 +7936,26 @@
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
@@ -7970,26 +7970,26 @@
       <c r="C39" s="54"/>
     </row>
     <row r="40" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -8004,26 +8004,26 @@
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
@@ -8038,26 +8038,26 @@
       <c r="C50" s="54"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
     </row>
     <row r="53" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -8072,26 +8072,26 @@
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="42"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
@@ -8106,26 +8106,26 @@
       <c r="C61" s="54"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -8140,26 +8140,26 @@
       <c r="A68" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="42"/>
+      <c r="C68" s="30"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="39"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="30"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
@@ -8174,26 +8174,26 @@
       <c r="C72" s="54"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="42"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -8208,26 +8208,26 @@
       <c r="A80" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="42"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="39"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
@@ -8242,26 +8242,26 @@
       <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="37"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="33"/>
     </row>
     <row r="87" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -8276,26 +8276,26 @@
       <c r="A91" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="42"/>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="39"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="30"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
@@ -8310,26 +8310,26 @@
       <c r="C95" s="54"/>
     </row>
     <row r="96" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="37"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -8344,26 +8344,26 @@
       <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="42"/>
+      <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="39"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B104" s="41"/>
-      <c r="C104" s="42"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
@@ -8378,26 +8378,26 @@
       <c r="C106" s="54"/>
     </row>
     <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="42"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="30"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="37"/>
+      <c r="A108" s="31"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="33"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -8412,26 +8412,26 @@
       <c r="A113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="42"/>
+      <c r="C113" s="30"/>
     </row>
     <row r="114" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="39"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="42"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="49" t="s">
@@ -8446,26 +8446,26 @@
       <c r="C117" s="54"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="42"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="30"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="37"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="33"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -8480,26 +8480,26 @@
       <c r="A124" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="42"/>
+      <c r="C124" s="30"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="42"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="30"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
@@ -8514,54 +8514,84 @@
       <c r="C128" s="54"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="42"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="30"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="37"/>
+      <c r="A130" s="31"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="33"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A116:C117"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B113:C113"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
@@ -8578,61 +8608,31 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C84"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A116:C117"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
